--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgaust-my.sharepoint.com/personal/gtreseder_kpmg_com_au/Documents/Documents/3. Client/Essential Energy/Probability of Failure Model/pof/data/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC68DA7-20EF-41BD-A047-4CB41174CE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{BCC68DA7-20EF-41BD-A047-4CB41174CE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3F1F376-B3BC-4B13-AA5F-90DBE2ED97CE}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="Differentiators" sheetId="16" r:id="rId2"/>
-    <sheet name="Model Parameters" sheetId="14" r:id="rId3"/>
-    <sheet name="Simple" sheetId="15" r:id="rId4"/>
+    <sheet name="Asset Data" sheetId="17" r:id="rId2"/>
+    <sheet name="Differentiators" sheetId="16" r:id="rId3"/>
+    <sheet name="Model Parameters" sheetId="14" r:id="rId4"/>
+    <sheet name="Simple" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>failure_model</t>
   </si>
@@ -45,6 +46,15 @@
     <t>termites</t>
   </si>
   <si>
+    <t>wall_thickness</t>
+  </si>
+  <si>
+    <t>external_diameter</t>
+  </si>
+  <si>
+    <t>asset_model</t>
+  </si>
+  <si>
     <t>material</t>
   </si>
   <si>
@@ -76,6 +86,33 @@
   </si>
   <si>
     <t>trait</t>
+  </si>
+  <si>
+    <t>asset_data</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>agd</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>condition.perfect</t>
+  </si>
+  <si>
+    <t>data_model</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -127,9 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,10 +184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,11 +462,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F854F7-F572-4B30-9CD2-4D7E94AA128F}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB3125C-C0A9-4D97-B06A-CED3F6AFED7F}">
   <dimension ref="A4:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,38 +559,38 @@
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -485,12 +598,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020B841B-D052-42DA-B753-94634E6D16A5}">
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,22 +618,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,21 +644,21 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -554,12 +667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA06071-9731-4284-B153-4AEB9286CA39}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +697,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DFBCA85F077F640A21F6265EED2729B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d6584b6d4000c85bd14d61812c8787d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2f8f7d1-4c8b-4940-96d8-7956d77e7075" xmlns:ns4="f509038c-36be-46c1-b5a7-8ffb9a843829" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c37445146400b132bd789c3d40d1d1d" ns3:_="" ns4:_="">
     <xsd:import namespace="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
@@ -806,15 +928,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -822,6 +935,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48BD8BE-05E4-4B59-A3FF-CEAC95071BD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380DD583-77CF-4466-B2D6-F0B4B140DEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -840,27 +961,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48BD8BE-05E4-4B59-A3FF-CEAC95071BD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AD5716-7AF6-40F3-9CA6-40CD164BDDE7}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
-    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BCC68DA7-20EF-41BD-A047-4CB41174CE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3F1F376-B3BC-4B13-AA5F-90DBE2ED97CE}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{BCC68DA7-20EF-41BD-A047-4CB41174CE72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{98DBC9F2-496B-4F3D-BA35-63C49CFCF5DD}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>failure_model</t>
   </si>
@@ -113,6 +113,84 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>timber</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>cca</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Wall thickness</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Coeff</t>
+  </si>
+  <si>
+    <t>coefff</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>realy Bad</t>
+  </si>
+  <si>
+    <t>Assset 1</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters -&gt; </t>
+  </si>
+  <si>
+    <t>Models -&gt;</t>
+  </si>
+  <si>
+    <t>PoF</t>
+  </si>
+  <si>
+    <t>Expected No Failures</t>
   </si>
 </sst>
 </file>
@@ -544,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB3125C-C0A9-4D97-B06A-CED3F6AFED7F}">
   <dimension ref="A4:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020B841B-D052-42DA-B753-94634E6D16A5}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +689,7 @@
     <col min="1" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,16 +728,205 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0.9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>0.08</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21">
+        <v>1.2</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -669,13 +937,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA06071-9731-4284-B153-4AEB9286CA39}">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -689,6 +960,81 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -706,6 +1052,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DFBCA85F077F640A21F6265EED2729B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d6584b6d4000c85bd14d61812c8787d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f2f8f7d1-4c8b-4940-96d8-7956d77e7075" xmlns:ns4="f509038c-36be-46c1-b5a7-8ffb9a843829" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c37445146400b132bd789c3d40d1d1d" ns3:_="" ns4:_="">
     <xsd:import namespace="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
@@ -928,12 +1280,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48BD8BE-05E4-4B59-A3FF-CEAC95071BD7}">
   <ds:schemaRefs>
@@ -943,6 +1289,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AD5716-7AF6-40F3-9CA6-40CD164BDDE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380DD583-77CF-4466-B2D6-F0B4B140DEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -959,21 +1322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06AD5716-7AF6-40F3-9CA6-40CD164BDDE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f509038c-36be-46c1-b5a7-8ffb9a843829"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f2f8f7d1-4c8b-4940-96d8-7956d77e7075"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB2BECA5-47D3-4C40-800C-A75374A86ACB}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C82138B2-2B21-40F5-A945-C43BA45BFEDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,27 +46,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}</author>
+    <author>tc={CC17EBD6-05C1-4A98-BCC1-16638F0C3809}</author>
     <author>Treseder, Gavin</author>
-    <author>tc={AAC0151B-041E-4F98-A281-736171BA5E27}</author>
-    <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
-    <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
-    <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
-    <author>tc={3A0043F3-8FFA-4B93-A8C3-5AAF839706BC}</author>
-    <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
-    <author>tc={23E6CB5E-D7E9-4F9E-BCAE-E1B78E86CA77}</author>
-    <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
-    <author>tc={9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}</author>
-    <author>tc={BE62B33B-1180-42C8-AE27-EADC70606D7B}</author>
-    <author>tc={C4841757-EFF4-403A-A229-DD7AF8BE79E4}</author>
-    <author>tc={5AC88E6E-5A53-45F4-9752-8CEAE7DFFDC1}</author>
-    <author>tc={1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}</author>
-    <author>tc={65DC17AD-63E9-433B-A662-056382EECC79}</author>
-    <author>tc={2A9F7F02-73AD-487F-89D9-8F1E4E03126C}</author>
-    <author>tc={D0C67513-5DB5-4D3F-8187-F19DE320258E}</author>
+    <author>tc={90592F8A-219B-4CC8-A79D-1025DF3D8AE3}</author>
+    <author>tc={6CC456A9-9B8E-4017-919B-D2B52927524F}</author>
+    <author>tc={39C9286F-B95A-4337-A08F-BDDC6DFE87D2}</author>
+    <author>tc={F772331A-CC2B-4B36-928E-ADF8B1B87D78}</author>
+    <author>tc={6F9C7558-2488-4B35-9A88-BB19AC96E38D}</author>
+    <author>tc={2D585846-AAEB-47E7-B476-A4251DE27C2D}</author>
+    <author>tc={F78876A4-21B8-4D9C-B889-EECA67BBC883}</author>
+    <author>tc={24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}</author>
+    <author>tc={C3CE3649-C35B-444A-A040-16B06B8C2414}</author>
+    <author>tc={B795DDA2-6224-4F3A-8BCF-159DB08854C4}</author>
+    <author>tc={896933EB-2D07-46B7-874F-3B074D4F0E8B}</author>
+    <author>tc={DDEEA5E8-2AA9-4995-8434-3EF3B3569035}</author>
+    <author>tc={4CD5258A-D67E-47FB-8E74-EB8F45775404}</author>
+    <author>tc={C3F48FD3-2D79-4C22-82C0-945632F916A3}</author>
+    <author>tc={E0121891-86BC-42ED-83A9-BDDA9AFE6E85}</author>
+    <author>tc={847E5DCE-92A7-4EE6-853D-64CCEC54041B}</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{CC17EBD6-05C1-4A98-BCC1-16638F0C3809}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +74,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{C7A81D15-FCF3-415F-A40D-839B349A9F70}">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{4F6D8068-4421-4C3E-B9A0-DEEB3CA1758D}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Treseder, Gavin:</t>
         </r>
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Safety Factor of 2 = 20
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP5" authorId="2" shapeId="0" xr:uid="{AAC0151B-041E-4F98-A281-736171BA5E27}">
+    <comment ref="AP5" authorId="2" shapeId="0" xr:uid="{90592F8A-219B-4CC8-A79D-1025DF3D8AE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     20mm of wallthickness loss not detectable</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{6CC456A9-9B8E-4017-919B-D2B52927524F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{35FB3C9B-831F-4AA2-84D9-035DA7204648}">
+    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{BDECFFD9-E37D-4B2C-864E-CD634D4FF28D}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Treseder, Gavin:</t>
         </r>
@@ -133,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 157
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="4" shapeId="0" xr:uid="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
+    <comment ref="F8" authorId="4" shapeId="0" xr:uid="{39C9286F-B95A-4337-A08F-BDDC6DFE87D2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +149,7 @@
     Removed to solve timeline error when method wasn't actuall called anywhere</t>
       </text>
     </comment>
-    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +157,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="E50" authorId="6" shapeId="0" xr:uid="{3A0043F3-8FFA-4B93-A8C3-5AAF839706BC}">
+    <comment ref="E50" authorId="6" shapeId="0" xr:uid="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +165,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +173,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="E56" authorId="8" shapeId="0" xr:uid="{23E6CB5E-D7E9-4F9E-BCAE-E1B78E86CA77}">
+    <comment ref="E56" authorId="8" shapeId="0" xr:uid="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +181,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="J56" authorId="9" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="J56" authorId="9" shapeId="0" xr:uid="{24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +189,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AD56" authorId="10" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AD56" authorId="10" shapeId="0" xr:uid="{C3CE3649-C35B-444A-A040-16B06B8C2414}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -198,7 +198,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X58" authorId="11" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="X58" authorId="11" shapeId="0" xr:uid="{B795DDA2-6224-4F3A-8BCF-159DB08854C4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -206,7 +206,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D64" authorId="12" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D64" authorId="12" shapeId="0" xr:uid="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -214,7 +214,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="E64" authorId="13" shapeId="0" xr:uid="{5AC88E6E-5A53-45F4-9752-8CEAE7DFFDC1}">
+    <comment ref="E64" authorId="13" shapeId="0" xr:uid="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +222,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AD64" authorId="14" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AD64" authorId="14" shapeId="0" xr:uid="{4CD5258A-D67E-47FB-8E74-EB8F45775404}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +231,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X66" authorId="15" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="X66" authorId="15" shapeId="0" xr:uid="{C3F48FD3-2D79-4C22-82C0-945632F916A3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +239,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="F72" authorId="16" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="F72" authorId="16" shapeId="0" xr:uid="{E0121891-86BC-42ED-83A9-BDDA9AFE6E85}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +247,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="J72" authorId="17" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="J72" authorId="17" shapeId="0" xr:uid="{847E5DCE-92A7-4EE6-853D-64CCEC54041B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1289,7 +1289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,7 +1397,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1606,7 +1612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1712,20 +1718,12 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,14 +1731,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1748,21 +1738,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1777,18 +1752,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1800,22 +1768,10 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,26 +1783,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,61 +1805,83 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1922,7 +1890,714 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="224">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3066,57 +3741,57 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
+  <threadedComment ref="H5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{CC17EBD6-05C1-4A98-BCC1-16638F0C3809}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AP5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{AAC0151B-041E-4F98-A281-736171BA5E27}">
+  <threadedComment ref="AP5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{90592F8A-219B-4CC8-A79D-1025DF3D8AE3}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
-  <threadedComment ref="H6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
+  <threadedComment ref="H6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6CC456A9-9B8E-4017-919B-D2B52927524F}">
     <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
+  <threadedComment ref="F8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{39C9286F-B95A-4337-A08F-BDDC6DFE87D2}">
     <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
   </threadedComment>
-  <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="E50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3A0043F3-8FFA-4B93-A8C3-5AAF839706BC}">
+  <threadedComment ref="E50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="E56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{23E6CB5E-D7E9-4F9E-BCAE-E1B78E86CA77}">
+  <threadedComment ref="E56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="J56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="J56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AD56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="AD56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C3CE3649-C35B-444A-A040-16B06B8C2414}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="X58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B795DDA2-6224-4F3A-8BCF-159DB08854C4}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="E64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{5AC88E6E-5A53-45F4-9752-8CEAE7DFFDC1}">
+  <threadedComment ref="E64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AD64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="AD64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{4CD5258A-D67E-47FB-8E74-EB8F45775404}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="X66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C3F48FD3-2D79-4C22-82C0-945632F916A3}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="F72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="F72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{E0121891-86BC-42ED-83A9-BDDA9AFE6E85}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{847E5DCE-92A7-4EE6-853D-64CCEC54041B}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -3573,7 +4248,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4043,33 +4718,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:I72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.109375" style="137" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="97" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="77" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="137" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="158" customWidth="1"/>
-    <col min="16" max="16" width="6" style="161" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="112" customWidth="1"/>
+    <col min="16" max="16" width="6" style="114" customWidth="1"/>
     <col min="17" max="17" width="14.44140625" customWidth="1"/>
     <col min="18" max="18" width="6.88671875" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="131" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="100" customWidth="1"/>
     <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="77" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.5546875" customWidth="1"/>
     <col min="25" max="25" width="11.109375" customWidth="1"/>
     <col min="26" max="26" width="8.88671875" customWidth="1"/>
@@ -4079,17 +4754,17 @@
     <col min="30" max="30" width="14.6640625" customWidth="1"/>
     <col min="31" max="31" width="8.88671875" customWidth="1"/>
     <col min="32" max="32" width="9.5546875" customWidth="1"/>
-    <col min="33" max="33" width="23.5546875" style="97" customWidth="1"/>
+    <col min="33" max="33" width="23.5546875" style="77" customWidth="1"/>
     <col min="34" max="34" width="12" customWidth="1"/>
     <col min="35" max="36" width="11.5546875" customWidth="1"/>
     <col min="37" max="40" width="8.88671875" style="17" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="110" customWidth="1"/>
-    <col min="42" max="42" width="17.88671875" style="88" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="86" customWidth="1"/>
+    <col min="42" max="42" width="17.88671875" style="71" customWidth="1"/>
     <col min="43" max="43" width="14.109375" style="20" customWidth="1"/>
-    <col min="44" max="44" width="14.44140625" style="121" customWidth="1"/>
+    <col min="44" max="44" width="14.44140625" style="92" customWidth="1"/>
     <col min="45" max="46" width="8.88671875" style="17" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" style="110" customWidth="1"/>
-    <col min="48" max="48" width="17.88671875" style="77" customWidth="1"/>
+    <col min="47" max="47" width="8.88671875" style="86" customWidth="1"/>
+    <col min="48" max="48" width="17.88671875" customWidth="1"/>
     <col min="49" max="49" width="8.88671875" style="20" customWidth="1"/>
     <col min="50" max="50" width="16.33203125" customWidth="1"/>
     <col min="51" max="51" width="8.88671875" customWidth="1"/>
@@ -4102,8 +4777,8 @@
         <v>39</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="94"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
@@ -4116,18 +4791,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="163"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="116"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="126"/>
+      <c r="S1" s="96"/>
       <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="94"/>
+      <c r="W1" s="75"/>
       <c r="X1" s="25" t="s">
         <v>42</v>
       </c>
@@ -4139,29 +4814,29 @@
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
-      <c r="AG1" s="102"/>
+      <c r="AG1" s="80"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
-      <c r="AK1" s="66" t="s">
+      <c r="AK1" s="63" t="s">
         <v>43</v>
       </c>
       <c r="AL1" s="22"/>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="66"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="63"/>
       <c r="AQ1" s="24"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="67" t="s">
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="91"/>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="91"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
       <c r="AZ1" s="21"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
@@ -4172,38 +4847,38 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="94"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="135"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="152" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="108" t="s">
         <v>336</v>
       </c>
-      <c r="P2" s="163"/>
+      <c r="P2" s="116"/>
       <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="126"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="94"/>
+      <c r="W2" s="75"/>
       <c r="X2" s="25" t="s">
         <v>50</v>
       </c>
@@ -4217,7 +4892,7 @@
         <v>51</v>
       </c>
       <c r="AF2" s="25"/>
-      <c r="AG2" s="102" t="s">
+      <c r="AG2" s="80" t="s">
         <v>52</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -4225,29 +4900,29 @@
       </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="63" t="s">
         <v>54</v>
       </c>
       <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="AQ2" s="24"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="67" t="s">
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="72" t="s">
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="124"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="94"/>
       <c r="AZ2" s="21" t="s">
         <v>45</v>
       </c>
@@ -4262,10 +4937,10 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4277,7 +4952,7 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -4292,13 +4967,13 @@
       <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="153" t="s">
+      <c r="O3" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="162" t="s">
+      <c r="P3" s="115" t="s">
         <v>337</v>
       </c>
       <c r="Q3" s="6" t="s">
@@ -4307,7 +4982,7 @@
       <c r="R3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="127" t="s">
+      <c r="S3" s="97" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -4319,7 +4994,7 @@
       <c r="V3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="100" t="s">
+      <c r="W3" s="79" t="s">
         <v>15</v>
       </c>
       <c r="X3" s="25" t="s">
@@ -4349,7 +5024,7 @@
       <c r="AF3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="102" t="s">
+      <c r="AG3" s="80" t="s">
         <v>64</v>
       </c>
       <c r="AH3" s="45" t="s">
@@ -4361,7 +5036,7 @@
       <c r="AJ3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AK3" s="66" t="s">
+      <c r="AK3" s="63" t="s">
         <v>68</v>
       </c>
       <c r="AL3" s="22" t="s">
@@ -4373,37 +5048,37 @@
       <c r="AN3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AO3" s="105" t="s">
+      <c r="AO3" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AP3" s="66" t="s">
+      <c r="AP3" s="63" t="s">
         <v>56</v>
       </c>
       <c r="AQ3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="113" t="s">
+      <c r="AR3" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" s="67" t="s">
+      <c r="AS3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AT3" s="67" t="s">
+      <c r="AT3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AU3" s="124" t="s">
+      <c r="AU3" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="AV3" s="72" t="s">
+      <c r="AV3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AW3" s="91" t="s">
+      <c r="AW3" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="67" t="s">
+      <c r="AX3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AY3" s="124" t="s">
+      <c r="AY3" s="94" t="s">
         <v>77</v>
       </c>
       <c r="AZ3" s="21" t="s">
@@ -4414,26 +5089,26 @@
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="95"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
-      <c r="I4" s="136"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="164"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="117"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="59"/>
-      <c r="S4" s="128"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
       <c r="V4" s="59"/>
-      <c r="W4" s="95"/>
+      <c r="W4" s="76"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="59"/>
       <c r="Z4" s="59"/>
@@ -4443,7 +5118,7 @@
       <c r="AD4" s="59"/>
       <c r="AE4" s="59"/>
       <c r="AF4" s="59"/>
-      <c r="AG4" s="95"/>
+      <c r="AG4" s="76"/>
       <c r="AH4" s="59"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
@@ -4451,29 +5126,27 @@
       <c r="AL4" s="61"/>
       <c r="AM4" s="61"/>
       <c r="AN4" s="60"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="81"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="69"/>
       <c r="AQ4" s="62"/>
-      <c r="AR4" s="114"/>
+      <c r="AR4" s="88"/>
       <c r="AS4" s="61"/>
       <c r="AT4" s="61"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="73"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="59"/>
       <c r="AW4" s="62"/>
       <c r="AX4" s="59"/>
       <c r="AY4" s="59"/>
       <c r="AZ4" s="61"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="138" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="77">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -4485,13 +5158,13 @@
       <c r="H5" s="42">
         <v>125</v>
       </c>
-      <c r="I5" s="146">
+      <c r="I5" s="123">
         <v>20</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" s="45" t="s">
@@ -4500,99 +5173,84 @@
       <c r="M5" s="45">
         <v>8</v>
       </c>
-      <c r="N5" s="148">
-        <v>1</v>
-      </c>
-      <c r="O5" s="155">
+      <c r="N5" s="106">
+        <v>1</v>
+      </c>
+      <c r="O5" s="111">
         <v>50000</v>
       </c>
-      <c r="P5" s="165"/>
+      <c r="P5" s="118"/>
       <c r="Q5" s="45">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="R5" s="45">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S5" s="129">
+        <v>2.5</v>
+      </c>
+      <c r="S5" s="99">
         <v>10</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" t="s">
         <v>79</v>
       </c>
-      <c r="V5" s="15"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="15" t="s">
+      <c r="X5" t="s">
         <v>80</v>
       </c>
       <c r="Y5" s="45">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="45">
         <v>50</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" t="s">
         <v>83</v>
       </c>
       <c r="AE5" s="41">
         <v>20</v>
       </c>
       <c r="AF5" s="41">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="96" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="AG5" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AH5" t="s">
         <v>85</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AJ5" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="89" t="s">
+      <c r="AK5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="115" t="s">
+      <c r="AQ5" s="73"/>
+      <c r="AR5" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="16"/>
+      <c r="AT5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="138"/>
       <c r="F6" t="s">
         <v>38</v>
       </c>
@@ -4602,67 +5260,31 @@
       <c r="H6" s="42">
         <v>250</v>
       </c>
-      <c r="I6" s="146">
+      <c r="I6" s="123">
         <f>ROUND((I7/H7 * H6^3)^(1/3),0)</f>
         <v>157</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="15" t="s">
+      <c r="T6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" t="s">
         <v>79</v>
       </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="15"/>
       <c r="Y6" s="45"/>
       <c r="Z6" s="45"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
       <c r="AE6" s="41"/>
       <c r="AF6" s="41"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="89" t="s">
+      <c r="AP6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="115" t="s">
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="16"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="138"/>
       <c r="F7" t="s">
         <v>37</v>
       </c>
@@ -4672,568 +5294,361 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="137">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="70"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="138"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="15" t="s">
+      <c r="X8" t="s">
         <v>89</v>
       </c>
       <c r="Y8" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="Z8" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="Z8">
         <v>100</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" t="s">
         <v>2</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="82" t="s">
+      <c r="AK8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ8" s="80">
+      <c r="AQ8" s="68">
         <v>50</v>
       </c>
-      <c r="AR8" s="117" t="s">
+      <c r="AR8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AS8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="82" t="s">
+      <c r="AS8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AW8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="18" t="s">
+      <c r="AW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY8" s="18" t="s">
+      <c r="AY8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ8" s="170" t="s">
+      <c r="AZ8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="138"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="82" t="s">
+      <c r="AP9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ9" s="80">
+      <c r="AQ9" s="68">
         <v>50</v>
       </c>
-      <c r="AR9" s="117" t="s">
+      <c r="AR9" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="82" t="s">
+      <c r="AV9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AW9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="18" t="s">
+      <c r="AW9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY9" s="18" t="s">
+      <c r="AY9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ9" s="170"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="138"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="116"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="108"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="70"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="66"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="138"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="15" t="s">
+      <c r="X11" t="s">
         <v>95</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11" s="45">
         <v>3500</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" t="s">
         <v>2</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AC11" t="s">
         <v>91</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AD11" t="s">
         <v>97</v>
       </c>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="82" t="s">
+      <c r="AK11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="80">
+      <c r="AQ11" s="68">
         <v>0.5</v>
       </c>
-      <c r="AR11" s="118">
+      <c r="AR11" s="91">
         <v>3</v>
       </c>
-      <c r="AS11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="76" t="s">
+      <c r="AS11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
         <v>93</v>
       </c>
-      <c r="AW11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="15" t="s">
+      <c r="AW11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="s">
         <v>94</v>
       </c>
-      <c r="AY11" s="15" t="s">
+      <c r="AY11" t="s">
         <v>2</v>
       </c>
-      <c r="AZ11" s="16" t="s">
+      <c r="AZ11" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="138"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="70"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="70"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="116"/>
-      <c r="AS12" s="70"/>
-      <c r="AT12" s="70"/>
-      <c r="AU12" s="108"/>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="70"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="67"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="66"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="138"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="15" t="s">
+      <c r="X13" t="s">
         <v>98</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13" s="45">
         <v>7000</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" t="s">
         <v>2</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AB13" t="s">
         <v>96</v>
       </c>
-      <c r="AC13" s="15" t="s">
+      <c r="AC13" t="s">
         <v>91</v>
       </c>
-      <c r="AD13" s="15" t="s">
+      <c r="AD13" t="s">
         <v>97</v>
       </c>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="80"/>
-      <c r="AR13" s="118"/>
-      <c r="AS13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="76" t="s">
+      <c r="AK13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="s">
         <v>93</v>
       </c>
-      <c r="AW13" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AW13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="s">
         <v>94</v>
       </c>
-      <c r="AY13" s="15" t="s">
+      <c r="AY13" t="s">
         <v>2</v>
       </c>
-      <c r="AZ13" s="16" t="s">
+      <c r="AZ13" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="138"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="57"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="130"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="130"/>
+      <c r="AN14" s="130"/>
+      <c r="AO14" s="131"/>
+      <c r="AP14" s="132"/>
+      <c r="AQ14" s="133"/>
+      <c r="AR14" s="134"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="130"/>
+      <c r="AU14" s="131"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="133"/>
+      <c r="AX14" s="125"/>
+      <c r="AY14" s="125"/>
+      <c r="AZ14" s="130"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="138"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
+      <c r="J15" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="15">
-        <v>0</v>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>79</v>
@@ -5241,1140 +5656,757 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="148">
-        <v>1</v>
-      </c>
-      <c r="O15" s="155">
+      <c r="N15" s="106">
+        <v>1</v>
+      </c>
+      <c r="O15" s="111">
         <v>50000</v>
       </c>
-      <c r="P15" s="165"/>
+      <c r="P15" s="118"/>
       <c r="Q15" s="45">
         <v>125</v>
       </c>
       <c r="R15" s="45">
         <v>3.3</v>
       </c>
-      <c r="S15" s="129">
+      <c r="S15" s="99">
         <v>10</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" t="s">
         <v>79</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="15" t="s">
+      <c r="X15" t="s">
         <v>80</v>
       </c>
       <c r="Y15" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="Z15" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="Z15">
         <v>50</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AB15" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="15" t="s">
+      <c r="AC15" t="s">
         <v>82</v>
       </c>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15">
+      <c r="AE15">
         <v>20</v>
       </c>
-      <c r="AF15" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="96" t="s">
+      <c r="AF15">
+        <v>4.5</v>
+      </c>
+      <c r="AG15" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH15" s="15" t="s">
+      <c r="AH15" t="s">
         <v>85</v>
       </c>
-      <c r="AI15" s="15" t="s">
+      <c r="AI15" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15" s="15" t="s">
+      <c r="AJ15" t="s">
         <v>85</v>
       </c>
-      <c r="AK15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="107"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="16"/>
+      <c r="AK15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="86"/>
+      <c r="AT15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="138"/>
-      <c r="F16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="70"/>
-      <c r="AN16" s="70"/>
-      <c r="AO16" s="108"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="108"/>
-      <c r="AV16" s="75"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="70"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="138"/>
-      <c r="F17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="15" t="s">
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="66"/>
+    </row>
+    <row r="17" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
         <v>95</v>
       </c>
-      <c r="Y17" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="15">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
         <v>3500</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" t="s">
         <v>2</v>
       </c>
-      <c r="AB17" s="15" t="s">
+      <c r="AB17" t="s">
         <v>96</v>
       </c>
-      <c r="AC17" s="15" t="s">
+      <c r="AC17" t="s">
         <v>91</v>
       </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AD17" t="s">
         <v>97</v>
       </c>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="84" t="s">
+      <c r="AK17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="119">
+      <c r="AQ17" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="92">
         <v>50</v>
       </c>
-      <c r="AS17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="76" t="s">
+      <c r="AS17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="s">
         <v>93</v>
       </c>
-      <c r="AW17" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="15" t="s">
+      <c r="AW17" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="s">
         <v>94</v>
       </c>
-      <c r="AY17" s="15" t="s">
+      <c r="AY17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ17" s="16" t="s">
+      <c r="AZ17" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="138"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="84" t="s">
+    <row r="18" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="119">
+      <c r="AQ18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="92">
         <v>50</v>
       </c>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="109"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="16"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="AP19" s="84" t="s">
+    </row>
+    <row r="19" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AP19" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AQ19" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR19" s="121">
+      <c r="AR19" s="92">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="108"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="116"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="108"/>
-      <c r="AV20" s="75"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="70"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="X21" s="15" t="s">
+    <row r="20" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="67"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="66"/>
+    </row>
+    <row r="21" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
         <v>98</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21" s="45">
         <v>7000</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" t="s">
         <v>2</v>
       </c>
-      <c r="AB21" s="15" t="s">
+      <c r="AB21" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="15" t="s">
+      <c r="AC21" t="s">
         <v>91</v>
       </c>
-      <c r="AD21" s="15" t="s">
+      <c r="AD21" t="s">
         <v>97</v>
       </c>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="16"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="119"/>
-      <c r="AS21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="76" t="s">
+      <c r="AK21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="s">
         <v>93</v>
       </c>
-      <c r="AW21" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="15" t="s">
+      <c r="AW21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="s">
         <v>94</v>
       </c>
-      <c r="AY21" s="15" t="s">
+      <c r="AY21" t="s">
         <v>2</v>
       </c>
-      <c r="AZ21" s="16" t="s">
+      <c r="AZ21" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="138"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="58"/>
-      <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
-      <c r="AZ22" s="57"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="138"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
+    <row r="22" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="125"/>
+      <c r="AJ22" s="125"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="132"/>
+      <c r="AQ22" s="133"/>
+      <c r="AR22" s="134"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="130"/>
+      <c r="AU22" s="131"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="133"/>
+      <c r="AX22" s="125"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="130"/>
+    </row>
+    <row r="23" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="15">
-        <v>0</v>
+      <c r="K23">
+        <v>1</v>
       </c>
       <c r="L23" s="45" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="45">
-        <v>10</v>
-      </c>
-      <c r="N23" s="148">
-        <v>1</v>
-      </c>
-      <c r="O23" s="155">
+        <v>16</v>
+      </c>
+      <c r="N23" s="106">
+        <v>1</v>
+      </c>
+      <c r="O23" s="111">
         <v>50000</v>
       </c>
-      <c r="P23" s="165"/>
+      <c r="P23" s="118"/>
       <c r="Q23" s="45">
         <v>122</v>
       </c>
       <c r="R23" s="45">
         <v>2.5</v>
       </c>
-      <c r="S23" s="129">
+      <c r="S23" s="99">
         <v>10</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" t="s">
         <v>32</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" t="s">
         <v>79</v>
       </c>
-      <c r="V23" s="15"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="15" t="s">
+      <c r="X23" t="s">
         <v>80</v>
       </c>
       <c r="Y23" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="Z23" s="15">
-        <v>50</v>
-      </c>
-      <c r="AA23" s="15" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
         <v>51</v>
       </c>
-      <c r="AB23" s="15" t="s">
+      <c r="AB23" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" s="15" t="s">
+      <c r="AC23" t="s">
         <v>82</v>
       </c>
-      <c r="AD23" s="15" t="s">
+      <c r="AD23" t="s">
         <v>83</v>
       </c>
-      <c r="AE23" s="15">
+      <c r="AE23">
         <v>20</v>
       </c>
-      <c r="AF23" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG23" s="96" t="s">
+      <c r="AF23">
+        <v>4.5</v>
+      </c>
+      <c r="AG23" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH23" s="15" t="s">
+      <c r="AH23" t="s">
         <v>85</v>
       </c>
-      <c r="AI23" s="15" t="s">
+      <c r="AI23" t="s">
         <v>86</v>
       </c>
-      <c r="AJ23" s="15" t="s">
+      <c r="AJ23" t="s">
         <v>85</v>
       </c>
-      <c r="AK23" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="107"/>
-      <c r="AP23" s="84"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="107"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="74"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="18"/>
-      <c r="AY23" s="18"/>
-      <c r="AZ23" s="16"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="138"/>
-      <c r="F24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="70"/>
-      <c r="AO24" s="108"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="116"/>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="108"/>
-      <c r="AV24" s="75"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="70"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="138"/>
-      <c r="F25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="15" t="s">
+      <c r="AK23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="86"/>
+      <c r="AT23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+    </row>
+    <row r="24" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="85"/>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="85"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="67"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="66"/>
+    </row>
+    <row r="25" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X25" t="s">
         <v>101</v>
       </c>
       <c r="Y25" s="45">
         <v>0.3</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25">
         <v>100</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="15" t="s">
+      <c r="AB25" t="s">
         <v>90</v>
       </c>
-      <c r="AC25" s="15" t="s">
+      <c r="AC25" t="s">
         <v>91</v>
       </c>
-      <c r="AD25" s="15" t="s">
+      <c r="AD25" t="s">
         <v>83</v>
       </c>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="109"/>
-      <c r="AP25" s="82" t="s">
+      <c r="AK25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ25" s="80">
+      <c r="AQ25" s="68">
         <v>50</v>
       </c>
-      <c r="AR25" s="122" t="s">
+      <c r="AR25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="AS25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="74" t="s">
+      <c r="AS25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="s">
         <v>32</v>
       </c>
-      <c r="AW25" s="92">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="18" t="s">
+      <c r="AW25" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY25" s="18" t="s">
+      <c r="AY25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ25" s="16" t="s">
+      <c r="AZ25" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="138"/>
-      <c r="F26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="109"/>
-      <c r="AP26" s="82" t="s">
+    <row r="26" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AP26" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ26" s="80">
+      <c r="AQ26" s="68">
         <v>50</v>
       </c>
-      <c r="AR26" s="122" t="s">
+      <c r="AR26" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="109"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="16"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="138"/>
-      <c r="F27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="70"/>
-      <c r="AN27" s="70"/>
-      <c r="AO27" s="108"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="116"/>
-      <c r="AS27" s="70"/>
-      <c r="AT27" s="70"/>
-      <c r="AU27" s="108"/>
-      <c r="AV27" s="75"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="70"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="138"/>
-      <c r="F28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="15" t="s">
+    </row>
+    <row r="27" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="85"/>
+      <c r="AP27" s="124"/>
+      <c r="AQ27" s="65"/>
+      <c r="AR27" s="81"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="85"/>
+      <c r="AV27" s="65"/>
+      <c r="AW27" s="67"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
+      <c r="AZ27" s="66"/>
+    </row>
+    <row r="28" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
         <v>95</v>
       </c>
-      <c r="Y28" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="15">
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
         <v>3500</v>
       </c>
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" t="s">
         <v>2</v>
       </c>
-      <c r="AB28" s="15" t="s">
+      <c r="AB28" t="s">
         <v>96</v>
       </c>
-      <c r="AC28" s="15" t="s">
+      <c r="AC28" t="s">
         <v>91</v>
       </c>
-      <c r="AD28" s="15" t="s">
+      <c r="AD28" t="s">
         <v>97</v>
       </c>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="109"/>
-      <c r="AP28" s="84" t="s">
+      <c r="AK28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AQ28" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR28" s="121">
+      <c r="AR28" s="92">
         <v>3</v>
       </c>
-      <c r="AS28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="76" t="s">
+      <c r="AS28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="s">
         <v>93</v>
       </c>
-      <c r="AW28" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX28" s="15" t="s">
+      <c r="AW28" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="s">
         <v>94</v>
       </c>
-      <c r="AY28" s="15" t="s">
+      <c r="AY28" t="s">
         <v>2</v>
       </c>
-      <c r="AZ28" s="16" t="s">
+      <c r="AZ28" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="138"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="96"/>
-      <c r="AP29" s="84"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="119"/>
-      <c r="AS29" s="16"/>
-      <c r="AT29" s="16"/>
-      <c r="AU29" s="109"/>
-      <c r="AV29" s="76"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="16"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="AP30" s="84"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="70"/>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="70"/>
-      <c r="AN31" s="70"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="116"/>
-      <c r="AS31" s="70"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="75"/>
-      <c r="AW31" s="71"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="70"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="X32" s="15" t="s">
+    <row r="29" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29" s="77"/>
+    </row>
+    <row r="31" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="85"/>
+      <c r="AP31" s="124"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="81"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="85"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="67"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
+      <c r="AZ31" s="66"/>
+    </row>
+    <row r="32" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X32" t="s">
         <v>98</v>
       </c>
-      <c r="Y32" s="15">
+      <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32" s="45">
         <v>7000</v>
       </c>
-      <c r="AA32" s="15" t="s">
+      <c r="AA32" t="s">
         <v>2</v>
       </c>
-      <c r="AB32" s="15" t="s">
+      <c r="AB32" t="s">
         <v>96</v>
       </c>
-      <c r="AC32" s="15" t="s">
+      <c r="AC32" t="s">
         <v>91</v>
       </c>
-      <c r="AD32" s="15" t="s">
+      <c r="AD32" t="s">
         <v>97</v>
       </c>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="96"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="109"/>
-      <c r="AP32" s="84"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="119"/>
-      <c r="AS32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="76" t="s">
+      <c r="AK32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="s">
         <v>93</v>
       </c>
-      <c r="AW32" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX32" s="15" t="s">
+      <c r="AW32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
         <v>94</v>
       </c>
-      <c r="AY32" s="15" t="s">
+      <c r="AY32" t="s">
         <v>2</v>
       </c>
-      <c r="AZ32" s="16" t="s">
+      <c r="AZ32" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="138"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="120"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="58"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="57"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="138"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15" t="s">
+    <row r="33" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="129"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="125"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="125"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="125"/>
+      <c r="AJ33" s="125"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="132"/>
+      <c r="AQ33" s="133"/>
+      <c r="AR33" s="134"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="130"/>
+      <c r="AU33" s="131"/>
+      <c r="AV33" s="125"/>
+      <c r="AW33" s="133"/>
+      <c r="AX33" s="125"/>
+      <c r="AY33" s="125"/>
+      <c r="AZ33" s="130"/>
+    </row>
+    <row r="34" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
         <v>102</v>
       </c>
-      <c r="K34" s="15">
-        <v>0</v>
+      <c r="K34">
+        <v>1</v>
       </c>
       <c r="L34" s="41" t="s">
         <v>103</v>
@@ -6382,401 +6414,279 @@
       <c r="M34" s="41">
         <v>0</v>
       </c>
-      <c r="N34" s="150">
-        <v>0</v>
-      </c>
-      <c r="O34" s="159">
+      <c r="N34" s="107">
+        <v>0</v>
+      </c>
+      <c r="O34" s="113">
         <v>50000</v>
       </c>
-      <c r="P34" s="168"/>
+      <c r="P34" s="119"/>
       <c r="Q34" s="41">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="R34" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="S34" s="133">
-        <v>0</v>
-      </c>
-      <c r="T34" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="101">
+        <v>0</v>
+      </c>
+      <c r="T34" s="135"/>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="15" t="s">
+      <c r="W34" s="78"/>
+      <c r="X34" t="s">
         <v>80</v>
       </c>
-      <c r="Y34" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="15">
-        <v>50</v>
-      </c>
-      <c r="AA34" s="15" t="s">
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
         <v>51</v>
       </c>
-      <c r="AB34" s="15" t="s">
+      <c r="AB34" t="s">
         <v>81</v>
       </c>
-      <c r="AC34" s="15" t="s">
+      <c r="AC34" t="s">
         <v>82</v>
       </c>
-      <c r="AD34" s="15" t="s">
+      <c r="AD34" t="s">
         <v>83</v>
       </c>
-      <c r="AE34" s="15">
+      <c r="AE34">
         <v>20</v>
       </c>
-      <c r="AF34" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG34" s="96" t="s">
+      <c r="AF34">
+        <v>4.5</v>
+      </c>
+      <c r="AG34" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="107"/>
-      <c r="AP34" s="84"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="119"/>
-      <c r="AS34" s="144"/>
-      <c r="AT34" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="145"/>
-      <c r="AV34" s="76"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-      <c r="AZ34" s="16"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="138"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="103"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="70"/>
-      <c r="AN35" s="70"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="139"/>
-      <c r="AR35" s="140"/>
-      <c r="AS35" s="141"/>
-      <c r="AT35" s="141"/>
-      <c r="AU35" s="142"/>
-      <c r="AV35" s="143"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="70"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="138"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="15" t="s">
+      <c r="AK34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="104"/>
+      <c r="AT34" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="105"/>
+    </row>
+    <row r="35" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="81"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="124"/>
+      <c r="AQ35" s="136"/>
+      <c r="AR35" s="137"/>
+      <c r="AS35" s="102"/>
+      <c r="AT35" s="102"/>
+      <c r="AU35" s="103"/>
+      <c r="AV35" s="136"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="65"/>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="66"/>
+    </row>
+    <row r="36" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
         <v>104</v>
       </c>
-      <c r="Y36" s="15">
+      <c r="Y36">
         <v>0.99</v>
       </c>
-      <c r="Z36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="15" t="s">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="s">
         <v>51</v>
       </c>
-      <c r="AB36" s="15" t="s">
+      <c r="AB36" t="s">
         <v>81</v>
       </c>
-      <c r="AC36" s="15" t="s">
+      <c r="AC36" t="s">
         <v>82</v>
       </c>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="96" t="s">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AH36" s="15" t="s">
+      <c r="AH36" t="s">
         <v>85</v>
       </c>
-      <c r="AI36" s="15" t="s">
+      <c r="AI36" t="s">
         <v>86</v>
       </c>
-      <c r="AJ36" s="15" t="s">
+      <c r="AJ36" t="s">
         <v>85</v>
       </c>
-      <c r="AK36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="107"/>
-      <c r="AP36" s="84"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="119"/>
-      <c r="AS36" s="144"/>
-      <c r="AT36" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU36" s="145"/>
-      <c r="AV36" s="74"/>
-      <c r="AW36" s="92"/>
-      <c r="AX36" s="18"/>
-      <c r="AY36" s="18"/>
-      <c r="AZ36" s="16"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="138"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="166"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="103"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="70"/>
-      <c r="AL37" s="70"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="70"/>
-      <c r="AO37" s="108"/>
-      <c r="AP37" s="83"/>
-      <c r="AQ37" s="68"/>
-      <c r="AR37" s="116"/>
-      <c r="AS37" s="70"/>
-      <c r="AT37" s="70"/>
-      <c r="AU37" s="108"/>
-      <c r="AV37" s="75"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="70"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="X38" s="15" t="s">
+      <c r="AK36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="105"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+    </row>
+    <row r="37" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="81"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="85"/>
+      <c r="AP37" s="124"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="81"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="85"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="66"/>
+    </row>
+    <row r="38" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X38" t="s">
         <v>98</v>
       </c>
-      <c r="Y38" s="15">
+      <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38" s="45">
-        <v>15000</v>
-      </c>
-      <c r="AA38" s="15" t="s">
+        <v>7000</v>
+      </c>
+      <c r="AA38" t="s">
         <v>2</v>
       </c>
-      <c r="AB38" s="15" t="s">
+      <c r="AB38" t="s">
         <v>96</v>
       </c>
-      <c r="AC38" s="15" t="s">
+      <c r="AC38" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="15" t="s">
+      <c r="AD38" t="s">
         <v>97</v>
       </c>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="96"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="109"/>
-      <c r="AP38" s="84"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="119"/>
-      <c r="AS38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="76" t="s">
+      <c r="AK38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="s">
         <v>93</v>
       </c>
-      <c r="AW38" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX38" s="15" t="s">
+      <c r="AW38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
         <v>94</v>
       </c>
-      <c r="AY38" s="15" t="s">
+      <c r="AY38" t="s">
         <v>2</v>
       </c>
-      <c r="AZ38" s="16" t="s">
+      <c r="AZ38" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="138"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="132"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="101"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="57"/>
-      <c r="AN39" s="57"/>
-      <c r="AO39" s="111"/>
-      <c r="AP39" s="85"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="120"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
-      <c r="AU39" s="111"/>
-      <c r="AV39" s="78"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="57"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="138"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15" t="s">
+    <row r="39" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="126"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
+      <c r="W39" s="129"/>
+      <c r="X39" s="125"/>
+      <c r="Y39" s="125"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="125"/>
+      <c r="AB39" s="125"/>
+      <c r="AC39" s="125"/>
+      <c r="AD39" s="125"/>
+      <c r="AE39" s="125"/>
+      <c r="AF39" s="125"/>
+      <c r="AG39" s="129"/>
+      <c r="AH39" s="125"/>
+      <c r="AI39" s="125"/>
+      <c r="AJ39" s="125"/>
+      <c r="AK39" s="130"/>
+      <c r="AL39" s="130"/>
+      <c r="AM39" s="130"/>
+      <c r="AN39" s="130"/>
+      <c r="AO39" s="131"/>
+      <c r="AP39" s="132"/>
+      <c r="AQ39" s="133"/>
+      <c r="AR39" s="134"/>
+      <c r="AS39" s="130"/>
+      <c r="AT39" s="130"/>
+      <c r="AU39" s="131"/>
+      <c r="AV39" s="125"/>
+      <c r="AW39" s="133"/>
+      <c r="AX39" s="125"/>
+      <c r="AY39" s="125"/>
+      <c r="AZ39" s="130"/>
+    </row>
+    <row r="40" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="15">
-        <v>0</v>
+      <c r="K40">
+        <v>1</v>
       </c>
       <c r="L40" s="41" t="s">
         <v>103</v>
@@ -6784,247 +6694,194 @@
       <c r="M40" s="41">
         <v>0</v>
       </c>
-      <c r="N40" s="150">
-        <v>0</v>
-      </c>
-      <c r="O40" s="159">
+      <c r="N40" s="107">
+        <v>0</v>
+      </c>
+      <c r="O40" s="113">
         <v>50000</v>
       </c>
-      <c r="P40" s="168"/>
+      <c r="P40" s="119"/>
       <c r="Q40" s="41">
-        <v>515</v>
+        <v>2400</v>
       </c>
       <c r="R40" s="41">
         <v>1</v>
       </c>
-      <c r="S40" s="133">
-        <v>0</v>
-      </c>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="15" t="s">
+      <c r="S40" s="101">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>104</v>
       </c>
-      <c r="Y40" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="15" t="s">
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
         <v>51</v>
       </c>
-      <c r="AB40" s="15" t="s">
+      <c r="AB40" t="s">
         <v>81</v>
       </c>
-      <c r="AC40" s="15" t="s">
+      <c r="AC40" t="s">
         <v>82</v>
       </c>
-      <c r="AD40" s="15" t="s">
+      <c r="AD40" t="s">
         <v>83</v>
       </c>
-      <c r="AE40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="96" t="s">
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="107"/>
-      <c r="AP40" s="84"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="119"/>
-      <c r="AS40" s="16"/>
-      <c r="AT40" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU40" s="109"/>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="15"/>
-      <c r="AY40" s="15"/>
-      <c r="AZ40" s="16"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="70"/>
-      <c r="AL41" s="70"/>
-      <c r="AM41" s="70"/>
-      <c r="AN41" s="70"/>
-      <c r="AO41" s="108"/>
-      <c r="AP41" s="83"/>
-      <c r="AQ41" s="68"/>
-      <c r="AR41" s="116"/>
-      <c r="AS41" s="70"/>
-      <c r="AT41" s="70"/>
-      <c r="AU41" s="108"/>
-      <c r="AV41" s="75"/>
-      <c r="AW41" s="71"/>
-      <c r="AX41" s="69"/>
-      <c r="AY41" s="69"/>
-      <c r="AZ41" s="70"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="X42" s="15" t="s">
+      <c r="AK40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="81"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="85"/>
+      <c r="AP41" s="124"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="81"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="85"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="67"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="66"/>
+    </row>
+    <row r="42" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
         <v>98</v>
       </c>
-      <c r="Y42" s="15">
+      <c r="Y42">
         <v>1</v>
       </c>
       <c r="Z42" s="45">
-        <v>15000</v>
-      </c>
-      <c r="AA42" s="15" t="s">
+        <v>7000</v>
+      </c>
+      <c r="AA42" t="s">
         <v>2</v>
       </c>
-      <c r="AB42" s="15" t="s">
+      <c r="AB42" t="s">
         <v>96</v>
       </c>
-      <c r="AC42" s="15" t="s">
+      <c r="AC42" t="s">
         <v>91</v>
       </c>
-      <c r="AD42" s="15" t="s">
+      <c r="AD42" t="s">
         <v>97</v>
       </c>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="96"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="16"/>
-      <c r="AO42" s="109"/>
-      <c r="AP42" s="84"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="119"/>
-      <c r="AS42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV42" s="76" t="s">
+      <c r="AK42" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="s">
         <v>93</v>
       </c>
-      <c r="AW42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX42" s="15" t="s">
+      <c r="AW42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX42" t="s">
         <v>94</v>
       </c>
-      <c r="AY42" s="15" t="s">
+      <c r="AY42" t="s">
         <v>2</v>
       </c>
-      <c r="AZ42" s="16" t="s">
+      <c r="AZ42" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="138"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="149"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="167"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="57"/>
-      <c r="AL43" s="57"/>
-      <c r="AM43" s="57"/>
-      <c r="AN43" s="57"/>
-      <c r="AO43" s="111"/>
-      <c r="AP43" s="85"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="57"/>
-      <c r="AT43" s="57"/>
-      <c r="AU43" s="111"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-      <c r="AZ43" s="57"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="138"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15" t="s">
+    <row r="43" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="125"/>
+      <c r="AB43" s="125"/>
+      <c r="AC43" s="125"/>
+      <c r="AD43" s="125"/>
+      <c r="AE43" s="125"/>
+      <c r="AF43" s="125"/>
+      <c r="AG43" s="129"/>
+      <c r="AH43" s="125"/>
+      <c r="AI43" s="125"/>
+      <c r="AJ43" s="125"/>
+      <c r="AK43" s="130"/>
+      <c r="AL43" s="130"/>
+      <c r="AM43" s="130"/>
+      <c r="AN43" s="130"/>
+      <c r="AO43" s="131"/>
+      <c r="AP43" s="132"/>
+      <c r="AQ43" s="133"/>
+      <c r="AR43" s="134"/>
+      <c r="AS43" s="130"/>
+      <c r="AT43" s="130"/>
+      <c r="AU43" s="131"/>
+      <c r="AV43" s="125"/>
+      <c r="AW43" s="133"/>
+      <c r="AX43" s="125"/>
+      <c r="AY43" s="125"/>
+      <c r="AZ43" s="130"/>
+    </row>
+    <row r="44" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="15">
-        <v>0</v>
+      <c r="K44">
+        <v>1</v>
       </c>
       <c r="L44" s="41" t="s">
         <v>103</v>
@@ -7032,267 +6889,194 @@
       <c r="M44" s="41">
         <v>0</v>
       </c>
-      <c r="N44" s="150">
-        <v>0</v>
-      </c>
-      <c r="O44" s="159">
+      <c r="N44" s="107">
+        <v>0</v>
+      </c>
+      <c r="O44" s="113">
         <v>50000</v>
       </c>
-      <c r="P44" s="168"/>
+      <c r="P44" s="119"/>
       <c r="Q44" s="41">
-        <v>620</v>
+        <v>4400</v>
       </c>
       <c r="R44" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="S44" s="133">
-        <v>0</v>
-      </c>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S44" s="101">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>104</v>
       </c>
-      <c r="Y44" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="15" t="s">
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="s">
         <v>51</v>
       </c>
-      <c r="AB44" s="15" t="s">
+      <c r="AB44" t="s">
         <v>81</v>
       </c>
-      <c r="AC44" s="15" t="s">
+      <c r="AC44" t="s">
         <v>82</v>
       </c>
-      <c r="AD44" s="15" t="s">
+      <c r="AD44" t="s">
         <v>83</v>
       </c>
-      <c r="AE44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="96" t="s">
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
-      <c r="AJ44" s="15"/>
-      <c r="AK44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="107"/>
-      <c r="AP44" s="84"/>
-      <c r="AQ44" s="19"/>
-      <c r="AR44" s="119"/>
-      <c r="AS44" s="16"/>
-      <c r="AT44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU44" s="109"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="19"/>
-      <c r="AX44" s="15"/>
-      <c r="AY44" s="15"/>
-      <c r="AZ44" s="16"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="138"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="156"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="69"/>
-      <c r="Y45" s="69"/>
-      <c r="Z45" s="69"/>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="69"/>
-      <c r="AC45" s="69"/>
-      <c r="AD45" s="69"/>
-      <c r="AE45" s="69"/>
-      <c r="AF45" s="69"/>
-      <c r="AG45" s="103"/>
-      <c r="AH45" s="69"/>
-      <c r="AI45" s="69"/>
-      <c r="AJ45" s="69"/>
-      <c r="AK45" s="70"/>
-      <c r="AL45" s="70"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="70"/>
-      <c r="AO45" s="108"/>
-      <c r="AP45" s="83"/>
-      <c r="AQ45" s="68"/>
-      <c r="AR45" s="116"/>
-      <c r="AS45" s="70"/>
-      <c r="AT45" s="70"/>
-      <c r="AU45" s="108"/>
-      <c r="AV45" s="75"/>
-      <c r="AW45" s="71"/>
-      <c r="AX45" s="69"/>
-      <c r="AY45" s="69"/>
-      <c r="AZ45" s="70"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="X46" s="15" t="s">
+      <c r="AK44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="85"/>
+      <c r="AP45" s="124"/>
+      <c r="AQ45" s="65"/>
+      <c r="AR45" s="81"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="85"/>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="67"/>
+      <c r="AX45" s="65"/>
+      <c r="AY45" s="65"/>
+      <c r="AZ45" s="66"/>
+    </row>
+    <row r="46" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
         <v>98</v>
       </c>
-      <c r="Y46" s="15">
+      <c r="Y46">
         <v>1</v>
       </c>
       <c r="Z46" s="45">
-        <v>15000</v>
-      </c>
-      <c r="AA46" s="15" t="s">
+        <v>7000</v>
+      </c>
+      <c r="AA46" t="s">
         <v>2</v>
       </c>
-      <c r="AB46" s="15" t="s">
+      <c r="AB46" t="s">
         <v>96</v>
       </c>
-      <c r="AC46" s="15" t="s">
+      <c r="AC46" t="s">
         <v>91</v>
       </c>
-      <c r="AD46" s="15" t="s">
+      <c r="AD46" t="s">
         <v>97</v>
       </c>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="96"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN46" s="16"/>
-      <c r="AO46" s="109"/>
-      <c r="AP46" s="84"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="119"/>
-      <c r="AS46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU46" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="76" t="s">
+      <c r="AK46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="s">
         <v>93</v>
       </c>
-      <c r="AW46" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX46" s="15" t="s">
+      <c r="AW46" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX46" t="s">
         <v>94</v>
       </c>
-      <c r="AY46" s="15" t="s">
+      <c r="AY46" t="s">
         <v>2</v>
       </c>
-      <c r="AZ46" s="16" t="s">
+      <c r="AZ46" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="138"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="167"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="101"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="101"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="57"/>
-      <c r="AL47" s="57"/>
-      <c r="AM47" s="57"/>
-      <c r="AN47" s="57"/>
-      <c r="AO47" s="111"/>
-      <c r="AP47" s="85"/>
-      <c r="AQ47" s="58"/>
-      <c r="AR47" s="120"/>
-      <c r="AS47" s="57"/>
-      <c r="AT47" s="57"/>
-      <c r="AU47" s="111"/>
-      <c r="AV47" s="78"/>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="56"/>
-      <c r="AY47" s="56"/>
-      <c r="AZ47" s="57"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="138"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15" t="s">
+    <row r="47" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="125"/>
+      <c r="R47" s="125"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+      <c r="W47" s="129"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="125"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="125"/>
+      <c r="AB47" s="125"/>
+      <c r="AC47" s="125"/>
+      <c r="AD47" s="125"/>
+      <c r="AE47" s="125"/>
+      <c r="AF47" s="125"/>
+      <c r="AG47" s="129"/>
+      <c r="AH47" s="125"/>
+      <c r="AI47" s="125"/>
+      <c r="AJ47" s="125"/>
+      <c r="AK47" s="130"/>
+      <c r="AL47" s="130"/>
+      <c r="AM47" s="130"/>
+      <c r="AN47" s="130"/>
+      <c r="AO47" s="131"/>
+      <c r="AP47" s="132"/>
+      <c r="AQ47" s="133"/>
+      <c r="AR47" s="134"/>
+      <c r="AS47" s="130"/>
+      <c r="AT47" s="130"/>
+      <c r="AU47" s="131"/>
+      <c r="AV47" s="125"/>
+      <c r="AW47" s="133"/>
+      <c r="AX47" s="125"/>
+      <c r="AY47" s="125"/>
+      <c r="AZ47" s="130"/>
+    </row>
+    <row r="48" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
         <v>108</v>
       </c>
-      <c r="K48" s="15">
-        <v>0</v>
+      <c r="K48">
+        <v>1</v>
       </c>
       <c r="L48" s="41" t="s">
         <v>79</v>
@@ -7300,410 +7084,283 @@
       <c r="M48" s="41">
         <v>20</v>
       </c>
-      <c r="N48" s="150">
-        <v>1</v>
-      </c>
-      <c r="O48" s="159">
+      <c r="N48" s="107">
+        <v>1</v>
+      </c>
+      <c r="O48" s="113">
         <v>50000</v>
       </c>
-      <c r="P48" s="168"/>
+      <c r="P48" s="119"/>
       <c r="Q48" s="41">
         <v>161</v>
       </c>
       <c r="R48" s="41">
         <v>3.5</v>
       </c>
-      <c r="S48" s="133">
+      <c r="S48" s="101">
         <v>30</v>
       </c>
-      <c r="T48" s="15" t="s">
+      <c r="T48" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="15" t="s">
+      <c r="U48" t="s">
         <v>79</v>
       </c>
-      <c r="V48" s="15"/>
-      <c r="W48" s="96"/>
-      <c r="X48" s="15" t="s">
+      <c r="X48" t="s">
         <v>80</v>
       </c>
-      <c r="Y48" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="15">
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
         <v>50</v>
       </c>
-      <c r="AA48" s="15" t="s">
+      <c r="AA48" t="s">
         <v>51</v>
       </c>
-      <c r="AB48" s="15" t="s">
+      <c r="AB48" t="s">
         <v>81</v>
       </c>
-      <c r="AC48" s="15" t="s">
+      <c r="AC48" t="s">
         <v>82</v>
       </c>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15">
+      <c r="AE48">
         <v>20</v>
       </c>
-      <c r="AF48" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG48" s="96" t="s">
+      <c r="AF48">
+        <v>4.5</v>
+      </c>
+      <c r="AG48" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15"/>
-      <c r="AJ48" s="15"/>
-      <c r="AK48" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="18"/>
-      <c r="AM48" s="18"/>
-      <c r="AN48" s="18"/>
-      <c r="AO48" s="107"/>
-      <c r="AP48" s="84" t="s">
+      <c r="AK48" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ48" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="119">
+      <c r="AQ48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="92">
         <v>50</v>
       </c>
-      <c r="AS48" s="16"/>
-      <c r="AT48" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU48" s="109"/>
-      <c r="AV48" s="76"/>
-      <c r="AW48" s="19"/>
-      <c r="AX48" s="15"/>
-      <c r="AY48" s="15"/>
-      <c r="AZ48" s="16"/>
+      <c r="AT48" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="138"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="166"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="15" t="s">
+      <c r="T49" t="s">
         <v>38</v>
       </c>
-      <c r="U49" s="15" t="s">
+      <c r="U49" t="s">
         <v>79</v>
       </c>
-      <c r="V49" s="15"/>
-      <c r="W49" s="96"/>
-      <c r="X49" s="69"/>
-      <c r="Y49" s="69"/>
-      <c r="Z49" s="69"/>
-      <c r="AA49" s="69"/>
-      <c r="AB49" s="69"/>
-      <c r="AC49" s="69"/>
-      <c r="AD49" s="69"/>
-      <c r="AE49" s="69"/>
-      <c r="AF49" s="69"/>
-      <c r="AG49" s="103"/>
-      <c r="AH49" s="69"/>
-      <c r="AI49" s="69"/>
-      <c r="AJ49" s="69"/>
-      <c r="AK49" s="70"/>
-      <c r="AL49" s="70"/>
-      <c r="AM49" s="70"/>
-      <c r="AN49" s="70"/>
-      <c r="AO49" s="108"/>
-      <c r="AP49" s="83"/>
-      <c r="AQ49" s="68"/>
-      <c r="AR49" s="116"/>
-      <c r="AS49" s="70"/>
-      <c r="AT49" s="70"/>
-      <c r="AU49" s="108"/>
-      <c r="AV49" s="75"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="69"/>
-      <c r="AY49" s="69"/>
-      <c r="AZ49" s="70"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="65"/>
+      <c r="AG49" s="81"/>
+      <c r="AH49" s="65"/>
+      <c r="AI49" s="65"/>
+      <c r="AJ49" s="65"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="85"/>
+      <c r="AP49" s="124"/>
+      <c r="AQ49" s="65"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="66"/>
+      <c r="AT49" s="66"/>
+      <c r="AU49" s="85"/>
+      <c r="AV49" s="65"/>
+      <c r="AW49" s="67"/>
+      <c r="AX49" s="65"/>
+      <c r="AY49" s="65"/>
+      <c r="AZ49" s="66"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="130"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="96"/>
-      <c r="X50" s="15" t="s">
+      <c r="D50" s="107"/>
+      <c r="E50" s="78"/>
+      <c r="X50" t="s">
         <v>95</v>
       </c>
-      <c r="Y50" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="15">
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
         <v>3500</v>
       </c>
-      <c r="AA50" s="15" t="s">
+      <c r="AA50" t="s">
         <v>2</v>
       </c>
-      <c r="AB50" s="15" t="s">
+      <c r="AB50" t="s">
         <v>96</v>
       </c>
-      <c r="AC50" s="15" t="s">
+      <c r="AC50" t="s">
         <v>91</v>
       </c>
-      <c r="AD50" s="15" t="s">
+      <c r="AD50" t="s">
         <v>97</v>
       </c>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="15"/>
-      <c r="AG50" s="96"/>
-      <c r="AH50" s="15"/>
-      <c r="AI50" s="15"/>
-      <c r="AJ50" s="15"/>
-      <c r="AK50" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL50" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="16"/>
-      <c r="AO50" s="109"/>
-      <c r="AP50" s="84" t="s">
+      <c r="AK50" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="119">
+      <c r="AQ50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="92">
         <v>50</v>
       </c>
-      <c r="AS50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV50" s="76" t="s">
+      <c r="AS50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="s">
         <v>93</v>
       </c>
-      <c r="AW50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX50" s="15" t="s">
+      <c r="AW50" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="s">
         <v>94</v>
       </c>
-      <c r="AY50" s="15" t="s">
+      <c r="AY50" t="s">
         <v>2</v>
       </c>
-      <c r="AZ50" s="16" t="s">
+      <c r="AZ50" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="138"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="166"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="96"/>
-      <c r="AH51" s="15"/>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="96"/>
-      <c r="AP51" s="84" t="s">
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51" s="77"/>
+      <c r="AP51" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="119">
+      <c r="AQ51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="92">
         <v>50</v>
       </c>
-      <c r="AS51" s="16"/>
-      <c r="AT51" s="16"/>
-      <c r="AU51" s="109"/>
-      <c r="AV51" s="76"/>
-      <c r="AW51" s="19"/>
-      <c r="AX51" s="15"/>
-      <c r="AY51" s="15"/>
-      <c r="AZ51" s="16"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="AP52" s="84" t="s">
+      <c r="AP52" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AQ52" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR52" s="121">
+      <c r="AR52" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="103"/>
-      <c r="AH53" s="69"/>
-      <c r="AI53" s="69"/>
-      <c r="AJ53" s="69"/>
-      <c r="AK53" s="70"/>
-      <c r="AL53" s="70"/>
-      <c r="AM53" s="70"/>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="108"/>
-      <c r="AP53" s="83"/>
-      <c r="AQ53" s="68"/>
-      <c r="AR53" s="116"/>
-      <c r="AS53" s="70"/>
-      <c r="AT53" s="70"/>
-      <c r="AU53" s="108"/>
-      <c r="AV53" s="75"/>
-      <c r="AW53" s="71"/>
-      <c r="AX53" s="69"/>
-      <c r="AY53" s="69"/>
-      <c r="AZ53" s="70"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="65"/>
+      <c r="AC53" s="65"/>
+      <c r="AD53" s="65"/>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="65"/>
+      <c r="AG53" s="81"/>
+      <c r="AH53" s="65"/>
+      <c r="AI53" s="65"/>
+      <c r="AJ53" s="65"/>
+      <c r="AK53" s="66"/>
+      <c r="AL53" s="66"/>
+      <c r="AM53" s="66"/>
+      <c r="AN53" s="66"/>
+      <c r="AO53" s="85"/>
+      <c r="AP53" s="124"/>
+      <c r="AQ53" s="65"/>
+      <c r="AR53" s="81"/>
+      <c r="AS53" s="66"/>
+      <c r="AT53" s="66"/>
+      <c r="AU53" s="85"/>
+      <c r="AV53" s="65"/>
+      <c r="AW53" s="67"/>
+      <c r="AX53" s="65"/>
+      <c r="AY53" s="65"/>
+      <c r="AZ53" s="66"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="X54" s="15" t="s">
+      <c r="X54" t="s">
         <v>98</v>
       </c>
-      <c r="Y54" s="15">
+      <c r="Y54">
         <v>1</v>
       </c>
       <c r="Z54" s="45">
         <v>7000</v>
       </c>
-      <c r="AA54" s="15" t="s">
+      <c r="AA54" t="s">
         <v>2</v>
       </c>
-      <c r="AB54" s="15" t="s">
+      <c r="AB54" t="s">
         <v>96</v>
       </c>
-      <c r="AC54" s="15" t="s">
+      <c r="AC54" t="s">
         <v>91</v>
       </c>
-      <c r="AD54" s="15" t="s">
+      <c r="AD54" t="s">
         <v>97</v>
       </c>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-      <c r="AG54" s="96"/>
-      <c r="AH54" s="15"/>
-      <c r="AI54" s="15"/>
-      <c r="AJ54" s="15"/>
-      <c r="AK54" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="16"/>
-      <c r="AM54" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN54" s="16"/>
-      <c r="AO54" s="109"/>
-      <c r="AP54" s="84"/>
-      <c r="AQ54" s="19"/>
-      <c r="AR54" s="119"/>
-      <c r="AS54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU54" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV54" s="76" t="s">
+      <c r="AK54" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS54" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="s">
         <v>93</v>
       </c>
-      <c r="AW54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX54" s="15" t="s">
+      <c r="AW54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX54" t="s">
         <v>94</v>
       </c>
-      <c r="AY54" s="15" t="s">
+      <c r="AY54" t="s">
         <v>2</v>
       </c>
-      <c r="AZ54" s="16" t="s">
+      <c r="AZ54" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7711,8 +7368,8 @@
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="95"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
       <c r="H55" s="59"/>
@@ -7721,16 +7378,16 @@
       <c r="K55" s="59"/>
       <c r="L55" s="59"/>
       <c r="M55" s="59"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="164"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="117"/>
       <c r="Q55" s="59"/>
       <c r="R55" s="59"/>
-      <c r="S55" s="128"/>
+      <c r="S55" s="98"/>
       <c r="T55" s="59"/>
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
-      <c r="W55" s="95"/>
+      <c r="W55" s="76"/>
       <c r="X55" s="59"/>
       <c r="Y55" s="59"/>
       <c r="Z55" s="59"/>
@@ -7740,7 +7397,7 @@
       <c r="AD55" s="59"/>
       <c r="AE55" s="59"/>
       <c r="AF55" s="59"/>
-      <c r="AG55" s="95"/>
+      <c r="AG55" s="76"/>
       <c r="AH55" s="59"/>
       <c r="AI55" s="59"/>
       <c r="AJ55" s="59"/>
@@ -7748,29 +7405,28 @@
       <c r="AL55" s="61"/>
       <c r="AM55" s="61"/>
       <c r="AN55" s="60"/>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="81"/>
+      <c r="AO55" s="84"/>
+      <c r="AP55" s="69"/>
       <c r="AQ55" s="62"/>
-      <c r="AR55" s="114"/>
+      <c r="AR55" s="88"/>
       <c r="AS55" s="61"/>
       <c r="AT55" s="61"/>
-      <c r="AU55" s="125"/>
-      <c r="AV55" s="73"/>
+      <c r="AU55" s="95"/>
+      <c r="AV55" s="59"/>
       <c r="AW55" s="62"/>
       <c r="AX55" s="59"/>
       <c r="AY55" s="59"/>
       <c r="AZ55" s="61"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="172" t="s">
+      <c r="B56" s="121" t="s">
         <v>339</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="150" t="s">
+      <c r="D56" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="78">
         <v>0</v>
       </c>
       <c r="F56" t="s">
@@ -7779,11 +7435,11 @@
       <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="173">
-        <v>1</v>
-      </c>
-      <c r="I56" s="173">
-        <v>0</v>
+      <c r="H56" s="122">
+        <v>0</v>
+      </c>
+      <c r="I56" s="122">
+        <v>1</v>
       </c>
       <c r="J56" s="42" t="s">
         <v>111</v>
@@ -7797,447 +7453,284 @@
       <c r="M56" s="41">
         <v>20</v>
       </c>
-      <c r="N56" s="150">
-        <v>1</v>
-      </c>
-      <c r="O56" s="159">
+      <c r="N56" s="107">
+        <v>1</v>
+      </c>
+      <c r="O56" s="113">
         <v>50000</v>
       </c>
-      <c r="P56" s="168"/>
+      <c r="P56" s="119"/>
       <c r="Q56" s="41">
         <v>50</v>
       </c>
       <c r="R56" s="41">
         <v>1.5</v>
       </c>
-      <c r="S56" s="133">
+      <c r="S56" s="101">
         <v>10</v>
       </c>
-      <c r="T56" s="15" t="s">
+      <c r="T56" t="s">
         <v>112</v>
       </c>
-      <c r="U56" s="173" t="s">
+      <c r="U56" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="V56" s="15"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="15" t="s">
+      <c r="X56" t="s">
         <v>80</v>
       </c>
-      <c r="Y56" s="15">
+      <c r="Y56">
         <v>0.8</v>
       </c>
-      <c r="Z56" s="15">
-        <v>50</v>
-      </c>
-      <c r="AA56" s="15" t="s">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="s">
         <v>51</v>
       </c>
-      <c r="AB56" s="15" t="s">
+      <c r="AB56" t="s">
         <v>81</v>
       </c>
-      <c r="AC56" s="15" t="s">
+      <c r="AC56" t="s">
         <v>82</v>
       </c>
       <c r="AD56" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AE56" s="15">
+      <c r="AE56">
         <v>20</v>
       </c>
-      <c r="AF56" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG56" s="96" t="s">
+      <c r="AF56">
+        <v>4.5</v>
+      </c>
+      <c r="AG56" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH56" s="15" t="s">
+      <c r="AH56" t="s">
         <v>85</v>
       </c>
-      <c r="AI56" s="15" t="s">
+      <c r="AI56" t="s">
         <v>86</v>
       </c>
-      <c r="AJ56" s="15" t="s">
+      <c r="AJ56" t="s">
         <v>85</v>
       </c>
-      <c r="AK56" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="18"/>
-      <c r="AM56" s="18"/>
-      <c r="AN56" s="18"/>
-      <c r="AO56" s="107"/>
-      <c r="AP56" s="86"/>
-      <c r="AQ56" s="18"/>
-      <c r="AR56" s="107"/>
-      <c r="AS56" s="18"/>
-      <c r="AT56" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU56" s="107"/>
-      <c r="AV56" s="74"/>
-      <c r="AW56" s="92"/>
-      <c r="AX56" s="18"/>
-      <c r="AY56" s="18"/>
-      <c r="AZ56" s="16"/>
+      <c r="AK56" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="17"/>
+      <c r="AR56" s="86"/>
+      <c r="AT56" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX56" s="17"/>
+      <c r="AY56" s="17"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
       <c r="C57" s="41"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="166"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="69"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="69"/>
-      <c r="AF57" s="69"/>
-      <c r="AG57" s="103"/>
-      <c r="AH57" s="69"/>
-      <c r="AI57" s="69"/>
-      <c r="AJ57" s="69"/>
-      <c r="AK57" s="70"/>
-      <c r="AL57" s="70"/>
-      <c r="AM57" s="70"/>
-      <c r="AN57" s="70"/>
-      <c r="AO57" s="108"/>
-      <c r="AP57" s="83"/>
-      <c r="AQ57" s="68"/>
-      <c r="AR57" s="116"/>
-      <c r="AS57" s="70"/>
-      <c r="AT57" s="70"/>
-      <c r="AU57" s="108"/>
-      <c r="AV57" s="75"/>
-      <c r="AW57" s="71"/>
-      <c r="AX57" s="69"/>
-      <c r="AY57" s="69"/>
-      <c r="AZ57" s="70"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="78"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65"/>
+      <c r="AC57" s="65"/>
+      <c r="AD57" s="65"/>
+      <c r="AE57" s="65"/>
+      <c r="AF57" s="65"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="65"/>
+      <c r="AI57" s="65"/>
+      <c r="AJ57" s="65"/>
+      <c r="AK57" s="66"/>
+      <c r="AL57" s="66"/>
+      <c r="AM57" s="66"/>
+      <c r="AN57" s="66"/>
+      <c r="AO57" s="85"/>
+      <c r="AP57" s="124"/>
+      <c r="AQ57" s="65"/>
+      <c r="AR57" s="81"/>
+      <c r="AS57" s="66"/>
+      <c r="AT57" s="66"/>
+      <c r="AU57" s="85"/>
+      <c r="AV57" s="65"/>
+      <c r="AW57" s="67"/>
+      <c r="AX57" s="65"/>
+      <c r="AY57" s="65"/>
+      <c r="AZ57" s="66"/>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="138"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="166"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="96"/>
       <c r="X58" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="Y58" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="15">
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
         <v>100</v>
       </c>
-      <c r="AA58" s="15" t="s">
+      <c r="AA58" t="s">
         <v>2</v>
       </c>
-      <c r="AB58" s="15" t="s">
+      <c r="AB58" t="s">
         <v>96</v>
       </c>
-      <c r="AC58" s="15" t="s">
+      <c r="AC58" t="s">
         <v>91</v>
       </c>
-      <c r="AD58" s="15" t="s">
+      <c r="AD58" t="s">
         <v>97</v>
       </c>
-      <c r="AE58" s="15"/>
-      <c r="AF58" s="15"/>
-      <c r="AG58" s="96"/>
-      <c r="AH58" s="15"/>
-      <c r="AI58" s="15"/>
-      <c r="AJ58" s="15"/>
-      <c r="AK58" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL58" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="16"/>
-      <c r="AO58" s="109"/>
-      <c r="AP58" s="84" t="s">
+      <c r="AK58" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ58" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="119">
+      <c r="AQ58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="92">
         <v>50</v>
       </c>
-      <c r="AS58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="76" t="s">
+      <c r="AS58" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV58" t="s">
         <v>93</v>
       </c>
-      <c r="AW58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX58" s="15" t="s">
+      <c r="AW58" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX58" t="s">
         <v>94</v>
       </c>
-      <c r="AY58" s="15" t="s">
+      <c r="AY58" t="s">
         <v>2</v>
       </c>
-      <c r="AZ58" s="16" t="s">
+      <c r="AZ58" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="138"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="166"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="96"/>
       <c r="X59" s="45"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
-      <c r="AE59" s="15"/>
-      <c r="AF59" s="15"/>
-      <c r="AG59" s="96"/>
-      <c r="AH59" s="15"/>
-      <c r="AI59" s="15"/>
-      <c r="AJ59" s="15"/>
-      <c r="AK59" s="15"/>
-      <c r="AL59" s="15"/>
-      <c r="AM59" s="15"/>
-      <c r="AN59" s="15"/>
-      <c r="AO59" s="96"/>
-      <c r="AP59" s="84" t="s">
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59" s="77"/>
+      <c r="AP59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ59" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="119">
+      <c r="AQ59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="92">
         <v>50</v>
       </c>
-      <c r="AS59" s="16"/>
-      <c r="AT59" s="16"/>
-      <c r="AU59" s="109"/>
-      <c r="AV59" s="76"/>
-      <c r="AW59" s="19"/>
-      <c r="AX59" s="15"/>
-      <c r="AY59" s="15"/>
-      <c r="AZ59" s="16"/>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
       <c r="X60" s="45"/>
-      <c r="AP60" s="84" t="s">
+      <c r="AP60" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AQ60" s="20">
         <v>0</v>
       </c>
-      <c r="AR60" s="121">
+      <c r="AR60" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="138"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="166"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="130"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="96"/>
-      <c r="X61" s="69"/>
-      <c r="Y61" s="69"/>
-      <c r="Z61" s="69"/>
-      <c r="AA61" s="69"/>
-      <c r="AB61" s="69"/>
-      <c r="AC61" s="69"/>
-      <c r="AD61" s="69"/>
-      <c r="AE61" s="69"/>
-      <c r="AF61" s="69"/>
-      <c r="AG61" s="103"/>
-      <c r="AH61" s="69"/>
-      <c r="AI61" s="69"/>
-      <c r="AJ61" s="69"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="70"/>
-      <c r="AO61" s="108"/>
-      <c r="AP61" s="83"/>
-      <c r="AQ61" s="68"/>
-      <c r="AR61" s="116"/>
-      <c r="AS61" s="70"/>
-      <c r="AT61" s="70"/>
-      <c r="AU61" s="108"/>
-      <c r="AV61" s="75"/>
-      <c r="AW61" s="71"/>
-      <c r="AX61" s="69"/>
-      <c r="AY61" s="69"/>
-      <c r="AZ61" s="70"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="65"/>
+      <c r="Z61" s="65"/>
+      <c r="AA61" s="65"/>
+      <c r="AB61" s="65"/>
+      <c r="AC61" s="65"/>
+      <c r="AD61" s="65"/>
+      <c r="AE61" s="65"/>
+      <c r="AF61" s="65"/>
+      <c r="AG61" s="81"/>
+      <c r="AH61" s="65"/>
+      <c r="AI61" s="65"/>
+      <c r="AJ61" s="65"/>
+      <c r="AK61" s="66"/>
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="66"/>
+      <c r="AN61" s="66"/>
+      <c r="AO61" s="85"/>
+      <c r="AP61" s="124"/>
+      <c r="AQ61" s="65"/>
+      <c r="AR61" s="81"/>
+      <c r="AS61" s="66"/>
+      <c r="AT61" s="66"/>
+      <c r="AU61" s="85"/>
+      <c r="AV61" s="65"/>
+      <c r="AW61" s="67"/>
+      <c r="AX61" s="65"/>
+      <c r="AY61" s="65"/>
+      <c r="AZ61" s="66"/>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="138"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="138"/>
-      <c r="O62" s="156"/>
-      <c r="P62" s="166"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="130"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="96"/>
-      <c r="X62" s="15" t="s">
+      <c r="X62" t="s">
         <v>114</v>
       </c>
-      <c r="Y62" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="15">
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
         <v>200</v>
       </c>
-      <c r="AA62" s="15" t="s">
+      <c r="AA62" t="s">
         <v>69</v>
       </c>
-      <c r="AB62" s="15" t="s">
+      <c r="AB62" t="s">
         <v>96</v>
       </c>
-      <c r="AC62" s="15" t="s">
+      <c r="AC62" t="s">
         <v>91</v>
       </c>
-      <c r="AD62" s="15" t="s">
+      <c r="AD62" t="s">
         <v>97</v>
       </c>
-      <c r="AE62" s="15"/>
-      <c r="AF62" s="15"/>
-      <c r="AG62" s="96"/>
-      <c r="AH62" s="15"/>
-      <c r="AI62" s="15"/>
-      <c r="AJ62" s="15"/>
-      <c r="AK62" s="16"/>
-      <c r="AL62" s="16"/>
-      <c r="AM62" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN62" s="16"/>
-      <c r="AO62" s="109"/>
-      <c r="AP62" s="84"/>
-      <c r="AQ62" s="19"/>
-      <c r="AR62" s="119"/>
-      <c r="AS62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU62" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV62" s="76" t="s">
+      <c r="AM62" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="s">
         <v>93</v>
       </c>
-      <c r="AW62" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX62" s="15" t="s">
+      <c r="AW62" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX62" t="s">
         <v>94</v>
       </c>
-      <c r="AY62" s="15" t="s">
+      <c r="AY62" t="s">
         <v>2</v>
       </c>
-      <c r="AZ62" s="16" t="s">
+      <c r="AZ62" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8245,8 +7738,8 @@
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="95"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="76"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
       <c r="H63" s="59"/>
@@ -8255,16 +7748,16 @@
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
       <c r="M63" s="59"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="164"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="117"/>
       <c r="Q63" s="59"/>
       <c r="R63" s="59"/>
-      <c r="S63" s="128"/>
+      <c r="S63" s="98"/>
       <c r="T63" s="59"/>
       <c r="U63" s="59"/>
       <c r="V63" s="59"/>
-      <c r="W63" s="95"/>
+      <c r="W63" s="76"/>
       <c r="X63" s="59"/>
       <c r="Y63" s="59"/>
       <c r="Z63" s="59"/>
@@ -8274,7 +7767,7 @@
       <c r="AD63" s="59"/>
       <c r="AE63" s="59"/>
       <c r="AF63" s="59"/>
-      <c r="AG63" s="95"/>
+      <c r="AG63" s="76"/>
       <c r="AH63" s="59"/>
       <c r="AI63" s="59"/>
       <c r="AJ63" s="59"/>
@@ -8282,29 +7775,28 @@
       <c r="AL63" s="61"/>
       <c r="AM63" s="61"/>
       <c r="AN63" s="60"/>
-      <c r="AO63" s="106"/>
-      <c r="AP63" s="81"/>
+      <c r="AO63" s="84"/>
+      <c r="AP63" s="69"/>
       <c r="AQ63" s="62"/>
-      <c r="AR63" s="114"/>
+      <c r="AR63" s="88"/>
       <c r="AS63" s="61"/>
       <c r="AT63" s="61"/>
-      <c r="AU63" s="125"/>
-      <c r="AV63" s="73"/>
+      <c r="AU63" s="95"/>
+      <c r="AV63" s="59"/>
       <c r="AW63" s="62"/>
       <c r="AX63" s="59"/>
       <c r="AY63" s="59"/>
       <c r="AZ63" s="61"/>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="121" t="s">
         <v>338</v>
       </c>
       <c r="C64" s="41"/>
-      <c r="D64" s="150" t="s">
+      <c r="D64" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="78">
         <v>0</v>
       </c>
       <c r="F64" t="s">
@@ -8313,16 +7805,16 @@
       <c r="G64" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="173">
-        <v>1</v>
-      </c>
-      <c r="I64" s="173">
-        <v>0</v>
-      </c>
-      <c r="J64" s="15" t="s">
+      <c r="H64" s="122">
+        <v>0</v>
+      </c>
+      <c r="I64" s="122">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
         <v>111</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64">
         <v>0</v>
       </c>
       <c r="L64" s="41" t="s">
@@ -8331,1272 +7823,1014 @@
       <c r="M64" s="41">
         <v>20</v>
       </c>
-      <c r="N64" s="150">
-        <v>1</v>
-      </c>
-      <c r="O64" s="159">
+      <c r="N64" s="107">
+        <v>1</v>
+      </c>
+      <c r="O64" s="113">
         <v>50000</v>
       </c>
-      <c r="P64" s="168"/>
+      <c r="P64" s="119"/>
       <c r="Q64" s="41">
         <v>50</v>
       </c>
       <c r="R64" s="41">
         <v>1.5</v>
       </c>
-      <c r="S64" s="133">
+      <c r="S64" s="101">
         <v>10</v>
       </c>
-      <c r="T64" s="15" t="s">
+      <c r="T64" t="s">
         <v>38</v>
       </c>
-      <c r="U64" s="173" t="s">
+      <c r="U64" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="V64" s="15"/>
-      <c r="W64" s="96"/>
-      <c r="X64" s="15" t="s">
+      <c r="X64" t="s">
         <v>80</v>
       </c>
-      <c r="Y64" s="15">
+      <c r="Y64">
         <v>0.8</v>
       </c>
-      <c r="Z64" s="15">
-        <v>50</v>
-      </c>
-      <c r="AA64" s="15" t="s">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="s">
         <v>51</v>
       </c>
-      <c r="AB64" s="15" t="s">
+      <c r="AB64" t="s">
         <v>81</v>
       </c>
-      <c r="AC64" s="15" t="s">
+      <c r="AC64" t="s">
         <v>82</v>
       </c>
       <c r="AD64" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AE64" s="15">
+      <c r="AE64">
         <v>20</v>
       </c>
-      <c r="AF64" s="15">
-        <v>5</v>
-      </c>
-      <c r="AG64" s="96" t="s">
+      <c r="AF64">
+        <v>4.5</v>
+      </c>
+      <c r="AG64" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH64" s="15" t="s">
+      <c r="AH64" t="s">
         <v>85</v>
       </c>
-      <c r="AI64" s="15" t="s">
+      <c r="AI64" t="s">
         <v>86</v>
       </c>
-      <c r="AJ64" s="15" t="s">
+      <c r="AJ64" t="s">
         <v>85</v>
       </c>
-      <c r="AK64" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="18"/>
-      <c r="AM64" s="18"/>
-      <c r="AN64" s="18"/>
-      <c r="AO64" s="107"/>
-      <c r="AP64" s="86"/>
-      <c r="AQ64" s="18"/>
-      <c r="AR64" s="107"/>
-      <c r="AS64" s="18"/>
-      <c r="AT64" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU64" s="107"/>
-      <c r="AV64" s="74"/>
-      <c r="AW64" s="92"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="18"/>
-      <c r="AZ64" s="16"/>
+      <c r="AK64" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ64" s="17"/>
+      <c r="AR64" s="86"/>
+      <c r="AT64" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX64" s="17"/>
+      <c r="AY64" s="17"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
       <c r="C65" s="41"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="138"/>
-      <c r="O65" s="156"/>
-      <c r="P65" s="166"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="130"/>
-      <c r="T65" s="15" t="s">
+      <c r="D65" s="107"/>
+      <c r="E65" s="78"/>
+      <c r="T65" t="s">
         <v>32</v>
       </c>
-      <c r="U65" s="173" t="s">
+      <c r="U65" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="V65" s="15"/>
-      <c r="W65" s="96"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="69"/>
-      <c r="AC65" s="69"/>
-      <c r="AD65" s="69"/>
-      <c r="AE65" s="69"/>
-      <c r="AF65" s="69"/>
-      <c r="AG65" s="103"/>
-      <c r="AH65" s="69"/>
-      <c r="AI65" s="69"/>
-      <c r="AJ65" s="69"/>
-      <c r="AK65" s="70"/>
-      <c r="AL65" s="70"/>
-      <c r="AM65" s="70"/>
-      <c r="AN65" s="70"/>
-      <c r="AO65" s="108"/>
-      <c r="AP65" s="83"/>
-      <c r="AQ65" s="68"/>
-      <c r="AR65" s="116"/>
-      <c r="AS65" s="70"/>
-      <c r="AT65" s="70"/>
-      <c r="AU65" s="108"/>
-      <c r="AV65" s="75"/>
-      <c r="AW65" s="71"/>
-      <c r="AX65" s="69"/>
-      <c r="AY65" s="69"/>
-      <c r="AZ65" s="70"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="65"/>
+      <c r="Z65" s="65"/>
+      <c r="AA65" s="65"/>
+      <c r="AB65" s="65"/>
+      <c r="AC65" s="65"/>
+      <c r="AD65" s="65"/>
+      <c r="AE65" s="65"/>
+      <c r="AF65" s="65"/>
+      <c r="AG65" s="81"/>
+      <c r="AH65" s="65"/>
+      <c r="AI65" s="65"/>
+      <c r="AJ65" s="65"/>
+      <c r="AK65" s="66"/>
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="66"/>
+      <c r="AN65" s="66"/>
+      <c r="AO65" s="85"/>
+      <c r="AP65" s="124"/>
+      <c r="AQ65" s="65"/>
+      <c r="AR65" s="81"/>
+      <c r="AS65" s="66"/>
+      <c r="AT65" s="66"/>
+      <c r="AU65" s="85"/>
+      <c r="AV65" s="65"/>
+      <c r="AW65" s="67"/>
+      <c r="AX65" s="65"/>
+      <c r="AY65" s="65"/>
+      <c r="AZ65" s="66"/>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="138"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="138"/>
-      <c r="O66" s="156"/>
-      <c r="P66" s="166"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="130"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="96"/>
       <c r="X66" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Y66" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="15">
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
         <v>100</v>
       </c>
-      <c r="AA66" s="15" t="s">
+      <c r="AA66" t="s">
         <v>2</v>
       </c>
-      <c r="AB66" s="15" t="s">
+      <c r="AB66" t="s">
         <v>96</v>
       </c>
-      <c r="AC66" s="15" t="s">
+      <c r="AC66" t="s">
         <v>91</v>
       </c>
-      <c r="AD66" s="15" t="s">
+      <c r="AD66" t="s">
         <v>97</v>
       </c>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15"/>
-      <c r="AG66" s="96"/>
-      <c r="AH66" s="15"/>
-      <c r="AI66" s="15"/>
-      <c r="AJ66" s="15"/>
-      <c r="AK66" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL66" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="16"/>
-      <c r="AO66" s="109"/>
-      <c r="AP66" s="82" t="s">
+      <c r="AK66" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM66" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ66" s="80">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="118">
+      <c r="AQ66" s="68">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="91">
         <v>50</v>
       </c>
-      <c r="AS66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU66" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV66" s="76" t="s">
+      <c r="AS66" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV66" t="s">
         <v>93</v>
       </c>
-      <c r="AW66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX66" s="15" t="s">
+      <c r="AW66" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX66" t="s">
         <v>94</v>
       </c>
-      <c r="AY66" s="15" t="s">
+      <c r="AY66" t="s">
         <v>2</v>
       </c>
-      <c r="AZ66" s="16" t="s">
+      <c r="AZ66" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="138"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="138"/>
-      <c r="O67" s="156"/>
-      <c r="P67" s="166"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="130"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="96"/>
       <c r="X67" s="45"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15"/>
-      <c r="AG67" s="96"/>
-      <c r="AH67" s="15"/>
-      <c r="AI67" s="15"/>
-      <c r="AJ67" s="15"/>
-      <c r="AK67" s="15"/>
-      <c r="AL67" s="15"/>
-      <c r="AM67" s="15"/>
-      <c r="AN67" s="15"/>
-      <c r="AO67" s="96"/>
-      <c r="AP67" s="82" t="s">
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67" s="77"/>
+      <c r="AP67" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ67" s="80">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="118">
+      <c r="AQ67" s="68">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="91">
         <v>50</v>
       </c>
-      <c r="AS67" s="16"/>
-      <c r="AT67" s="16"/>
-      <c r="AU67" s="109"/>
-      <c r="AV67" s="76"/>
-      <c r="AW67" s="19"/>
-      <c r="AX67" s="15"/>
-      <c r="AY67" s="15"/>
-      <c r="AZ67" s="16"/>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
       <c r="X68" s="45"/>
-      <c r="AP68" s="82" t="s">
+      <c r="AP68" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AQ68" s="80">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="118">
+      <c r="AQ68" s="68">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="91">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="138"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="156"/>
-      <c r="P69" s="166"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="130"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="96"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-      <c r="AC69" s="69"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69"/>
-      <c r="AF69" s="69"/>
-      <c r="AG69" s="103"/>
-      <c r="AH69" s="69"/>
-      <c r="AI69" s="69"/>
-      <c r="AJ69" s="69"/>
-      <c r="AK69" s="70"/>
-      <c r="AL69" s="70"/>
-      <c r="AM69" s="70"/>
-      <c r="AN69" s="70"/>
-      <c r="AO69" s="108"/>
-      <c r="AP69" s="83"/>
-      <c r="AQ69" s="68"/>
-      <c r="AR69" s="116"/>
-      <c r="AS69" s="70"/>
-      <c r="AT69" s="70"/>
-      <c r="AU69" s="108"/>
-      <c r="AV69" s="75"/>
-      <c r="AW69" s="71"/>
-      <c r="AX69" s="69"/>
-      <c r="AY69" s="69"/>
-      <c r="AZ69" s="70"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+      <c r="AA69" s="65"/>
+      <c r="AB69" s="65"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="81"/>
+      <c r="AH69" s="65"/>
+      <c r="AI69" s="65"/>
+      <c r="AJ69" s="65"/>
+      <c r="AK69" s="66"/>
+      <c r="AL69" s="66"/>
+      <c r="AM69" s="66"/>
+      <c r="AN69" s="66"/>
+      <c r="AO69" s="85"/>
+      <c r="AP69" s="124"/>
+      <c r="AQ69" s="65"/>
+      <c r="AR69" s="81"/>
+      <c r="AS69" s="66"/>
+      <c r="AT69" s="66"/>
+      <c r="AU69" s="85"/>
+      <c r="AV69" s="65"/>
+      <c r="AW69" s="67"/>
+      <c r="AX69" s="65"/>
+      <c r="AY69" s="65"/>
+      <c r="AZ69" s="66"/>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="138"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="138"/>
-      <c r="O70" s="156"/>
-      <c r="P70" s="166"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="130"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="96"/>
       <c r="X70" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="Y70" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="15">
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
         <v>200</v>
       </c>
-      <c r="AA70" s="15" t="s">
+      <c r="AA70" t="s">
         <v>69</v>
       </c>
-      <c r="AB70" s="15" t="s">
+      <c r="AB70" t="s">
         <v>96</v>
       </c>
-      <c r="AC70" s="15" t="s">
+      <c r="AC70" t="s">
         <v>91</v>
       </c>
-      <c r="AD70" s="15" t="s">
+      <c r="AD70" t="s">
         <v>97</v>
       </c>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15"/>
-      <c r="AG70" s="96"/>
-      <c r="AH70" s="15"/>
-      <c r="AI70" s="15"/>
-      <c r="AJ70" s="15"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="16"/>
-      <c r="AM70" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN70" s="16"/>
-      <c r="AO70" s="109"/>
-      <c r="AP70" s="84"/>
-      <c r="AQ70" s="19"/>
-      <c r="AR70" s="119"/>
-      <c r="AS70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU70" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV70" s="76" t="s">
+      <c r="AM70" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS70" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV70" t="s">
         <v>93</v>
       </c>
-      <c r="AW70" s="19">
-        <v>1</v>
-      </c>
-      <c r="AX70" s="15" t="s">
+      <c r="AW70" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX70" t="s">
         <v>94</v>
       </c>
-      <c r="AY70" s="15" t="s">
+      <c r="AY70" t="s">
         <v>2</v>
       </c>
-      <c r="AZ70" s="16" t="s">
+      <c r="AZ70" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="151"/>
-      <c r="E71" s="171"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="160"/>
-      <c r="P71" s="169"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="134"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="63"/>
-      <c r="V71" s="63"/>
-      <c r="W71" s="99"/>
-      <c r="X71" s="63"/>
-      <c r="Y71" s="63"/>
-      <c r="Z71" s="63"/>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="63"/>
-      <c r="AC71" s="63"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="63"/>
-      <c r="AF71" s="63"/>
-      <c r="AG71" s="99"/>
-      <c r="AH71" s="63"/>
-      <c r="AI71" s="63"/>
-      <c r="AJ71" s="63"/>
-      <c r="AK71" s="64"/>
-      <c r="AL71" s="64"/>
-      <c r="AM71" s="64"/>
-      <c r="AN71" s="64"/>
-      <c r="AO71" s="112"/>
-      <c r="AP71" s="87"/>
-      <c r="AQ71" s="65"/>
-      <c r="AR71" s="123"/>
-      <c r="AS71" s="64"/>
-      <c r="AT71" s="64"/>
-      <c r="AU71" s="112"/>
-      <c r="AV71" s="79"/>
-      <c r="AW71" s="65"/>
-      <c r="AX71" s="63"/>
-      <c r="AY71" s="63"/>
-      <c r="AZ71" s="64"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="138"/>
+      <c r="L71" s="138"/>
+      <c r="M71" s="138"/>
+      <c r="N71" s="138"/>
+      <c r="O71" s="139"/>
+      <c r="P71" s="140"/>
+      <c r="Q71" s="138"/>
+      <c r="R71" s="138"/>
+      <c r="S71" s="141"/>
+      <c r="T71" s="138"/>
+      <c r="U71" s="138"/>
+      <c r="V71" s="138"/>
+      <c r="W71" s="120"/>
+      <c r="X71" s="138"/>
+      <c r="Y71" s="138"/>
+      <c r="Z71" s="138"/>
+      <c r="AA71" s="138"/>
+      <c r="AB71" s="138"/>
+      <c r="AC71" s="138"/>
+      <c r="AD71" s="138"/>
+      <c r="AE71" s="138"/>
+      <c r="AF71" s="138"/>
+      <c r="AG71" s="120"/>
+      <c r="AH71" s="138"/>
+      <c r="AI71" s="138"/>
+      <c r="AJ71" s="138"/>
+      <c r="AK71" s="142"/>
+      <c r="AL71" s="142"/>
+      <c r="AM71" s="142"/>
+      <c r="AN71" s="142"/>
+      <c r="AO71" s="143"/>
+      <c r="AP71" s="144"/>
+      <c r="AQ71" s="145"/>
+      <c r="AR71" s="146"/>
+      <c r="AS71" s="142"/>
+      <c r="AT71" s="142"/>
+      <c r="AU71" s="143"/>
+      <c r="AV71" s="138"/>
+      <c r="AW71" s="145"/>
+      <c r="AX71" s="138"/>
+      <c r="AY71" s="138"/>
+      <c r="AZ71" s="142"/>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="172" t="s">
+      <c r="B72" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="138" t="s">
+      <c r="D72" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="97">
-        <v>0</v>
-      </c>
-      <c r="F72" s="15" t="s">
+      <c r="E72" s="77">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="173" t="s">
+      <c r="G72" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="173">
-        <v>1</v>
-      </c>
-      <c r="I72" s="173">
-        <v>0</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="H72" s="122">
+        <v>0</v>
+      </c>
+      <c r="I72" s="122">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="15">
-        <v>0</v>
-      </c>
-      <c r="L72" s="15" t="s">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
         <v>79</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M72">
         <v>10</v>
       </c>
-      <c r="N72" s="138">
+      <c r="N72">
         <v>10</v>
       </c>
-      <c r="O72" s="156">
+      <c r="O72" s="112">
         <v>50000</v>
       </c>
-      <c r="P72" s="166"/>
-      <c r="Q72" s="15">
+      <c r="Q72">
         <v>10</v>
       </c>
-      <c r="R72" s="15">
+      <c r="R72">
         <v>10</v>
       </c>
-      <c r="S72" s="130">
+      <c r="S72" s="100">
         <v>10</v>
       </c>
-      <c r="T72" s="15" t="s">
+      <c r="T72" t="s">
         <v>122</v>
       </c>
-      <c r="U72" s="173" t="s">
+      <c r="U72" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="V72" s="15"/>
-      <c r="W72" s="96"/>
-      <c r="X72" s="15" t="s">
+      <c r="X72" t="s">
         <v>123</v>
       </c>
-      <c r="Y72" s="15">
+      <c r="Y72">
         <v>0.9</v>
       </c>
-      <c r="Z72" s="15">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG72" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK72" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM72" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ72" s="20">
         <v>50</v>
       </c>
-      <c r="AA72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB72" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC72" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH72" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI72" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ72" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="109"/>
-      <c r="AP72" s="84" t="s">
+      <c r="AR72" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV72" t="s">
         <v>32</v>
       </c>
-      <c r="AQ72" s="19">
+      <c r="AW72" s="20">
         <v>50</v>
       </c>
-      <c r="AR72" s="119" t="s">
+      <c r="AX72" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ72" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F73" s="122"/>
+      <c r="AP73" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ73" s="20">
+        <v>170</v>
+      </c>
+      <c r="AR73" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AS72" s="16"/>
-      <c r="AT72" s="16"/>
-      <c r="AU72" s="109"/>
-      <c r="AV72" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW72" s="19">
+      <c r="AV73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW73" s="20">
         <v>50</v>
       </c>
-      <c r="AX72" s="16" t="s">
+      <c r="AX73" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AY72" s="15"/>
-      <c r="AZ72" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="138"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="138"/>
-      <c r="O73" s="156"/>
-      <c r="P73" s="166"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="130"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="96"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15"/>
-      <c r="AG73" s="96"/>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="15"/>
-      <c r="AJ73" s="15"/>
-      <c r="AK73" s="16"/>
-      <c r="AL73" s="16"/>
-      <c r="AM73" s="16"/>
-      <c r="AN73" s="16"/>
-      <c r="AO73" s="109"/>
-      <c r="AP73" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ73" s="19">
-        <v>170</v>
-      </c>
-      <c r="AR73" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS73" s="16"/>
-      <c r="AT73" s="16"/>
-      <c r="AU73" s="109"/>
-      <c r="AV73" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW73" s="19">
-        <v>50</v>
-      </c>
-      <c r="AX73" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY73" s="15"/>
-      <c r="AZ73" s="16"/>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="94"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="75"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB15 B65:B68 B14:B21 F15:I17 AH48:AS48 AP17:AU18 AS37:AU37 AS16:AZ16 AS45:AZ45 AS41:AZ41 AS24:AZ26 AS35:AU35 AV35:AZ37 AP66:AZ67 AS65:AZ65 AP70:AZ70 AS69:AZ69 AP58:AZ59 AS57:AZ57 AP62:AZ62 AS61:AZ61 T35:W38 T46:W46 T69:W70 T59:W59 T32:W32 T27:W29 T74:Y75 T25:AC25 AP36:AU36 T40:W42 B33:D54 AD15:AG15 X16:AF16 X69:AF69 X35:AO35 X61:AF61 AA74:AF75 AC22:AY22 T26:AF26 AG58:AJ58 T24:AO24 T57:AF58 AG57:AO57 AZ57:AZ58 T71:AF71 AG71:AY75 T33:AY33 T43:AY43 AG47:AY47 T39:AY39 AE34:AU34 AB17:AF17 AG16:AO17 X20:AO20 X37:AO37 T45:AO45 X41:AO41 AE23:AG23 AE25:AF25 AG25:AR26 AS20:AZ20 Y66:AF66 AG65:AO66 AZ64:AZ66 Y70:AF70 AG69:AO70 AZ69:AZ75 AD36:AG36 Y62:AF62 AG61:AO62 AZ61:AZ62 B6:D11 X40:AC40 T47:AF48 AE40:AS40 AE44:AS44 AZ22:AZ26 AZ33:AZ37 AZ39:AZ41 AZ43:AZ45 AZ47:AZ48 AZ15:AZ17 C21:D23 AK15:AS15 AU15:AZ15 AK23:AS23 AU23:AZ23 AU40 AU44 AU48 Q15:X15 Q23:X23 Q34:AC34 Q44:AC44 Q56:T56 Q21:W21 J21:O29 Q16:W18 J16:O18 Q32:S33 J32:O54 Q22:AA22 Q66:W67 C64:D67 Q69:S75 B69:D71 Q57:S59 C56:D59 Q61:W62 B61:D62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AA14 C14:D18 Q12:AO13 L5:O13 Q7:AF11 Q5:AR6 F19 F14:O15 F61:O62 F69:O71 F65:O67 F57:O59 F20:I23 F8:G8 F9:H11 F33:I54 F5:H7 C5:D5 B73:D75 C72:D72 F56:G56 J56:O56 F64:G64 J64:O64 F73:O75 F72 J72:O72 V56:AZ56 V64:AY64 Q64:T65 V65:AF65 T73:AF73 T72 V72:AF72">
-    <cfRule type="cellIs" dxfId="122" priority="267" operator="equal">
+  <conditionalFormatting sqref="AB15 F20:I21 B65:B68 B14:B21 AH48:AS48 AP17:AU18 AS37:AU37 AS16:AZ16 AS45:AZ45 AS41:AZ41 AS24:AZ26 AS35:AU35 AV35:AZ37 AP66:AZ67 AS65:AZ65 AP70:AZ70 AS69:AZ69 AP58:AZ59 AS57:AZ57 AP62:AZ62 AS61:AZ61 T35:W38 T46:W46 T69:W70 T59:W59 T32:W32 T27:W29 T74:Y75 T25:AC25 AP36:AU36 T40:W42 B33:C54 AD15:AG15 X16:AF16 X69:AF69 X35:AO35 X61:AF61 AA74:AF75 AC22:AY22 T26:AF26 AG58:AJ58 T24:AO24 T57:AF58 AG57:AO57 T33:AY33 T43:AY43 AG47:AY47 T39:AY39 AE34:AU34 AB17:AF17 AG16:AO17 X20:AO20 X37:AO37 T45:AO45 X41:AO41 AE23:AG23 AE25:AF25 AG25:AR26 AS20:AZ20 Y66:AF66 AG65:AO66 Y70:AF70 AG69:AO70 AG71:AZ75 AD36:AG36 Y62:AF62 AG61:AO62 B5:C11 X40:AC40 T47:AF48 AE40:AS40 AE44:AS44 AZ22:AZ23 AZ33:AZ34 AZ39:AZ40 AZ43:AZ44 AZ47:AZ48 AZ17 C21:C23 AK15:AS15 AU15:AZ15 AK23:AS23 AU23:AY23 AU40 AU44 AU48 Q15:X15 Q23:X23 Q34:AC34 Q44:AC44 Q56:AZ56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AA22 Q66:W67 C65:C67 Q69:S75 Q57:S59 C57:C59 Q61:W62 B61:C62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AA14 F14:I17 C14:C18 J14:O18 Q12:AO13 L5:O13 Q7:AF11 Q5:AR6 F19 B56:C56 B64:C64 B69:C75 Q64:T65 V65:AF65 V64:AZ64 T71:AF73 E69:O75 E14:E18 E61:O62 E56:O59 E64:O67 E22:I23 E8:G8 E9:H11 E33:I54 E5:H7 E21">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Z15">
-    <cfRule type="cellIs" dxfId="121" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="120" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AJ15">
-    <cfRule type="cellIs" dxfId="119" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AC15">
-    <cfRule type="cellIs" dxfId="118" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:AA33">
-    <cfRule type="cellIs" dxfId="117" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34:Z34">
-    <cfRule type="cellIs" dxfId="116" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="115" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AJ34">
-    <cfRule type="cellIs" dxfId="114" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AC34">
-    <cfRule type="cellIs" dxfId="113" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV34:AZ34">
-    <cfRule type="cellIs" dxfId="112" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV17:AZ18 AP19 X17:Z17">
-    <cfRule type="cellIs" dxfId="111" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Z44">
-    <cfRule type="cellIs" dxfId="110" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44">
-    <cfRule type="cellIs" dxfId="109" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH44:AJ44">
-    <cfRule type="cellIs" dxfId="108" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC44">
-    <cfRule type="cellIs" dxfId="107" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV44:AZ44">
-    <cfRule type="cellIs" dxfId="106" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y48:Z48">
-    <cfRule type="cellIs" dxfId="105" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH48:AJ48">
-    <cfRule type="cellIs" dxfId="104" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AC48">
-    <cfRule type="cellIs" dxfId="103" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV48:AZ48">
-    <cfRule type="cellIs" dxfId="102" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y40:Z40">
-    <cfRule type="cellIs" dxfId="101" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="100" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40:AJ40">
-    <cfRule type="cellIs" dxfId="99" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA40:AC40">
-    <cfRule type="cellIs" dxfId="98" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV40:AZ40">
-    <cfRule type="cellIs" dxfId="97" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AB23 B22:B32 C24:D29 F24:I28 C32:D32 F31:I32">
-    <cfRule type="cellIs" dxfId="96" priority="164" operator="equal">
+  <conditionalFormatting sqref="AB22:AB23 B22:B32 C24:C29 F24:I28 C32 F31:I32 E32 E24:E29">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23:Z23">
-    <cfRule type="cellIs" dxfId="95" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="94" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23:AJ23">
-    <cfRule type="cellIs" dxfId="93" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:AC23">
-    <cfRule type="cellIs" dxfId="92" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP68">
-    <cfRule type="cellIs" dxfId="91" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="90" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44">
-    <cfRule type="cellIs" dxfId="89" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40">
-    <cfRule type="cellIs" dxfId="88" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="87" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23">
-    <cfRule type="cellIs" dxfId="86" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="85" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48">
-    <cfRule type="cellIs" dxfId="84" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48">
-    <cfRule type="cellIs" dxfId="83" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X70">
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36 X36">
-    <cfRule type="cellIs" dxfId="81" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36:Z36 AK36:AO36">
-    <cfRule type="cellIs" dxfId="80" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="79" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36:AJ36">
-    <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36:AC36">
-    <cfRule type="cellIs" dxfId="77" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP60 AK58:AO58">
-    <cfRule type="cellIs" dxfId="75" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X62">
-    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X66">
-    <cfRule type="cellIs" dxfId="73" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I11 H8">
-    <cfRule type="cellIs" dxfId="72" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44">
-    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:D13 F12:H13">
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+  <conditionalFormatting sqref="B12:C13 E12:H13">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:Z21 AB21:AZ21">
-    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA21">
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:Z38 AB38:AZ38">
-    <cfRule type="cellIs" dxfId="65" priority="76" operator="equal">
+  <conditionalFormatting sqref="X38:Y38 AB38:AZ38">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Z42 AB42:AZ42">
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
+  <conditionalFormatting sqref="X42:Y42 AB42:AZ42">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42">
-    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X46:Z46 AB46:AZ46">
-    <cfRule type="cellIs" dxfId="61" priority="72" operator="equal">
+  <conditionalFormatting sqref="X46:Y46 AB46:AZ46">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA46">
-    <cfRule type="cellIs" dxfId="60" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14:AZ14">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K13">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:K5">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS12:AZ12 AP13:AZ13">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP11">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AO11 AG8:AR9 AG7:AO7 AS5:AZ11">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS27:AZ27 X27:AF27 AB28:AF28 AG27:AO28 X31:AO31 AS31:AZ31 AZ28 AS28:AU29">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV28:AZ29 X28:Z28">
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32:Z32 AB32:AZ32">
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA32">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP50:AU51 AS49:AZ49 X49:AF49 AB50:AF50 AG49:AO50 X53:AO53 AS53:AZ53 AZ50">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV50:AZ51 AP52 X50:Z50">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X54:Z54 AB54:AZ54">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT23">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT40">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT44">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT48">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:AR29">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP28">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E75 E14:E18 E61:E62 E56:E59 E64:E67 E33:E54 E5:E11 E21:E23">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+  <conditionalFormatting sqref="Z38">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32 E24:E29">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+  <conditionalFormatting sqref="Z42">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+  <conditionalFormatting sqref="Z46">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+  <conditionalFormatting sqref="U64:U65">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+  <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:I56">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U65">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U72">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:I64">
+  <conditionalFormatting sqref="D32 D24:D29">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:I72">
+  <conditionalFormatting sqref="D12:D13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -11463,37 +10697,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C82138B2-2B21-40F5-A945-C43BA45BFEDA}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D987BB7-7AAC-4837-B2B4-64E3DAA0F0B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,27 +46,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CC17EBD6-05C1-4A98-BCC1-16638F0C3809}</author>
+    <author>tc={5D31819A-24D2-41D9-9FF3-2FD4817887FB}</author>
     <author>Treseder, Gavin</author>
-    <author>tc={90592F8A-219B-4CC8-A79D-1025DF3D8AE3}</author>
-    <author>tc={6CC456A9-9B8E-4017-919B-D2B52927524F}</author>
-    <author>tc={39C9286F-B95A-4337-A08F-BDDC6DFE87D2}</author>
+    <author>tc={32B87E71-B218-4DB6-8C4D-4F72C69130A4}</author>
+    <author>tc={0BFAEF4B-2D9A-4587-BD4E-4FED8DDCBAA0}</author>
+    <author>tc={02C85130-C6E5-4982-87FC-04B79F2E2693}</author>
     <author>tc={F772331A-CC2B-4B36-928E-ADF8B1B87D78}</author>
     <author>tc={6F9C7558-2488-4B35-9A88-BB19AC96E38D}</author>
     <author>tc={2D585846-AAEB-47E7-B476-A4251DE27C2D}</author>
     <author>tc={F78876A4-21B8-4D9C-B889-EECA67BBC883}</author>
-    <author>tc={24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}</author>
-    <author>tc={C3CE3649-C35B-444A-A040-16B06B8C2414}</author>
-    <author>tc={B795DDA2-6224-4F3A-8BCF-159DB08854C4}</author>
+    <author>tc={D236BACF-88CC-4D73-8C4C-40634727E7E3}</author>
+    <author>tc={B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}</author>
+    <author>tc={78AC881B-3FA5-48DC-A556-63ECA2E0B537}</author>
     <author>tc={896933EB-2D07-46B7-874F-3B074D4F0E8B}</author>
     <author>tc={DDEEA5E8-2AA9-4995-8434-3EF3B3569035}</author>
-    <author>tc={4CD5258A-D67E-47FB-8E74-EB8F45775404}</author>
-    <author>tc={C3F48FD3-2D79-4C22-82C0-945632F916A3}</author>
-    <author>tc={E0121891-86BC-42ED-83A9-BDDA9AFE6E85}</author>
-    <author>tc={847E5DCE-92A7-4EE6-853D-64CCEC54041B}</author>
+    <author>tc={FD04FCD9-AAAC-49EB-B08D-ABE83332B429}</author>
+    <author>tc={EC002DEC-32D7-4256-BB05-F29E9BA96A84}</author>
+    <author>tc={D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}</author>
+    <author>tc={B500928C-BCD7-432B-8C46-EA7CF6B62AB4}</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{CC17EBD6-05C1-4A98-BCC1-16638F0C3809}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{5D31819A-24D2-41D9-9FF3-2FD4817887FB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +74,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{4F6D8068-4421-4C3E-B9A0-DEEB3CA1758D}">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{8A9FCB06-0AB9-427B-864D-245DECC2CDD8}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP5" authorId="2" shapeId="0" xr:uid="{90592F8A-219B-4CC8-A79D-1025DF3D8AE3}">
+    <comment ref="AQ5" authorId="2" shapeId="0" xr:uid="{32B87E71-B218-4DB6-8C4D-4F72C69130A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     20mm of wallthickness loss not detectable</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{6CC456A9-9B8E-4017-919B-D2B52927524F}">
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{0BFAEF4B-2D9A-4587-BD4E-4FED8DDCBAA0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{BDECFFD9-E37D-4B2C-864E-CD634D4FF28D}">
+    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{BC0959A4-47C9-4C8C-A8AE-431A1C63D7A0}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="4" shapeId="0" xr:uid="{39C9286F-B95A-4337-A08F-BDDC6DFE87D2}">
+    <comment ref="F8" authorId="4" shapeId="0" xr:uid="{02C85130-C6E5-4982-87FC-04B79F2E2693}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +181,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="J56" authorId="9" shapeId="0" xr:uid="{24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}">
+    <comment ref="J56" authorId="9" shapeId="0" xr:uid="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +189,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AD56" authorId="10" shapeId="0" xr:uid="{C3CE3649-C35B-444A-A040-16B06B8C2414}">
+    <comment ref="AE56" authorId="10" shapeId="0" xr:uid="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -198,7 +198,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X58" authorId="11" shapeId="0" xr:uid="{B795DDA2-6224-4F3A-8BCF-159DB08854C4}">
+    <comment ref="X58" authorId="11" shapeId="0" xr:uid="{78AC881B-3FA5-48DC-A556-63ECA2E0B537}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +222,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AD64" authorId="14" shapeId="0" xr:uid="{4CD5258A-D67E-47FB-8E74-EB8F45775404}">
+    <comment ref="AE64" authorId="14" shapeId="0" xr:uid="{FD04FCD9-AAAC-49EB-B08D-ABE83332B429}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +231,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X66" authorId="15" shapeId="0" xr:uid="{C3F48FD3-2D79-4C22-82C0-945632F916A3}">
+    <comment ref="X66" authorId="15" shapeId="0" xr:uid="{EC002DEC-32D7-4256-BB05-F29E9BA96A84}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +239,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="F72" authorId="16" shapeId="0" xr:uid="{E0121891-86BC-42ED-83A9-BDDA9AFE6E85}">
+    <comment ref="F72" authorId="16" shapeId="0" xr:uid="{D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +247,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="J72" authorId="17" shapeId="0" xr:uid="{847E5DCE-92A7-4EE6-853D-64CCEC54041B}">
+    <comment ref="J72" authorId="17" shapeId="0" xr:uid="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="341">
   <si>
     <t>Cause</t>
   </si>
@@ -1280,6 +1280,9 @@
   </si>
   <si>
     <t>underground_network</t>
+  </si>
+  <si>
+    <t>crack_length</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1838,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1890,98 +1892,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="224">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="211">
     <dxf>
       <fill>
         <patternFill>
@@ -3741,16 +3652,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{CC17EBD6-05C1-4A98-BCC1-16638F0C3809}">
+  <threadedComment ref="H5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{5D31819A-24D2-41D9-9FF3-2FD4817887FB}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AP5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{90592F8A-219B-4CC8-A79D-1025DF3D8AE3}">
+  <threadedComment ref="AQ5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{32B87E71-B218-4DB6-8C4D-4F72C69130A4}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
-  <threadedComment ref="H6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6CC456A9-9B8E-4017-919B-D2B52927524F}">
+  <threadedComment ref="H6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{0BFAEF4B-2D9A-4587-BD4E-4FED8DDCBAA0}">
     <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{39C9286F-B95A-4337-A08F-BDDC6DFE87D2}">
+  <threadedComment ref="F8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{02C85130-C6E5-4982-87FC-04B79F2E2693}">
     <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
   </threadedComment>
   <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
@@ -3765,14 +3676,14 @@
   <threadedComment ref="E56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="J56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{24C1C228-EBE4-4FA7-9EB5-CD88E4DA729D}">
+  <threadedComment ref="J56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AD56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C3CE3649-C35B-444A-A040-16B06B8C2414}">
+  <threadedComment ref="AE56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B795DDA2-6224-4F3A-8BCF-159DB08854C4}">
+  <threadedComment ref="X58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{78AC881B-3FA5-48DC-A556-63ECA2E0B537}">
     <text>Make this a repair task</text>
   </threadedComment>
   <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
@@ -3781,17 +3692,17 @@
   <threadedComment ref="E64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AD64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{4CD5258A-D67E-47FB-8E74-EB8F45775404}">
+  <threadedComment ref="AE64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{FD04FCD9-AAAC-49EB-B08D-ABE83332B429}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C3F48FD3-2D79-4C22-82C0-945632F916A3}">
+  <threadedComment ref="X66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EC002DEC-32D7-4256-BB05-F29E9BA96A84}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="F72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{E0121891-86BC-42ED-83A9-BDDA9AFE6E85}">
+  <threadedComment ref="F72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{847E5DCE-92A7-4EE6-853D-64CCEC54041B}">
+  <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -4248,7 +4159,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4716,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AZ78"/>
+  <dimension ref="A1:BA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4732,7 +4643,7 @@
     <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
@@ -4746,32 +4657,33 @@
     <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.6640625" style="77" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.5546875" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" customWidth="1"/>
-    <col min="29" max="29" width="14.88671875" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" customWidth="1"/>
-    <col min="33" max="33" width="23.5546875" style="77" customWidth="1"/>
-    <col min="34" max="34" width="12" customWidth="1"/>
-    <col min="35" max="36" width="11.5546875" customWidth="1"/>
-    <col min="37" max="40" width="8.88671875" style="17" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="86" customWidth="1"/>
-    <col min="42" max="42" width="17.88671875" style="71" customWidth="1"/>
-    <col min="43" max="43" width="14.109375" style="20" customWidth="1"/>
-    <col min="44" max="44" width="14.44140625" style="92" customWidth="1"/>
-    <col min="45" max="46" width="8.88671875" style="17" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" style="86" customWidth="1"/>
-    <col min="48" max="48" width="17.88671875" customWidth="1"/>
-    <col min="49" max="49" width="8.88671875" style="20" customWidth="1"/>
-    <col min="50" max="50" width="16.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.88671875" customWidth="1"/>
-    <col min="52" max="52" width="16.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="14.88671875" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" customWidth="1"/>
+    <col min="33" max="33" width="9.5546875" customWidth="1"/>
+    <col min="34" max="34" width="23.5546875" style="77" customWidth="1"/>
+    <col min="35" max="35" width="12" customWidth="1"/>
+    <col min="36" max="37" width="11.5546875" customWidth="1"/>
+    <col min="38" max="41" width="8.88671875" style="17" customWidth="1"/>
+    <col min="42" max="42" width="8.88671875" style="86" customWidth="1"/>
+    <col min="43" max="43" width="17.88671875" style="71" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" style="20" customWidth="1"/>
+    <col min="45" max="45" width="14.44140625" style="92" customWidth="1"/>
+    <col min="46" max="47" width="8.88671875" style="17" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="86" customWidth="1"/>
+    <col min="49" max="49" width="17.88671875" customWidth="1"/>
+    <col min="50" max="50" width="8.88671875" style="20" customWidth="1"/>
+    <col min="51" max="51" width="16.33203125" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -4814,32 +4726,33 @@
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="2"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="80"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
-      <c r="AK1" s="63" t="s">
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="22"/>
       <c r="AM1" s="22"/>
       <c r="AN1" s="22"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="74"/>
+      <c r="AU1" s="64"/>
       <c r="AV1" s="74"/>
       <c r="AW1" s="74"/>
-      <c r="AX1" s="64"/>
+      <c r="AX1" s="74"/>
       <c r="AY1" s="64"/>
-      <c r="AZ1" s="21"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="21"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -4888,46 +4801,47 @@
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
       <c r="AD2" s="25"/>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="80" t="s">
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-      <c r="AK2" s="63" t="s">
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="63" t="s">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="64" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="4" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="21" t="s">
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -5001,91 +4915,94 @@
         <v>56</v>
       </c>
       <c r="Y3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AB3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="45" t="s">
+      <c r="AC3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="45" t="s">
+      <c r="AE3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AF3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="80" t="s">
+      <c r="AH3" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AI3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="45" t="s">
+      <c r="AJ3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="45" t="s">
+      <c r="AK3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AK3" s="63" t="s">
+      <c r="AL3" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AN3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AO3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AO3" s="83" t="s">
+      <c r="AP3" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AP3" s="63" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AR3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="87" t="s">
+      <c r="AS3" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" s="64" t="s">
+      <c r="AT3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AT3" s="64" t="s">
+      <c r="AU3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AU3" s="94" t="s">
+      <c r="AV3" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AW3" s="74" t="s">
+      <c r="AX3" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="64" t="s">
+      <c r="AY3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AY3" s="94" t="s">
+      <c r="AZ3" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="BA3" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -5118,28 +5035,29 @@
       <c r="AD4" s="59"/>
       <c r="AE4" s="59"/>
       <c r="AF4" s="59"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="76"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
-      <c r="AK4" s="61"/>
+      <c r="AK4" s="59"/>
       <c r="AL4" s="61"/>
       <c r="AM4" s="61"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="88"/>
       <c r="AT4" s="61"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="59"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="62"/>
       <c r="AY4" s="59"/>
-      <c r="AZ4" s="61"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="61"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B5" s="121" t="s">
         <v>338</v>
       </c>
@@ -5158,7 +5076,7 @@
       <c r="H5" s="42">
         <v>125</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="122">
         <v>20</v>
       </c>
       <c r="J5" t="s">
@@ -5198,59 +5116,62 @@
       <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="45">
         <v>0.96</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="AA5" s="45">
         <v>50</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>83</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AF5" s="41">
         <v>20</v>
       </c>
-      <c r="AF5" s="41">
+      <c r="AG5" s="41">
         <v>4.5</v>
       </c>
-      <c r="AG5" s="77" t="s">
+      <c r="AH5" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>85</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="72" t="s">
+      <c r="AL5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="89" t="s">
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AT5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="17"/>
+      <c r="AU5" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AY5" s="17"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ5" s="17"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>38</v>
       </c>
@@ -5260,7 +5181,7 @@
       <c r="H6" s="42">
         <v>250</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="122">
         <f>ROUND((I7/H7 * H6^3)^(1/3),0)</f>
         <v>157</v>
       </c>
@@ -5270,21 +5191,21 @@
       <c r="U6" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="45"/>
       <c r="Z6" s="45"/>
-      <c r="AE6" s="41"/>
+      <c r="AA6" s="45"/>
       <c r="AF6" s="41"/>
-      <c r="AP6" s="72" t="s">
+      <c r="AG6" s="41"/>
+      <c r="AQ6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="89" t="s">
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AX6" s="17"/>
       <c r="AY6" s="17"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ6" s="17"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>37</v>
       </c>
@@ -5306,116 +5227,120 @@
       <c r="AD7" s="65"/>
       <c r="AE7" s="65"/>
       <c r="AF7" s="65"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="81"/>
       <c r="AI7" s="65"/>
       <c r="AJ7" s="65"/>
-      <c r="AK7" s="66"/>
+      <c r="AK7" s="65"/>
       <c r="AL7" s="66"/>
       <c r="AM7" s="66"/>
       <c r="AN7" s="66"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="81"/>
       <c r="AT7" s="66"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="65"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="67"/>
       <c r="AY7" s="65"/>
-      <c r="AZ7" s="66"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="66"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X8" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="42">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="42">
         <v>0.96</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>2</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>91</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>92</v>
       </c>
-      <c r="AK8" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL8" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ8" s="68">
+      <c r="AR8" s="68">
         <v>50</v>
       </c>
-      <c r="AR8" s="90" t="s">
+      <c r="AS8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AS8" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT8" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU8" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="70" t="s">
+      <c r="AU8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AW8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="17" t="s">
+      <c r="AX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY8" s="17" t="s">
+      <c r="AZ8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ8" s="17" t="s">
+      <c r="BA8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AP9" s="70" t="s">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ9" s="68">
+      <c r="AR9" s="68">
         <v>50</v>
       </c>
-      <c r="AR9" s="90" t="s">
+      <c r="AS9" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AV9" s="70" t="s">
+      <c r="AW9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AW9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="17" t="s">
+      <c r="AX9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY9" s="17" t="s">
+      <c r="AZ9" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X10" s="65"/>
       <c r="Y10" s="65"/>
       <c r="Z10" s="65"/>
@@ -5425,93 +5350,97 @@
       <c r="AD10" s="65"/>
       <c r="AE10" s="65"/>
       <c r="AF10" s="65"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="81"/>
       <c r="AI10" s="65"/>
       <c r="AJ10" s="65"/>
-      <c r="AK10" s="66"/>
+      <c r="AK10" s="65"/>
       <c r="AL10" s="66"/>
       <c r="AM10" s="66"/>
       <c r="AN10" s="66"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="123"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="81"/>
       <c r="AT10" s="66"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="67"/>
-      <c r="AX10" s="65"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="67"/>
       <c r="AY10" s="65"/>
-      <c r="AZ10" s="66"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="66"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X11" t="s">
         <v>95</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="45">
         <v>3500</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>2</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>91</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>97</v>
       </c>
-      <c r="AK11" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL11" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM11" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AQ11" s="68">
+      <c r="AR11" s="68">
         <v>0.5</v>
       </c>
-      <c r="AR11" s="91">
+      <c r="AS11" s="91">
         <v>3</v>
       </c>
-      <c r="AS11" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT11" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU11" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="s">
+      <c r="AU11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
         <v>93</v>
       </c>
-      <c r="AW11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="s">
+      <c r="AX11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="s">
         <v>94</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>2</v>
       </c>
-      <c r="AZ11" s="17" t="s">
+      <c r="BA11" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X12" s="65"/>
       <c r="Y12" s="65"/>
       <c r="Z12" s="65"/>
@@ -5521,129 +5450,134 @@
       <c r="AD12" s="65"/>
       <c r="AE12" s="65"/>
       <c r="AF12" s="65"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="81"/>
       <c r="AI12" s="65"/>
       <c r="AJ12" s="65"/>
-      <c r="AK12" s="66"/>
+      <c r="AK12" s="65"/>
       <c r="AL12" s="66"/>
       <c r="AM12" s="66"/>
       <c r="AN12" s="66"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="85"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="81"/>
       <c r="AT12" s="66"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="65"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="67"/>
       <c r="AY12" s="65"/>
-      <c r="AZ12" s="66"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="66"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X13" t="s">
         <v>98</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13" s="45">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="45">
         <v>7000</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>2</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>96</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>91</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>97</v>
       </c>
-      <c r="AK13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="70"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="17" t="b">
-        <v>0</v>
-      </c>
+      <c r="AL13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="91"/>
       <c r="AT13" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU13" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="s">
+      <c r="AU13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
         <v>93</v>
       </c>
-      <c r="AW13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX13" t="s">
+      <c r="AX13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="s">
         <v>94</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>2</v>
       </c>
-      <c r="AZ13" s="17" t="s">
+      <c r="BA13" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="130"/>
-      <c r="AL14" s="130"/>
-      <c r="AM14" s="130"/>
-      <c r="AN14" s="130"/>
-      <c r="AO14" s="131"/>
-      <c r="AP14" s="132"/>
-      <c r="AQ14" s="133"/>
-      <c r="AR14" s="134"/>
-      <c r="AS14" s="130"/>
-      <c r="AT14" s="130"/>
-      <c r="AU14" s="131"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="133"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="130"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="129"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="130"/>
+      <c r="AQ14" s="131"/>
+      <c r="AR14" s="132"/>
+      <c r="AS14" s="133"/>
+      <c r="AT14" s="129"/>
+      <c r="AU14" s="129"/>
+      <c r="AV14" s="130"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="132"/>
+      <c r="AY14" s="124"/>
+      <c r="AZ14" s="124"/>
+      <c r="BA14" s="129"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>99</v>
       </c>
@@ -5681,51 +5615,54 @@
       <c r="X15" t="s">
         <v>80</v>
       </c>
-      <c r="Y15" s="45">
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="45">
         <v>0.96</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>50</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>82</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>20</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4.5</v>
       </c>
-      <c r="AG15" s="77" t="s">
+      <c r="AH15" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>85</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>85</v>
       </c>
-      <c r="AK15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="86"/>
-      <c r="AT15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="17"/>
+      <c r="AL15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="86"/>
+      <c r="AU15" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AY15" s="17"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ15" s="17"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X16" s="65"/>
       <c r="Y16" s="65"/>
       <c r="Z16" s="65"/>
@@ -5735,28 +5672,29 @@
       <c r="AD16" s="65"/>
       <c r="AE16" s="65"/>
       <c r="AF16" s="65"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="81"/>
       <c r="AI16" s="65"/>
       <c r="AJ16" s="65"/>
-      <c r="AK16" s="66"/>
+      <c r="AK16" s="65"/>
       <c r="AL16" s="66"/>
       <c r="AM16" s="66"/>
       <c r="AN16" s="66"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="81"/>
       <c r="AT16" s="66"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="65"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="67"/>
       <c r="AY16" s="65"/>
-      <c r="AZ16" s="66"/>
-    </row>
-    <row r="17" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="66"/>
+    </row>
+    <row r="17" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X17" t="s">
         <v>95</v>
       </c>
@@ -5764,91 +5702,94 @@
         <v>1</v>
       </c>
       <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>3500</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>2</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>96</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>91</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>97</v>
       </c>
-      <c r="AK17" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL17" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM17" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ17" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="92">
+      <c r="AR17" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="92">
         <v>50</v>
       </c>
-      <c r="AS17" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT17" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU17" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="s">
+      <c r="AU17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
         <v>93</v>
       </c>
-      <c r="AW17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="s">
+      <c r="AX17" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="s">
         <v>94</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ17" s="17" t="s">
+      <c r="BA17" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="AK18"/>
+    <row r="18" spans="10:53" x14ac:dyDescent="0.3">
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="71" t="s">
+      <c r="AO18"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ18" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="92">
+      <c r="AR18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="92">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="AP19" s="71" t="s">
+    <row r="19" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="AQ19" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AQ19" s="20">
+      <c r="AR19" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR19" s="92">
+      <c r="AS19" s="92">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
@@ -5858,126 +5799,131 @@
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
       <c r="AF20" s="65"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="81"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="65"/>
-      <c r="AK20" s="66"/>
+      <c r="AK20" s="65"/>
       <c r="AL20" s="66"/>
       <c r="AM20" s="66"/>
       <c r="AN20" s="66"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="81"/>
       <c r="AT20" s="66"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="67"/>
-      <c r="AX20" s="65"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="67"/>
       <c r="AY20" s="65"/>
-      <c r="AZ20" s="66"/>
-    </row>
-    <row r="21" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="66"/>
+    </row>
+    <row r="21" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X21" t="s">
         <v>98</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21" s="45">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="45">
         <v>7000</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>2</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>91</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>97</v>
       </c>
-      <c r="AK21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="17" t="b">
-        <v>0</v>
+      <c r="AL21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT21" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU21" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="s">
+      <c r="AU21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
         <v>93</v>
       </c>
-      <c r="AW21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="s">
+      <c r="AX21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="s">
         <v>94</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>2</v>
       </c>
-      <c r="AZ21" s="17" t="s">
+      <c r="BA21" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="125"/>
-      <c r="AD22" s="125"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="125"/>
-      <c r="AJ22" s="125"/>
-      <c r="AK22" s="130"/>
-      <c r="AL22" s="130"/>
-      <c r="AM22" s="130"/>
-      <c r="AN22" s="130"/>
-      <c r="AO22" s="131"/>
-      <c r="AP22" s="132"/>
-      <c r="AQ22" s="133"/>
-      <c r="AR22" s="134"/>
-      <c r="AS22" s="130"/>
-      <c r="AT22" s="130"/>
-      <c r="AU22" s="131"/>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="133"/>
-      <c r="AX22" s="125"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="130"/>
-    </row>
-    <row r="23" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="129"/>
+      <c r="AM22" s="129"/>
+      <c r="AN22" s="129"/>
+      <c r="AO22" s="129"/>
+      <c r="AP22" s="130"/>
+      <c r="AQ22" s="131"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="133"/>
+      <c r="AT22" s="129"/>
+      <c r="AU22" s="129"/>
+      <c r="AV22" s="130"/>
+      <c r="AW22" s="124"/>
+      <c r="AX22" s="132"/>
+      <c r="AY22" s="124"/>
+      <c r="AZ22" s="124"/>
+      <c r="BA22" s="129"/>
+    </row>
+    <row r="23" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
         <v>100</v>
       </c>
@@ -6015,54 +5961,57 @@
       <c r="X23" t="s">
         <v>80</v>
       </c>
-      <c r="Y23" s="45">
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="45">
         <v>0.95</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
         <v>51</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>82</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>83</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>20</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4.5</v>
       </c>
-      <c r="AG23" s="77" t="s">
+      <c r="AH23" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>85</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>86</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>85</v>
       </c>
-      <c r="AK23" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="86"/>
-      <c r="AT23" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="17"/>
+      <c r="AL23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="86"/>
+      <c r="AU23" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AY23" s="17"/>
-    </row>
-    <row r="24" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ23" s="17"/>
+    </row>
+    <row r="24" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
@@ -6072,104 +6021,108 @@
       <c r="AD24" s="65"/>
       <c r="AE24" s="65"/>
       <c r="AF24" s="65"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="81"/>
       <c r="AI24" s="65"/>
       <c r="AJ24" s="65"/>
-      <c r="AK24" s="66"/>
+      <c r="AK24" s="65"/>
       <c r="AL24" s="66"/>
       <c r="AM24" s="66"/>
       <c r="AN24" s="66"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="81"/>
-      <c r="AS24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="85"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="81"/>
       <c r="AT24" s="66"/>
-      <c r="AU24" s="85"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="67"/>
-      <c r="AX24" s="65"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="85"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="67"/>
       <c r="AY24" s="65"/>
-      <c r="AZ24" s="66"/>
-    </row>
-    <row r="25" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="66"/>
+    </row>
+    <row r="25" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X25" t="s">
         <v>101</v>
       </c>
-      <c r="Y25" s="45">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="45">
         <v>0.3</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>100</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>90</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>91</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>83</v>
       </c>
-      <c r="AK25" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL25" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ25" s="68">
+      <c r="AR25" s="68">
         <v>50</v>
       </c>
-      <c r="AR25" s="93" t="s">
+      <c r="AS25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="AS25" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT25" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU25" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="s">
+      <c r="AU25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="s">
         <v>32</v>
       </c>
-      <c r="AW25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="17" t="s">
+      <c r="AX25" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AY25" s="17" t="s">
+      <c r="AZ25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ25" s="17" t="s">
+      <c r="BA25" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="AP26" s="70" t="s">
+    <row r="26" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="AQ26" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ26" s="68">
+      <c r="AR26" s="68">
         <v>50</v>
       </c>
-      <c r="AR26" s="93" t="s">
+      <c r="AS26" s="93" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X27" s="65"/>
       <c r="Y27" s="65"/>
       <c r="Z27" s="65"/>
@@ -6179,28 +6132,29 @@
       <c r="AD27" s="65"/>
       <c r="AE27" s="65"/>
       <c r="AF27" s="65"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="81"/>
       <c r="AI27" s="65"/>
       <c r="AJ27" s="65"/>
-      <c r="AK27" s="66"/>
+      <c r="AK27" s="65"/>
       <c r="AL27" s="66"/>
       <c r="AM27" s="66"/>
       <c r="AN27" s="66"/>
-      <c r="AO27" s="85"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="81"/>
-      <c r="AS27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="85"/>
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="65"/>
+      <c r="AS27" s="81"/>
       <c r="AT27" s="66"/>
-      <c r="AU27" s="85"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="67"/>
-      <c r="AX27" s="65"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="67"/>
       <c r="AY27" s="65"/>
-      <c r="AZ27" s="66"/>
-    </row>
-    <row r="28" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ27" s="65"/>
+      <c r="BA27" s="66"/>
+    </row>
+    <row r="28" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X28" t="s">
         <v>95</v>
       </c>
@@ -6208,71 +6162,74 @@
         <v>1</v>
       </c>
       <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>3500</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>2</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>96</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>91</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>97</v>
       </c>
-      <c r="AK28" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL28" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM28" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AQ28" s="20">
+      <c r="AR28" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR28" s="92">
+      <c r="AS28" s="92">
         <v>3</v>
       </c>
-      <c r="AS28" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT28" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU28" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="s">
+      <c r="AU28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="s">
         <v>93</v>
       </c>
-      <c r="AW28" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="s">
+      <c r="AX28" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="s">
         <v>94</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>2</v>
       </c>
-      <c r="AZ28" s="17" t="s">
+      <c r="BA28" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="AK29"/>
+    <row r="29" spans="10:53" x14ac:dyDescent="0.3">
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
-      <c r="AO29" s="77"/>
-    </row>
-    <row r="31" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AO29"/>
+      <c r="AP29" s="77"/>
+    </row>
+    <row r="31" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X31" s="65"/>
       <c r="Y31" s="65"/>
       <c r="Z31" s="65"/>
@@ -6282,126 +6239,131 @@
       <c r="AD31" s="65"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="81"/>
       <c r="AI31" s="65"/>
       <c r="AJ31" s="65"/>
-      <c r="AK31" s="66"/>
+      <c r="AK31" s="65"/>
       <c r="AL31" s="66"/>
       <c r="AM31" s="66"/>
       <c r="AN31" s="66"/>
-      <c r="AO31" s="85"/>
-      <c r="AP31" s="124"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="85"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="81"/>
       <c r="AT31" s="66"/>
-      <c r="AU31" s="85"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="65"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="85"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="67"/>
       <c r="AY31" s="65"/>
-      <c r="AZ31" s="66"/>
-    </row>
-    <row r="32" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ31" s="65"/>
+      <c r="BA31" s="66"/>
+    </row>
+    <row r="32" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X32" t="s">
         <v>98</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Z32" s="45">
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="45">
         <v>7000</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>2</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>96</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>91</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>97</v>
       </c>
-      <c r="AK32" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="17" t="b">
-        <v>0</v>
+      <c r="AL32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT32" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU32" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="s">
+      <c r="AU32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="s">
         <v>93</v>
       </c>
-      <c r="AW32" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX32" t="s">
+      <c r="AX32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
         <v>94</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>2</v>
       </c>
-      <c r="AZ32" s="17" t="s">
+      <c r="BA32" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="125"/>
-      <c r="U33" s="125"/>
-      <c r="V33" s="125"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="125"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="125"/>
-      <c r="AB33" s="125"/>
-      <c r="AC33" s="125"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="125"/>
-      <c r="AJ33" s="125"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="130"/>
-      <c r="AM33" s="130"/>
-      <c r="AN33" s="130"/>
-      <c r="AO33" s="131"/>
-      <c r="AP33" s="132"/>
-      <c r="AQ33" s="133"/>
-      <c r="AR33" s="134"/>
-      <c r="AS33" s="130"/>
-      <c r="AT33" s="130"/>
-      <c r="AU33" s="131"/>
-      <c r="AV33" s="125"/>
-      <c r="AW33" s="133"/>
-      <c r="AX33" s="125"/>
-      <c r="AY33" s="125"/>
-      <c r="AZ33" s="130"/>
-    </row>
-    <row r="34" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="124"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="124"/>
+      <c r="AK33" s="124"/>
+      <c r="AL33" s="129"/>
+      <c r="AM33" s="129"/>
+      <c r="AN33" s="129"/>
+      <c r="AO33" s="129"/>
+      <c r="AP33" s="130"/>
+      <c r="AQ33" s="131"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="133"/>
+      <c r="AT33" s="129"/>
+      <c r="AU33" s="129"/>
+      <c r="AV33" s="130"/>
+      <c r="AW33" s="124"/>
+      <c r="AX33" s="132"/>
+      <c r="AY33" s="124"/>
+      <c r="AZ33" s="124"/>
+      <c r="BA33" s="129"/>
+    </row>
+    <row r="34" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
         <v>102</v>
       </c>
@@ -6430,7 +6392,7 @@
       <c r="S34" s="101">
         <v>0</v>
       </c>
-      <c r="T34" s="135"/>
+      <c r="T34" s="134"/>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="78"/>
@@ -6441,39 +6403,42 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
         <v>51</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>81</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>82</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>83</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>20</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>4.5</v>
       </c>
-      <c r="AG34" s="77" t="s">
+      <c r="AH34" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AK34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS34" s="104"/>
-      <c r="AT34" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="105"/>
-    </row>
-    <row r="35" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AL34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="104"/>
+      <c r="AU34" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="105"/>
+    </row>
+    <row r="35" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X35" s="65"/>
       <c r="Y35" s="65"/>
       <c r="Z35" s="65"/>
@@ -6483,76 +6448,80 @@
       <c r="AD35" s="65"/>
       <c r="AE35" s="65"/>
       <c r="AF35" s="65"/>
-      <c r="AG35" s="81"/>
-      <c r="AH35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="81"/>
       <c r="AI35" s="65"/>
       <c r="AJ35" s="65"/>
-      <c r="AK35" s="66"/>
+      <c r="AK35" s="65"/>
       <c r="AL35" s="66"/>
       <c r="AM35" s="66"/>
       <c r="AN35" s="66"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="124"/>
-      <c r="AQ35" s="136"/>
-      <c r="AR35" s="137"/>
-      <c r="AS35" s="102"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="85"/>
+      <c r="AQ35" s="123"/>
+      <c r="AR35" s="135"/>
+      <c r="AS35" s="136"/>
       <c r="AT35" s="102"/>
-      <c r="AU35" s="103"/>
-      <c r="AV35" s="136"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="65"/>
+      <c r="AU35" s="102"/>
+      <c r="AV35" s="103"/>
+      <c r="AW35" s="135"/>
+      <c r="AX35" s="67"/>
       <c r="AY35" s="65"/>
-      <c r="AZ35" s="66"/>
-    </row>
-    <row r="36" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ35" s="65"/>
+      <c r="BA35" s="66"/>
+    </row>
+    <row r="36" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X36" t="s">
         <v>104</v>
       </c>
       <c r="Y36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
         <v>51</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>81</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>82</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
       <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>85</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>86</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>85</v>
       </c>
-      <c r="AK36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS36" s="104"/>
-      <c r="AT36" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU36" s="105"/>
-      <c r="AX36" s="17"/>
+      <c r="AL36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="105"/>
       <c r="AY36" s="17"/>
-    </row>
-    <row r="37" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ36" s="17"/>
+    </row>
+    <row r="37" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X37" s="65"/>
       <c r="Y37" s="65"/>
       <c r="Z37" s="65"/>
@@ -6562,126 +6531,131 @@
       <c r="AD37" s="65"/>
       <c r="AE37" s="65"/>
       <c r="AF37" s="65"/>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="81"/>
       <c r="AI37" s="65"/>
       <c r="AJ37" s="65"/>
-      <c r="AK37" s="66"/>
+      <c r="AK37" s="65"/>
       <c r="AL37" s="66"/>
       <c r="AM37" s="66"/>
       <c r="AN37" s="66"/>
-      <c r="AO37" s="85"/>
-      <c r="AP37" s="124"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="81"/>
-      <c r="AS37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="85"/>
+      <c r="AQ37" s="123"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="81"/>
       <c r="AT37" s="66"/>
-      <c r="AU37" s="85"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="65"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="85"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="67"/>
       <c r="AY37" s="65"/>
-      <c r="AZ37" s="66"/>
-    </row>
-    <row r="38" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="66"/>
+    </row>
+    <row r="38" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X38" t="s">
         <v>98</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
-      <c r="Z38" s="45">
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="45">
         <v>7000</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>2</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>96</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>97</v>
       </c>
-      <c r="AK38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS38" s="17" t="b">
-        <v>0</v>
+      <c r="AL38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT38" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU38" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="s">
+      <c r="AU38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="s">
         <v>93</v>
       </c>
-      <c r="AW38" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX38" t="s">
+      <c r="AX38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
         <v>94</v>
       </c>
-      <c r="AY38" t="s">
+      <c r="AZ38" t="s">
         <v>2</v>
       </c>
-      <c r="AZ38" s="17" t="s">
+      <c r="BA38" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="126"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="125"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
-      <c r="W39" s="129"/>
-      <c r="X39" s="125"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="125"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="125"/>
-      <c r="AD39" s="125"/>
-      <c r="AE39" s="125"/>
-      <c r="AF39" s="125"/>
-      <c r="AG39" s="129"/>
-      <c r="AH39" s="125"/>
-      <c r="AI39" s="125"/>
-      <c r="AJ39" s="125"/>
-      <c r="AK39" s="130"/>
-      <c r="AL39" s="130"/>
-      <c r="AM39" s="130"/>
-      <c r="AN39" s="130"/>
-      <c r="AO39" s="131"/>
-      <c r="AP39" s="132"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="134"/>
-      <c r="AS39" s="130"/>
-      <c r="AT39" s="130"/>
-      <c r="AU39" s="131"/>
-      <c r="AV39" s="125"/>
-      <c r="AW39" s="133"/>
-      <c r="AX39" s="125"/>
-      <c r="AY39" s="125"/>
-      <c r="AZ39" s="130"/>
-    </row>
-    <row r="40" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="124"/>
+      <c r="U39" s="124"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="124"/>
+      <c r="AA39" s="124"/>
+      <c r="AB39" s="124"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="124"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="124"/>
+      <c r="AG39" s="124"/>
+      <c r="AH39" s="128"/>
+      <c r="AI39" s="124"/>
+      <c r="AJ39" s="124"/>
+      <c r="AK39" s="124"/>
+      <c r="AL39" s="129"/>
+      <c r="AM39" s="129"/>
+      <c r="AN39" s="129"/>
+      <c r="AO39" s="129"/>
+      <c r="AP39" s="130"/>
+      <c r="AQ39" s="131"/>
+      <c r="AR39" s="132"/>
+      <c r="AS39" s="133"/>
+      <c r="AT39" s="129"/>
+      <c r="AU39" s="129"/>
+      <c r="AV39" s="130"/>
+      <c r="AW39" s="124"/>
+      <c r="AX39" s="132"/>
+      <c r="AY39" s="124"/>
+      <c r="AZ39" s="124"/>
+      <c r="BA39" s="129"/>
+    </row>
+    <row r="40" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J40" t="s">
         <v>106</v>
       </c>
@@ -6717,37 +6691,40 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
         <v>51</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>81</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>82</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>83</v>
       </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
       <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AK40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AL40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X41" s="65"/>
       <c r="Y41" s="65"/>
       <c r="Z41" s="65"/>
@@ -6757,126 +6734,131 @@
       <c r="AD41" s="65"/>
       <c r="AE41" s="65"/>
       <c r="AF41" s="65"/>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="81"/>
       <c r="AI41" s="65"/>
       <c r="AJ41" s="65"/>
-      <c r="AK41" s="66"/>
+      <c r="AK41" s="65"/>
       <c r="AL41" s="66"/>
       <c r="AM41" s="66"/>
       <c r="AN41" s="66"/>
-      <c r="AO41" s="85"/>
-      <c r="AP41" s="124"/>
-      <c r="AQ41" s="65"/>
-      <c r="AR41" s="81"/>
-      <c r="AS41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="85"/>
+      <c r="AQ41" s="123"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="81"/>
       <c r="AT41" s="66"/>
-      <c r="AU41" s="85"/>
-      <c r="AV41" s="65"/>
-      <c r="AW41" s="67"/>
-      <c r="AX41" s="65"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="85"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="67"/>
       <c r="AY41" s="65"/>
-      <c r="AZ41" s="66"/>
-    </row>
-    <row r="42" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="66"/>
+    </row>
+    <row r="42" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X42" t="s">
         <v>98</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
-      <c r="Z42" s="45">
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="45">
         <v>7000</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>2</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>96</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>91</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>97</v>
       </c>
-      <c r="AK42" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS42" s="17" t="b">
-        <v>0</v>
+      <c r="AL42" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT42" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU42" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="s">
+      <c r="AU42" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="s">
         <v>93</v>
       </c>
-      <c r="AW42" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX42" t="s">
+      <c r="AX42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY42" t="s">
         <v>94</v>
       </c>
-      <c r="AY42" t="s">
+      <c r="AZ42" t="s">
         <v>2</v>
       </c>
-      <c r="AZ42" s="17" t="s">
+      <c r="BA42" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="125"/>
-      <c r="Y43" s="125"/>
-      <c r="Z43" s="125"/>
-      <c r="AA43" s="125"/>
-      <c r="AB43" s="125"/>
-      <c r="AC43" s="125"/>
-      <c r="AD43" s="125"/>
-      <c r="AE43" s="125"/>
-      <c r="AF43" s="125"/>
-      <c r="AG43" s="129"/>
-      <c r="AH43" s="125"/>
-      <c r="AI43" s="125"/>
-      <c r="AJ43" s="125"/>
-      <c r="AK43" s="130"/>
-      <c r="AL43" s="130"/>
-      <c r="AM43" s="130"/>
-      <c r="AN43" s="130"/>
-      <c r="AO43" s="131"/>
-      <c r="AP43" s="132"/>
-      <c r="AQ43" s="133"/>
-      <c r="AR43" s="134"/>
-      <c r="AS43" s="130"/>
-      <c r="AT43" s="130"/>
-      <c r="AU43" s="131"/>
-      <c r="AV43" s="125"/>
-      <c r="AW43" s="133"/>
-      <c r="AX43" s="125"/>
-      <c r="AY43" s="125"/>
-      <c r="AZ43" s="130"/>
-    </row>
-    <row r="44" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="124"/>
+      <c r="R43" s="124"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="124"/>
+      <c r="U43" s="124"/>
+      <c r="V43" s="124"/>
+      <c r="W43" s="128"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124"/>
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="124"/>
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124"/>
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124"/>
+      <c r="AH43" s="128"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="124"/>
+      <c r="AK43" s="124"/>
+      <c r="AL43" s="129"/>
+      <c r="AM43" s="129"/>
+      <c r="AN43" s="129"/>
+      <c r="AO43" s="129"/>
+      <c r="AP43" s="130"/>
+      <c r="AQ43" s="131"/>
+      <c r="AR43" s="132"/>
+      <c r="AS43" s="133"/>
+      <c r="AT43" s="129"/>
+      <c r="AU43" s="129"/>
+      <c r="AV43" s="130"/>
+      <c r="AW43" s="124"/>
+      <c r="AX43" s="132"/>
+      <c r="AY43" s="124"/>
+      <c r="AZ43" s="124"/>
+      <c r="BA43" s="129"/>
+    </row>
+    <row r="44" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
         <v>107</v>
       </c>
@@ -6912,37 +6894,40 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
         <v>51</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>81</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>82</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>83</v>
       </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
       <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AK44" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AL44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X45" s="65"/>
       <c r="Y45" s="65"/>
       <c r="Z45" s="65"/>
@@ -6952,126 +6937,131 @@
       <c r="AD45" s="65"/>
       <c r="AE45" s="65"/>
       <c r="AF45" s="65"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="81"/>
       <c r="AI45" s="65"/>
       <c r="AJ45" s="65"/>
-      <c r="AK45" s="66"/>
+      <c r="AK45" s="65"/>
       <c r="AL45" s="66"/>
       <c r="AM45" s="66"/>
       <c r="AN45" s="66"/>
-      <c r="AO45" s="85"/>
-      <c r="AP45" s="124"/>
-      <c r="AQ45" s="65"/>
-      <c r="AR45" s="81"/>
-      <c r="AS45" s="66"/>
+      <c r="AO45" s="66"/>
+      <c r="AP45" s="85"/>
+      <c r="AQ45" s="123"/>
+      <c r="AR45" s="65"/>
+      <c r="AS45" s="81"/>
       <c r="AT45" s="66"/>
-      <c r="AU45" s="85"/>
-      <c r="AV45" s="65"/>
-      <c r="AW45" s="67"/>
-      <c r="AX45" s="65"/>
+      <c r="AU45" s="66"/>
+      <c r="AV45" s="85"/>
+      <c r="AW45" s="65"/>
+      <c r="AX45" s="67"/>
       <c r="AY45" s="65"/>
-      <c r="AZ45" s="66"/>
-    </row>
-    <row r="46" spans="10:52" x14ac:dyDescent="0.3">
+      <c r="AZ45" s="65"/>
+      <c r="BA45" s="66"/>
+    </row>
+    <row r="46" spans="10:53" x14ac:dyDescent="0.3">
       <c r="X46" t="s">
         <v>98</v>
       </c>
       <c r="Y46">
         <v>1</v>
       </c>
-      <c r="Z46" s="45">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="45">
         <v>7000</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>2</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>96</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>91</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>97</v>
       </c>
-      <c r="AK46" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="17" t="b">
-        <v>0</v>
+      <c r="AL46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT46" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU46" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="s">
+      <c r="AU46" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="s">
         <v>93</v>
       </c>
-      <c r="AW46" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX46" t="s">
+      <c r="AX46" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY46" t="s">
         <v>94</v>
       </c>
-      <c r="AY46" t="s">
+      <c r="AZ46" t="s">
         <v>2</v>
       </c>
-      <c r="AZ46" s="17" t="s">
+      <c r="BA46" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="10:52" x14ac:dyDescent="0.3">
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="126"/>
-      <c r="P47" s="127"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="125"/>
-      <c r="S47" s="128"/>
-      <c r="T47" s="125"/>
-      <c r="U47" s="125"/>
-      <c r="V47" s="125"/>
-      <c r="W47" s="129"/>
-      <c r="X47" s="125"/>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="125"/>
-      <c r="AA47" s="125"/>
-      <c r="AB47" s="125"/>
-      <c r="AC47" s="125"/>
-      <c r="AD47" s="125"/>
-      <c r="AE47" s="125"/>
-      <c r="AF47" s="125"/>
-      <c r="AG47" s="129"/>
-      <c r="AH47" s="125"/>
-      <c r="AI47" s="125"/>
-      <c r="AJ47" s="125"/>
-      <c r="AK47" s="130"/>
-      <c r="AL47" s="130"/>
-      <c r="AM47" s="130"/>
-      <c r="AN47" s="130"/>
-      <c r="AO47" s="131"/>
-      <c r="AP47" s="132"/>
-      <c r="AQ47" s="133"/>
-      <c r="AR47" s="134"/>
-      <c r="AS47" s="130"/>
-      <c r="AT47" s="130"/>
-      <c r="AU47" s="131"/>
-      <c r="AV47" s="125"/>
-      <c r="AW47" s="133"/>
-      <c r="AX47" s="125"/>
-      <c r="AY47" s="125"/>
-      <c r="AZ47" s="130"/>
-    </row>
-    <row r="48" spans="10:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:53" x14ac:dyDescent="0.3">
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="124"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="124"/>
+      <c r="U47" s="124"/>
+      <c r="V47" s="124"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="124"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="124"/>
+      <c r="AC47" s="124"/>
+      <c r="AD47" s="124"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="124"/>
+      <c r="AG47" s="124"/>
+      <c r="AH47" s="128"/>
+      <c r="AI47" s="124"/>
+      <c r="AJ47" s="124"/>
+      <c r="AK47" s="124"/>
+      <c r="AL47" s="129"/>
+      <c r="AM47" s="129"/>
+      <c r="AN47" s="129"/>
+      <c r="AO47" s="129"/>
+      <c r="AP47" s="130"/>
+      <c r="AQ47" s="131"/>
+      <c r="AR47" s="132"/>
+      <c r="AS47" s="133"/>
+      <c r="AT47" s="129"/>
+      <c r="AU47" s="129"/>
+      <c r="AV47" s="130"/>
+      <c r="AW47" s="124"/>
+      <c r="AX47" s="132"/>
+      <c r="AY47" s="124"/>
+      <c r="AZ47" s="124"/>
+      <c r="BA47" s="129"/>
+    </row>
+    <row r="48" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
         <v>108</v>
       </c>
@@ -7113,43 +7103,46 @@
         <v>1</v>
       </c>
       <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>50</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>51</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AC48" t="s">
         <v>81</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AD48" t="s">
         <v>82</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>20</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>4.5</v>
       </c>
-      <c r="AG48" s="77" t="s">
+      <c r="AH48" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AK48" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP48" s="71" t="s">
+      <c r="AL48" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ48" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="92">
+      <c r="AR48" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="92">
         <v>50</v>
       </c>
-      <c r="AT48" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU48" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
       <c r="T49" t="s">
         <v>38</v>
       </c>
@@ -7165,28 +7158,29 @@
       <c r="AD49" s="65"/>
       <c r="AE49" s="65"/>
       <c r="AF49" s="65"/>
-      <c r="AG49" s="81"/>
-      <c r="AH49" s="65"/>
+      <c r="AG49" s="65"/>
+      <c r="AH49" s="81"/>
       <c r="AI49" s="65"/>
       <c r="AJ49" s="65"/>
-      <c r="AK49" s="66"/>
+      <c r="AK49" s="65"/>
       <c r="AL49" s="66"/>
       <c r="AM49" s="66"/>
       <c r="AN49" s="66"/>
-      <c r="AO49" s="85"/>
-      <c r="AP49" s="124"/>
-      <c r="AQ49" s="65"/>
-      <c r="AR49" s="81"/>
-      <c r="AS49" s="66"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="85"/>
+      <c r="AQ49" s="123"/>
+      <c r="AR49" s="65"/>
+      <c r="AS49" s="81"/>
       <c r="AT49" s="66"/>
-      <c r="AU49" s="85"/>
-      <c r="AV49" s="65"/>
-      <c r="AW49" s="67"/>
-      <c r="AX49" s="65"/>
+      <c r="AU49" s="66"/>
+      <c r="AV49" s="85"/>
+      <c r="AW49" s="65"/>
+      <c r="AX49" s="67"/>
       <c r="AY49" s="65"/>
-      <c r="AZ49" s="66"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ49" s="65"/>
+      <c r="BA49" s="66"/>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D50" s="107"/>
       <c r="E50" s="78"/>
       <c r="X50" t="s">
@@ -7196,91 +7190,94 @@
         <v>1</v>
       </c>
       <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
         <v>3500</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>2</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>96</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>91</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>97</v>
       </c>
-      <c r="AK50" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL50" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM50" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ50" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="92">
+      <c r="AR50" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="92">
         <v>50</v>
       </c>
-      <c r="AS50" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT50" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU50" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="s">
+      <c r="AU50" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="s">
         <v>93</v>
       </c>
-      <c r="AW50" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX50" t="s">
+      <c r="AX50" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY50" t="s">
         <v>94</v>
       </c>
-      <c r="AY50" t="s">
+      <c r="AZ50" t="s">
         <v>2</v>
       </c>
-      <c r="AZ50" s="17" t="s">
+      <c r="BA50" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AK51"/>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AL51"/>
       <c r="AM51"/>
       <c r="AN51"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="71" t="s">
+      <c r="AO51"/>
+      <c r="AP51" s="77"/>
+      <c r="AQ51" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ51" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="92">
+      <c r="AR51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="92">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AP52" s="71" t="s">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ52" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AQ52" s="20">
+      <c r="AR52" s="20">
         <v>0.5</v>
       </c>
-      <c r="AR52" s="92">
+      <c r="AS52" s="92">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X53" s="65"/>
       <c r="Y53" s="65"/>
       <c r="Z53" s="65"/>
@@ -7290,81 +7287,82 @@
       <c r="AD53" s="65"/>
       <c r="AE53" s="65"/>
       <c r="AF53" s="65"/>
-      <c r="AG53" s="81"/>
-      <c r="AH53" s="65"/>
+      <c r="AG53" s="65"/>
+      <c r="AH53" s="81"/>
       <c r="AI53" s="65"/>
       <c r="AJ53" s="65"/>
-      <c r="AK53" s="66"/>
+      <c r="AK53" s="65"/>
       <c r="AL53" s="66"/>
       <c r="AM53" s="66"/>
       <c r="AN53" s="66"/>
-      <c r="AO53" s="85"/>
-      <c r="AP53" s="124"/>
-      <c r="AQ53" s="65"/>
-      <c r="AR53" s="81"/>
-      <c r="AS53" s="66"/>
+      <c r="AO53" s="66"/>
+      <c r="AP53" s="85"/>
+      <c r="AQ53" s="123"/>
+      <c r="AR53" s="65"/>
+      <c r="AS53" s="81"/>
       <c r="AT53" s="66"/>
-      <c r="AU53" s="85"/>
-      <c r="AV53" s="65"/>
-      <c r="AW53" s="67"/>
-      <c r="AX53" s="65"/>
+      <c r="AU53" s="66"/>
+      <c r="AV53" s="85"/>
+      <c r="AW53" s="65"/>
+      <c r="AX53" s="67"/>
       <c r="AY53" s="65"/>
-      <c r="AZ53" s="66"/>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ53" s="65"/>
+      <c r="BA53" s="66"/>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X54" t="s">
         <v>98</v>
       </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="45">
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="45">
         <v>7000</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>2</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>96</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>91</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>97</v>
       </c>
-      <c r="AK54" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS54" s="17" t="b">
-        <v>0</v>
+      <c r="AL54" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN54" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT54" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU54" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="s">
+      <c r="AU54" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="s">
         <v>93</v>
       </c>
-      <c r="AW54" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX54" t="s">
+      <c r="AX54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY54" t="s">
         <v>94</v>
       </c>
-      <c r="AY54" t="s">
+      <c r="AZ54" t="s">
         <v>2</v>
       </c>
-      <c r="AZ54" s="17" t="s">
+      <c r="BA54" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -7397,28 +7395,29 @@
       <c r="AD55" s="59"/>
       <c r="AE55" s="59"/>
       <c r="AF55" s="59"/>
-      <c r="AG55" s="76"/>
-      <c r="AH55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="76"/>
       <c r="AI55" s="59"/>
       <c r="AJ55" s="59"/>
-      <c r="AK55" s="61"/>
+      <c r="AK55" s="59"/>
       <c r="AL55" s="61"/>
       <c r="AM55" s="61"/>
-      <c r="AN55" s="60"/>
-      <c r="AO55" s="84"/>
-      <c r="AP55" s="69"/>
-      <c r="AQ55" s="62"/>
-      <c r="AR55" s="88"/>
-      <c r="AS55" s="61"/>
+      <c r="AN55" s="61"/>
+      <c r="AO55" s="60"/>
+      <c r="AP55" s="84"/>
+      <c r="AQ55" s="69"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="88"/>
       <c r="AT55" s="61"/>
-      <c r="AU55" s="95"/>
-      <c r="AV55" s="59"/>
-      <c r="AW55" s="62"/>
-      <c r="AX55" s="59"/>
+      <c r="AU55" s="61"/>
+      <c r="AV55" s="95"/>
+      <c r="AW55" s="59"/>
+      <c r="AX55" s="62"/>
       <c r="AY55" s="59"/>
-      <c r="AZ55" s="61"/>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ55" s="59"/>
+      <c r="BA55" s="61"/>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B56" s="121" t="s">
         <v>339</v>
       </c>
@@ -7435,11 +7434,8 @@
       <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="122">
-        <v>0</v>
-      </c>
-      <c r="I56" s="122">
-        <v>1</v>
+      <c r="H56" t="b">
+        <v>0</v>
       </c>
       <c r="J56" s="42" t="s">
         <v>111</v>
@@ -7472,60 +7468,57 @@
       <c r="T56" t="s">
         <v>112</v>
       </c>
-      <c r="U56" s="122" t="s">
-        <v>79</v>
-      </c>
       <c r="X56" t="s">
         <v>80</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>0.8</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="s">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
         <v>51</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AC56" t="s">
         <v>81</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AD56" t="s">
         <v>82</v>
       </c>
-      <c r="AD56" s="41" t="s">
+      <c r="AE56" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>20</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>4.5</v>
       </c>
-      <c r="AG56" s="77" t="s">
+      <c r="AH56" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH56" t="s">
+      <c r="AI56" t="s">
         <v>85</v>
       </c>
-      <c r="AI56" t="s">
+      <c r="AJ56" t="s">
         <v>86</v>
       </c>
-      <c r="AJ56" t="s">
+      <c r="AK56" t="s">
         <v>85</v>
       </c>
-      <c r="AK56" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ56" s="17"/>
-      <c r="AR56" s="86"/>
-      <c r="AT56" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX56" s="17"/>
+      <c r="AL56" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="17"/>
+      <c r="AS56" s="86"/>
+      <c r="AU56" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AY56" s="17"/>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ56" s="17"/>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C57" s="41"/>
       <c r="D57" s="107"/>
       <c r="E57" s="78"/>
@@ -7538,122 +7531,126 @@
       <c r="AD57" s="65"/>
       <c r="AE57" s="65"/>
       <c r="AF57" s="65"/>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="65"/>
+      <c r="AG57" s="65"/>
+      <c r="AH57" s="81"/>
       <c r="AI57" s="65"/>
       <c r="AJ57" s="65"/>
-      <c r="AK57" s="66"/>
+      <c r="AK57" s="65"/>
       <c r="AL57" s="66"/>
       <c r="AM57" s="66"/>
       <c r="AN57" s="66"/>
-      <c r="AO57" s="85"/>
-      <c r="AP57" s="124"/>
-      <c r="AQ57" s="65"/>
-      <c r="AR57" s="81"/>
-      <c r="AS57" s="66"/>
+      <c r="AO57" s="66"/>
+      <c r="AP57" s="85"/>
+      <c r="AQ57" s="123"/>
+      <c r="AR57" s="65"/>
+      <c r="AS57" s="81"/>
       <c r="AT57" s="66"/>
-      <c r="AU57" s="85"/>
-      <c r="AV57" s="65"/>
-      <c r="AW57" s="67"/>
-      <c r="AX57" s="65"/>
+      <c r="AU57" s="66"/>
+      <c r="AV57" s="85"/>
+      <c r="AW57" s="65"/>
+      <c r="AX57" s="67"/>
       <c r="AY57" s="65"/>
-      <c r="AZ57" s="66"/>
-    </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ57" s="65"/>
+      <c r="BA57" s="66"/>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X58" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
+      <c r="Y58" s="45"/>
       <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>100</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>2</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AC58" t="s">
         <v>96</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AD58" t="s">
         <v>91</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>97</v>
       </c>
-      <c r="AK58" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL58" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM58" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP58" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="92">
+      <c r="AR58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="92">
         <v>50</v>
       </c>
-      <c r="AS58" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT58" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU58" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="s">
+      <c r="AU58" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="s">
         <v>93</v>
       </c>
-      <c r="AW58" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX58" t="s">
+      <c r="AX58" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY58" t="s">
         <v>94</v>
       </c>
-      <c r="AY58" t="s">
+      <c r="AZ58" t="s">
         <v>2</v>
       </c>
-      <c r="AZ58" s="17" t="s">
+      <c r="BA58" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X59" s="45"/>
-      <c r="AK59"/>
+      <c r="Y59" s="45"/>
       <c r="AL59"/>
       <c r="AM59"/>
       <c r="AN59"/>
-      <c r="AO59" s="77"/>
-      <c r="AP59" s="71" t="s">
+      <c r="AO59"/>
+      <c r="AP59" s="77"/>
+      <c r="AQ59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ59" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="92">
+      <c r="AR59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="92">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X60" s="45"/>
-      <c r="AP60" s="71" t="s">
+      <c r="Y60" s="45"/>
+      <c r="AQ60" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AQ60" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="92">
+      <c r="AR60" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="92">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X61" s="65"/>
       <c r="Y61" s="65"/>
       <c r="Z61" s="65"/>
@@ -7663,78 +7660,79 @@
       <c r="AD61" s="65"/>
       <c r="AE61" s="65"/>
       <c r="AF61" s="65"/>
-      <c r="AG61" s="81"/>
-      <c r="AH61" s="65"/>
+      <c r="AG61" s="65"/>
+      <c r="AH61" s="81"/>
       <c r="AI61" s="65"/>
       <c r="AJ61" s="65"/>
-      <c r="AK61" s="66"/>
+      <c r="AK61" s="65"/>
       <c r="AL61" s="66"/>
       <c r="AM61" s="66"/>
       <c r="AN61" s="66"/>
-      <c r="AO61" s="85"/>
-      <c r="AP61" s="124"/>
-      <c r="AQ61" s="65"/>
-      <c r="AR61" s="81"/>
-      <c r="AS61" s="66"/>
+      <c r="AO61" s="66"/>
+      <c r="AP61" s="85"/>
+      <c r="AQ61" s="123"/>
+      <c r="AR61" s="65"/>
+      <c r="AS61" s="81"/>
       <c r="AT61" s="66"/>
-      <c r="AU61" s="85"/>
-      <c r="AV61" s="65"/>
-      <c r="AW61" s="67"/>
-      <c r="AX61" s="65"/>
+      <c r="AU61" s="66"/>
+      <c r="AV61" s="85"/>
+      <c r="AW61" s="65"/>
+      <c r="AX61" s="67"/>
       <c r="AY61" s="65"/>
-      <c r="AZ61" s="66"/>
-    </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ61" s="65"/>
+      <c r="BA61" s="66"/>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X62" t="s">
         <v>114</v>
       </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
       <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
         <v>200</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>69</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AC62" t="s">
         <v>96</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
         <v>91</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>97</v>
       </c>
-      <c r="AM62" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS62" s="17" t="b">
-        <v>0</v>
+      <c r="AN62" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT62" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU62" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV62" t="s">
+      <c r="AU62" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="s">
         <v>93</v>
       </c>
-      <c r="AW62" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX62" t="s">
+      <c r="AX62" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY62" t="s">
         <v>94</v>
       </c>
-      <c r="AY62" t="s">
+      <c r="AZ62" t="s">
         <v>2</v>
       </c>
-      <c r="AZ62" s="17" t="s">
+      <c r="BA62" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -7767,28 +7765,29 @@
       <c r="AD63" s="59"/>
       <c r="AE63" s="59"/>
       <c r="AF63" s="59"/>
-      <c r="AG63" s="76"/>
-      <c r="AH63" s="59"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="76"/>
       <c r="AI63" s="59"/>
       <c r="AJ63" s="59"/>
-      <c r="AK63" s="61"/>
+      <c r="AK63" s="59"/>
       <c r="AL63" s="61"/>
       <c r="AM63" s="61"/>
-      <c r="AN63" s="60"/>
-      <c r="AO63" s="84"/>
-      <c r="AP63" s="69"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="88"/>
-      <c r="AS63" s="61"/>
+      <c r="AN63" s="61"/>
+      <c r="AO63" s="60"/>
+      <c r="AP63" s="84"/>
+      <c r="AQ63" s="69"/>
+      <c r="AR63" s="62"/>
+      <c r="AS63" s="88"/>
       <c r="AT63" s="61"/>
-      <c r="AU63" s="95"/>
-      <c r="AV63" s="59"/>
-      <c r="AW63" s="62"/>
-      <c r="AX63" s="59"/>
+      <c r="AU63" s="61"/>
+      <c r="AV63" s="95"/>
+      <c r="AW63" s="59"/>
+      <c r="AX63" s="62"/>
       <c r="AY63" s="59"/>
-      <c r="AZ63" s="61"/>
-    </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ63" s="59"/>
+      <c r="BA63" s="61"/>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B64" s="121" t="s">
         <v>338</v>
       </c>
@@ -7805,11 +7804,8 @@
       <c r="G64" t="s">
         <v>103</v>
       </c>
-      <c r="H64" s="122">
-        <v>0</v>
-      </c>
-      <c r="I64" s="122">
-        <v>1</v>
+      <c r="H64" t="b">
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>111</v>
@@ -7842,68 +7838,62 @@
       <c r="T64" t="s">
         <v>38</v>
       </c>
-      <c r="U64" s="122" t="s">
-        <v>79</v>
-      </c>
       <c r="X64" t="s">
         <v>80</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>0.8</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="s">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="s">
         <v>51</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AC64" t="s">
         <v>81</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AD64" t="s">
         <v>82</v>
       </c>
-      <c r="AD64" s="41" t="s">
+      <c r="AE64" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>20</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>4.5</v>
       </c>
-      <c r="AG64" s="77" t="s">
+      <c r="AH64" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AH64" t="s">
+      <c r="AI64" t="s">
         <v>85</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AJ64" t="s">
         <v>86</v>
       </c>
-      <c r="AJ64" t="s">
+      <c r="AK64" t="s">
         <v>85</v>
       </c>
-      <c r="AK64" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ64" s="17"/>
-      <c r="AR64" s="86"/>
-      <c r="AT64" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX64" s="17"/>
+      <c r="AL64" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR64" s="17"/>
+      <c r="AS64" s="86"/>
+      <c r="AU64" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AY64" s="17"/>
-    </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ64" s="17"/>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C65" s="41"/>
       <c r="D65" s="107"/>
       <c r="E65" s="78"/>
       <c r="T65" t="s">
         <v>32</v>
-      </c>
-      <c r="U65" s="122" t="s">
-        <v>79</v>
       </c>
       <c r="X65" s="65"/>
       <c r="Y65" s="65"/>
@@ -7914,122 +7904,126 @@
       <c r="AD65" s="65"/>
       <c r="AE65" s="65"/>
       <c r="AF65" s="65"/>
-      <c r="AG65" s="81"/>
-      <c r="AH65" s="65"/>
+      <c r="AG65" s="65"/>
+      <c r="AH65" s="81"/>
       <c r="AI65" s="65"/>
       <c r="AJ65" s="65"/>
-      <c r="AK65" s="66"/>
+      <c r="AK65" s="65"/>
       <c r="AL65" s="66"/>
       <c r="AM65" s="66"/>
       <c r="AN65" s="66"/>
-      <c r="AO65" s="85"/>
-      <c r="AP65" s="124"/>
-      <c r="AQ65" s="65"/>
-      <c r="AR65" s="81"/>
-      <c r="AS65" s="66"/>
+      <c r="AO65" s="66"/>
+      <c r="AP65" s="85"/>
+      <c r="AQ65" s="123"/>
+      <c r="AR65" s="65"/>
+      <c r="AS65" s="81"/>
       <c r="AT65" s="66"/>
-      <c r="AU65" s="85"/>
-      <c r="AV65" s="65"/>
-      <c r="AW65" s="67"/>
-      <c r="AX65" s="65"/>
+      <c r="AU65" s="66"/>
+      <c r="AV65" s="85"/>
+      <c r="AW65" s="65"/>
+      <c r="AX65" s="67"/>
       <c r="AY65" s="65"/>
-      <c r="AZ65" s="66"/>
-    </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ65" s="65"/>
+      <c r="BA65" s="66"/>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X66" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
+      <c r="Y66" s="45"/>
       <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
         <v>100</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>2</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" t="s">
         <v>96</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AD66" t="s">
         <v>91</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>97</v>
       </c>
-      <c r="AK66" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AL66" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM66" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN66" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AQ66" s="68">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="91">
+      <c r="AR66" s="68">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="91">
         <v>50</v>
       </c>
-      <c r="AS66" s="17" t="b">
-        <v>0</v>
-      </c>
       <c r="AT66" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU66" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="s">
+      <c r="AU66" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW66" t="s">
         <v>93</v>
       </c>
-      <c r="AW66" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX66" t="s">
+      <c r="AX66" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY66" t="s">
         <v>94</v>
       </c>
-      <c r="AY66" t="s">
+      <c r="AZ66" t="s">
         <v>2</v>
       </c>
-      <c r="AZ66" s="17" t="s">
+      <c r="BA66" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X67" s="45"/>
-      <c r="AK67"/>
+      <c r="Y67" s="45"/>
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67"/>
-      <c r="AO67" s="77"/>
-      <c r="AP67" s="70" t="s">
+      <c r="AO67"/>
+      <c r="AP67" s="77"/>
+      <c r="AQ67" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AQ67" s="68">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="91">
+      <c r="AR67" s="68">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="91">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X68" s="45"/>
-      <c r="AP68" s="70" t="s">
+      <c r="Y68" s="45"/>
+      <c r="AQ68" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AQ68" s="68">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="91">
+      <c r="AR68" s="68">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="91">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X69" s="65"/>
       <c r="Y69" s="65"/>
       <c r="Z69" s="65"/>
@@ -8039,132 +8033,135 @@
       <c r="AD69" s="65"/>
       <c r="AE69" s="65"/>
       <c r="AF69" s="65"/>
-      <c r="AG69" s="81"/>
-      <c r="AH69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="81"/>
       <c r="AI69" s="65"/>
       <c r="AJ69" s="65"/>
-      <c r="AK69" s="66"/>
+      <c r="AK69" s="65"/>
       <c r="AL69" s="66"/>
       <c r="AM69" s="66"/>
       <c r="AN69" s="66"/>
-      <c r="AO69" s="85"/>
-      <c r="AP69" s="124"/>
-      <c r="AQ69" s="65"/>
-      <c r="AR69" s="81"/>
-      <c r="AS69" s="66"/>
+      <c r="AO69" s="66"/>
+      <c r="AP69" s="85"/>
+      <c r="AQ69" s="123"/>
+      <c r="AR69" s="65"/>
+      <c r="AS69" s="81"/>
       <c r="AT69" s="66"/>
-      <c r="AU69" s="85"/>
-      <c r="AV69" s="65"/>
-      <c r="AW69" s="67"/>
-      <c r="AX69" s="65"/>
+      <c r="AU69" s="66"/>
+      <c r="AV69" s="85"/>
+      <c r="AW69" s="65"/>
+      <c r="AX69" s="67"/>
       <c r="AY69" s="65"/>
-      <c r="AZ69" s="66"/>
-    </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AZ69" s="65"/>
+      <c r="BA69" s="66"/>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X70" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
+      <c r="Y70" s="45"/>
       <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
         <v>200</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>69</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AC70" t="s">
         <v>96</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AD70" t="s">
         <v>91</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AE70" t="s">
         <v>97</v>
       </c>
-      <c r="AM70" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS70" s="17" t="b">
-        <v>0</v>
+      <c r="AN70" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AT70" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AU70" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV70" t="s">
+      <c r="AU70" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW70" t="s">
         <v>93</v>
       </c>
-      <c r="AW70" s="20">
-        <v>1</v>
-      </c>
-      <c r="AX70" t="s">
+      <c r="AX70" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY70" t="s">
         <v>94</v>
       </c>
-      <c r="AY70" t="s">
+      <c r="AZ70" t="s">
         <v>2</v>
       </c>
-      <c r="AZ70" s="17" t="s">
+      <c r="BA70" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="138"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="138"/>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A71" s="137"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
       <c r="E71" s="120"/>
-      <c r="F71" s="138"/>
-      <c r="G71" s="138"/>
-      <c r="H71" s="138"/>
-      <c r="I71" s="138"/>
-      <c r="J71" s="138"/>
-      <c r="K71" s="138"/>
-      <c r="L71" s="138"/>
-      <c r="M71" s="138"/>
-      <c r="N71" s="138"/>
-      <c r="O71" s="139"/>
-      <c r="P71" s="140"/>
-      <c r="Q71" s="138"/>
-      <c r="R71" s="138"/>
-      <c r="S71" s="141"/>
-      <c r="T71" s="138"/>
-      <c r="U71" s="138"/>
-      <c r="V71" s="138"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="137"/>
+      <c r="O71" s="138"/>
+      <c r="P71" s="139"/>
+      <c r="Q71" s="137"/>
+      <c r="R71" s="137"/>
+      <c r="S71" s="140"/>
+      <c r="T71" s="137"/>
+      <c r="U71" s="137"/>
+      <c r="V71" s="137"/>
       <c r="W71" s="120"/>
-      <c r="X71" s="138"/>
-      <c r="Y71" s="138"/>
-      <c r="Z71" s="138"/>
-      <c r="AA71" s="138"/>
-      <c r="AB71" s="138"/>
-      <c r="AC71" s="138"/>
-      <c r="AD71" s="138"/>
-      <c r="AE71" s="138"/>
-      <c r="AF71" s="138"/>
-      <c r="AG71" s="120"/>
-      <c r="AH71" s="138"/>
-      <c r="AI71" s="138"/>
-      <c r="AJ71" s="138"/>
-      <c r="AK71" s="142"/>
-      <c r="AL71" s="142"/>
-      <c r="AM71" s="142"/>
-      <c r="AN71" s="142"/>
-      <c r="AO71" s="143"/>
-      <c r="AP71" s="144"/>
-      <c r="AQ71" s="145"/>
-      <c r="AR71" s="146"/>
-      <c r="AS71" s="142"/>
-      <c r="AT71" s="142"/>
-      <c r="AU71" s="143"/>
-      <c r="AV71" s="138"/>
-      <c r="AW71" s="145"/>
-      <c r="AX71" s="138"/>
-      <c r="AY71" s="138"/>
-      <c r="AZ71" s="142"/>
-    </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="X71" s="137"/>
+      <c r="Y71" s="137"/>
+      <c r="Z71" s="137"/>
+      <c r="AA71" s="137"/>
+      <c r="AB71" s="137"/>
+      <c r="AC71" s="137"/>
+      <c r="AD71" s="137"/>
+      <c r="AE71" s="137"/>
+      <c r="AF71" s="137"/>
+      <c r="AG71" s="137"/>
+      <c r="AH71" s="120"/>
+      <c r="AI71" s="137"/>
+      <c r="AJ71" s="137"/>
+      <c r="AK71" s="137"/>
+      <c r="AL71" s="141"/>
+      <c r="AM71" s="141"/>
+      <c r="AN71" s="141"/>
+      <c r="AO71" s="141"/>
+      <c r="AP71" s="142"/>
+      <c r="AQ71" s="143"/>
+      <c r="AR71" s="144"/>
+      <c r="AS71" s="145"/>
+      <c r="AT71" s="141"/>
+      <c r="AU71" s="141"/>
+      <c r="AV71" s="142"/>
+      <c r="AW71" s="137"/>
+      <c r="AX71" s="144"/>
+      <c r="AY71" s="137"/>
+      <c r="AZ71" s="137"/>
+      <c r="BA71" s="141"/>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B72" s="121" t="s">
         <v>338</v>
       </c>
@@ -8177,15 +8174,6 @@
       <c r="F72" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="H72" s="122">
-        <v>0</v>
-      </c>
-      <c r="I72" s="122">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
         <v>121</v>
       </c>
@@ -8216,32 +8204,26 @@
       <c r="T72" t="s">
         <v>122</v>
       </c>
-      <c r="U72" s="122" t="s">
-        <v>79</v>
-      </c>
       <c r="X72" t="s">
         <v>123</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>0.9</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="s">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="s">
         <v>2</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AC72" t="s">
         <v>124</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AD72" t="s">
         <v>91</v>
       </c>
-      <c r="AG72" s="77" t="s">
+      <c r="AH72" s="77" t="s">
         <v>123</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>86</v>
       </c>
       <c r="AI72" t="s">
         <v>86</v>
@@ -8249,62 +8231,67 @@
       <c r="AJ72" t="s">
         <v>86</v>
       </c>
-      <c r="AK72" s="17" t="b">
-        <v>1</v>
+      <c r="AK72" t="s">
+        <v>86</v>
       </c>
       <c r="AL72" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AM72" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AP72" s="71" t="s">
+      <c r="AO72" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AQ72" s="20">
+      <c r="AR72" s="20">
         <v>50</v>
       </c>
-      <c r="AR72" s="92" t="s">
+      <c r="AS72" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AV72" t="s">
+      <c r="AW72" t="s">
         <v>32</v>
       </c>
-      <c r="AW72" s="20">
+      <c r="AX72" s="20">
         <v>50</v>
       </c>
-      <c r="AX72" s="17" t="s">
+      <c r="AY72" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AZ72" s="17" t="s">
+      <c r="BA72" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="F73" s="122"/>
-      <c r="AP73" s="71" t="s">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ73" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AQ73" s="20">
+      <c r="AR73" s="20">
         <v>170</v>
       </c>
-      <c r="AR73" s="92" t="s">
+      <c r="AS73" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="AV73" t="s">
+      <c r="AW73" t="s">
         <v>38</v>
       </c>
-      <c r="AW73" s="20">
+      <c r="AX73" s="20">
         <v>50</v>
       </c>
-      <c r="AX73" s="17" t="s">
+      <c r="AY73" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -8315,522 +8302,532 @@
       <c r="I78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB15 F20:I21 B65:B68 B14:B21 AH48:AS48 AP17:AU18 AS37:AU37 AS16:AZ16 AS45:AZ45 AS41:AZ41 AS24:AZ26 AS35:AU35 AV35:AZ37 AP66:AZ67 AS65:AZ65 AP70:AZ70 AS69:AZ69 AP58:AZ59 AS57:AZ57 AP62:AZ62 AS61:AZ61 T35:W38 T46:W46 T69:W70 T59:W59 T32:W32 T27:W29 T74:Y75 T25:AC25 AP36:AU36 T40:W42 B33:C54 AD15:AG15 X16:AF16 X69:AF69 X35:AO35 X61:AF61 AA74:AF75 AC22:AY22 T26:AF26 AG58:AJ58 T24:AO24 T57:AF58 AG57:AO57 T33:AY33 T43:AY43 AG47:AY47 T39:AY39 AE34:AU34 AB17:AF17 AG16:AO17 X20:AO20 X37:AO37 T45:AO45 X41:AO41 AE23:AG23 AE25:AF25 AG25:AR26 AS20:AZ20 Y66:AF66 AG65:AO66 Y70:AF70 AG69:AO70 AG71:AZ75 AD36:AG36 Y62:AF62 AG61:AO62 B5:C11 X40:AC40 T47:AF48 AE40:AS40 AE44:AS44 AZ22:AZ23 AZ33:AZ34 AZ39:AZ40 AZ43:AZ44 AZ47:AZ48 AZ17 C21:C23 AK15:AS15 AU15:AZ15 AK23:AS23 AU23:AY23 AU40 AU44 AU48 Q15:X15 Q23:X23 Q34:AC34 Q44:AC44 Q56:AZ56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AA22 Q66:W67 C65:C67 Q69:S75 Q57:S59 C57:C59 Q61:W62 B61:C62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AA14 F14:I17 C14:C18 J14:O18 Q12:AO13 L5:O13 Q7:AF11 Q5:AR6 F19 B56:C56 B64:C64 B69:C75 Q64:T65 V65:AF65 V64:AZ64 T71:AF73 E69:O75 E14:E18 E61:O62 E56:O59 E64:O67 E22:I23 E8:G8 E9:H11 E33:I54 E5:H7 E21">
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+  <conditionalFormatting sqref="B65:B68 B14:B21 B33:C54 B5:C11 C21:C23 C65:C67 C57:C59 B61:C62 C14:C18 B56:C56 B64:C64 B69:C75 E69:E75 E14:E18 E61:E62 E56:E59 E64:E67 E33:E54 E5:E11 E21:E23">
+    <cfRule type="cellIs" dxfId="210" priority="203" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15:Z15">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+  <conditionalFormatting sqref="B22:B32 C24:C29 C32 E32 E24:E29">
+    <cfRule type="cellIs" dxfId="184" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
+  <conditionalFormatting sqref="B57:B60">
+    <cfRule type="cellIs" dxfId="164" priority="157" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AJ15">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+  <conditionalFormatting sqref="B12:C13 E12:E13">
+    <cfRule type="cellIs" dxfId="157" priority="150" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA15:AC15">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+  <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
+    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y33:AA33">
+  <conditionalFormatting sqref="D32 D24:D29">
+    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AQ66:BA67 AT65:BA65 AQ70:BA70 AT69:BA69 AQ58:BA59 AT57:BA57 AQ62:BA62 AT61:BA61 T35:W38 T46:W46 T69:W70 T59:W59 T32:W32 T27:W29 T74:Z75 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X69:AG69 X65:AG65 X35:AP35 X61:AG61 AB74:AG75 AD22:AZ22 T26:AG26 AH58:AK58 T24:AP24 T57:AG58 AH57:AP57 T71:AG73 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 Z66:AG66 AH65:AP66 Z70:AG70 AH69:AP70 AH71:BA75 AE36:AH36 Z62:AG62 AH61:AP62 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 BA17 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q64:BA64 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q65:W67 F64:O67 Q69:S75 F69:O75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19">
     <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y34:Z34">
+  <conditionalFormatting sqref="Z15:AA15">
     <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AH15">
     <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AJ34">
+  <conditionalFormatting sqref="AI15:AK15">
     <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA34:AC34">
+  <conditionalFormatting sqref="AB15:AD15">
     <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV34:AZ34">
+  <conditionalFormatting sqref="Z33:AB33">
     <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV17:AZ18 AP19 X17:Z17">
+  <conditionalFormatting sqref="Z34:AA34">
     <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y44:Z44">
+  <conditionalFormatting sqref="AH34">
     <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG44">
+  <conditionalFormatting sqref="AI34:AK34">
     <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH44:AJ44">
+  <conditionalFormatting sqref="AB34:AD34">
     <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA44:AC44">
+  <conditionalFormatting sqref="AW34:BA34">
     <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV44:AZ44">
+  <conditionalFormatting sqref="AW17:BA18 AQ19 X17:AA17">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y48:Z48">
+  <conditionalFormatting sqref="Z44:AA44">
     <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH48:AJ48">
+  <conditionalFormatting sqref="AH44">
     <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA48:AC48">
+  <conditionalFormatting sqref="AI44:AK44">
     <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV48:AZ48">
+  <conditionalFormatting sqref="AB44:AD44">
     <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y40:Z40">
+  <conditionalFormatting sqref="AW44:BA44">
     <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
+  <conditionalFormatting sqref="Z48:AA48">
     <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH40:AJ40">
+  <conditionalFormatting sqref="AI48:AK48">
     <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA40:AC40">
+  <conditionalFormatting sqref="AB48:AD48">
     <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV40:AZ40">
+  <conditionalFormatting sqref="AW48:BA48">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AB23 B22:B32 C24:C29 F24:I28 C32 F31:I32 E32 E24:E29">
+  <conditionalFormatting sqref="Z40:AA40">
     <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23:Z23">
+  <conditionalFormatting sqref="AH40">
     <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
+  <conditionalFormatting sqref="AI40:AK40">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH23:AJ23">
+  <conditionalFormatting sqref="AB40:AD40">
     <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA23:AC23">
+  <conditionalFormatting sqref="AW40:BA40">
     <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP68">
+  <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA17">
+  <conditionalFormatting sqref="Z23:AA23">
     <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD44">
+  <conditionalFormatting sqref="AH23">
     <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40">
+  <conditionalFormatting sqref="AI23:AK23">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
+  <conditionalFormatting sqref="AB23:AD23">
     <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD23">
+  <conditionalFormatting sqref="AQ68">
     <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25">
+  <conditionalFormatting sqref="AB17">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48">
+  <conditionalFormatting sqref="AE44">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48">
+  <conditionalFormatting sqref="AE40">
     <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X70">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB36 X36">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y36:Z36 AK36:AO36">
+  <conditionalFormatting sqref="AE25">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
+  <conditionalFormatting sqref="AH48">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH36:AJ36">
+  <conditionalFormatting sqref="AH48">
     <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA36:AC36">
+  <conditionalFormatting sqref="X70:Y70">
     <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B60">
+  <conditionalFormatting sqref="AC36 X36:Y36">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP60 AK58:AO58">
+  <conditionalFormatting sqref="Z36:AA36 AL36:AP36">
     <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X62">
+  <conditionalFormatting sqref="AH36">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X66">
+  <conditionalFormatting sqref="AI36:AK36">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I11 H8">
+  <conditionalFormatting sqref="AB36:AD36">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
+  <conditionalFormatting sqref="AQ60 AL58:AP58">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG44">
+  <conditionalFormatting sqref="X62:Y62">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C13 E12:H13">
+  <conditionalFormatting sqref="X66:Y66">
     <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="I5:I11 H8">
     <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21:Z21 AB21:AZ21">
+  <conditionalFormatting sqref="AH40">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA21">
+  <conditionalFormatting sqref="AH44">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:Y38 AB38:AZ38">
+  <conditionalFormatting sqref="F12:H13">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA38">
+  <conditionalFormatting sqref="I12:I13">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Y42 AB42:AZ42">
+  <conditionalFormatting sqref="X21:AA21 AC21:BA21">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
+  <conditionalFormatting sqref="AB21">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X46:Y46 AB46:AZ46">
+  <conditionalFormatting sqref="X38:Z38 AC38:BA38">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA46">
+  <conditionalFormatting sqref="AB38">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC14:AZ14">
+  <conditionalFormatting sqref="X42:Z42 AC42:BA42">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14">
+  <conditionalFormatting sqref="AB42">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K13">
+  <conditionalFormatting sqref="X46:Z46 AC46:BA46">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
+  <conditionalFormatting sqref="AB46">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS12:AZ12 AP13:AZ13">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+  <conditionalFormatting sqref="AD14:BA14">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP11">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AO11 AG8:AR9 AG7:AO7 AS5:AZ11">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+  <conditionalFormatting sqref="J6:K13">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS27:AZ27 X27:AF27 AB28:AF28 AG27:AO28 X31:AO31 AS31:AZ31 AZ28 AS28:AU29">
+  <conditionalFormatting sqref="J5:K5">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV28:AZ29 X28:Z28">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+  <conditionalFormatting sqref="AT12:BA12 AQ13:BA13">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA28">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+  <conditionalFormatting sqref="AQ11">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X32:Z32 AB32:AZ32">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+  <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA11">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
+  <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 BA28 AT28:AV29">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP50:AU51 AS49:AZ49 X49:AF49 AB50:AF50 AG49:AO50 X53:AO53 AS53:AZ53 AZ50">
+  <conditionalFormatting sqref="AW28:BA29 X28:AA28">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV50:AZ51 AP52 X50:Z50">
+  <conditionalFormatting sqref="AB28">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA50">
+  <conditionalFormatting sqref="X32:AA32 AC32:BA32">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X54:Z54 AB54:AZ54">
+  <conditionalFormatting sqref="AB32">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA54">
+  <conditionalFormatting sqref="AQ50:AV51 AT49:BA49 X49:AG49 AC50:AG50 AH49:AP50 X53:AP53 AT53:BA53 BA50">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
+  <conditionalFormatting sqref="AW50:BA51 AQ52 X50:AA50">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT23">
+  <conditionalFormatting sqref="AB50">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT40">
+  <conditionalFormatting sqref="X54:AA54 AC54:BA54">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT44">
+  <conditionalFormatting sqref="AB54">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT48">
+  <conditionalFormatting sqref="AU15">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
+  <conditionalFormatting sqref="AU23">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+  <conditionalFormatting sqref="AU40">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AU44">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU48">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP30">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29:AR29">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z38">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
+  <conditionalFormatting sqref="AQ30">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
+  <conditionalFormatting sqref="AQ29:AS29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64:U65">
+  <conditionalFormatting sqref="AQ28">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
+  <conditionalFormatting sqref="AA38">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 D24:D29">
+  <conditionalFormatting sqref="AA42">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="AA46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -10697,37 +10694,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D987BB7-7AAC-4837-B2B4-64E3DAA0F0B9}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12C3A974-F46A-4C2E-83C9-30A63C58D94D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,13 +57,15 @@
     <author>tc={F78876A4-21B8-4D9C-B889-EECA67BBC883}</author>
     <author>tc={D236BACF-88CC-4D73-8C4C-40634727E7E3}</author>
     <author>tc={B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}</author>
-    <author>tc={78AC881B-3FA5-48DC-A556-63ECA2E0B537}</author>
     <author>tc={896933EB-2D07-46B7-874F-3B074D4F0E8B}</author>
     <author>tc={DDEEA5E8-2AA9-4995-8434-3EF3B3569035}</author>
-    <author>tc={FD04FCD9-AAAC-49EB-B08D-ABE83332B429}</author>
-    <author>tc={EC002DEC-32D7-4256-BB05-F29E9BA96A84}</author>
-    <author>tc={D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}</author>
+    <author>tc={089C303A-B9D4-423D-A9AC-D6A325AD4252}</author>
+    <author>tc={2A4EEE42-9693-4528-930C-B5064BD92B16}</author>
+    <author>tc={6A844278-701B-41D9-A11C-6F3454BAFBAE}</author>
+    <author>tc={6103E75D-7D67-447D-B13A-930BDA30E576}</author>
     <author>tc={B500928C-BCD7-432B-8C46-EA7CF6B62AB4}</author>
+    <author>tc={8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}</author>
+    <author>tc={79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}</author>
   </authors>
   <commentList>
     <comment ref="H5" authorId="0" shapeId="0" xr:uid="{5D31819A-24D2-41D9-9FF3-2FD4817887FB}">
@@ -198,15 +200,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X58" authorId="11" shapeId="0" xr:uid="{78AC881B-3FA5-48DC-A556-63ECA2E0B537}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Make this a repair task</t>
-      </text>
-    </comment>
-    <comment ref="D64" authorId="12" shapeId="0" xr:uid="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
+    <comment ref="D64" authorId="11" shapeId="0" xr:uid="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -214,7 +208,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="E64" authorId="13" shapeId="0" xr:uid="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
+    <comment ref="E64" authorId="12" shapeId="0" xr:uid="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -222,7 +216,41 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AE64" authorId="14" shapeId="0" xr:uid="{FD04FCD9-AAAC-49EB-B08D-ABE83332B429}">
+    <comment ref="H64" authorId="13" shapeId="0" xr:uid="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    125</t>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{7B0B83F0-61FA-4F0B-9CDD-261CF0545E69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Safety Factor of 2 = 20
+Safety Factor of 1 = 8
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE64" authorId="14" shapeId="0" xr:uid="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,20 +259,71 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="X66" authorId="15" shapeId="0" xr:uid="{EC002DEC-32D7-4256-BB05-F29E9BA96A84}">
+    <comment ref="H65" authorId="15" shapeId="0" xr:uid="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Make this a repair task</t>
+    250 mm</t>
       </text>
     </comment>
-    <comment ref="F72" authorId="16" shapeId="0" xr:uid="{D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}">
+    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{A07687BF-C932-432E-896F-0B27273ABB7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+157
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H72" authorId="16" shapeId="0" xr:uid="{6103E75D-7D67-447D-B13A-930BDA30E576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    fix method to allow multiple indicators for one component</t>
+    125</t>
+      </text>
+    </comment>
+    <comment ref="I72" authorId="1" shapeId="0" xr:uid="{BE06AF88-4741-44CE-BAE4-7CA601E92673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Safety Factor of 2 = 20
+Safety Factor of 1 = 8
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="J72" authorId="17" shapeId="0" xr:uid="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
@@ -255,12 +334,54 @@
     Create error catch for this method</t>
       </text>
     </comment>
+    <comment ref="AE72" authorId="18" shapeId="0" xr:uid="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do you want to deal with inspections that also include some of repair, ie. lubrication? 
+Add an additional task?</t>
+      </text>
+    </comment>
+    <comment ref="H73" authorId="19" shapeId="0" xr:uid="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    250 mm</t>
+      </text>
+    </comment>
+    <comment ref="I73" authorId="1" shapeId="0" xr:uid="{A214C7C3-39E0-43D0-8B43-3117F2ABD2C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+157
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="344">
   <si>
     <t>Cause</t>
   </si>
@@ -598,9 +719,6 @@
     <t>any reason</t>
   </si>
   <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
     <t>CAT3/4 replacement</t>
   </si>
   <si>
@@ -610,679 +728,691 @@
     <t>pole_cap</t>
   </si>
   <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>Level of Failure</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+  </si>
+  <si>
+    <t>termite</t>
+  </si>
+  <si>
+    <t>level_3_inspection</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>fungal decay</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>early_replacement</t>
+  </si>
+  <si>
+    <t>emergency_replacement</t>
+  </si>
+  <si>
+    <t>Failure Mode</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>rul_min</t>
+  </si>
+  <si>
+    <t>rul_max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>[pole]</t>
+  </si>
+  <si>
+    <t>{broken}</t>
+  </si>
+  <si>
+    <t>(vandalism)</t>
+  </si>
+  <si>
+    <t>(lightning)</t>
+  </si>
+  <si>
+    <t>(impact)</t>
+  </si>
+  <si>
+    <t>(fire damage - bushfire)</t>
+  </si>
+  <si>
+    <t>(fire damage - asset related)</t>
+  </si>
+  <si>
+    <t>(extreme environment)</t>
+  </si>
+  <si>
+    <t>(fungal decay - brown rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - carroty rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - white rot)</t>
+  </si>
+  <si>
+    <t>(termites)</t>
+  </si>
+  <si>
+    <t>(fungal decay - external soft rot)</t>
+  </si>
+  <si>
+    <t>(weathering)</t>
+  </si>
+  <si>
+    <t>{cracked}</t>
+  </si>
+  <si>
+    <t>[pole sapwood]</t>
+  </si>
+  <si>
+    <t>{insecure}</t>
+  </si>
+  <si>
+    <t>{degraded appearance}</t>
+  </si>
+  <si>
+    <t>[pole foundation]</t>
+  </si>
+  <si>
+    <t>{eroded}</t>
+  </si>
+  <si>
+    <t>(wear)</t>
+  </si>
+  <si>
+    <t>(environment)</t>
+  </si>
+  <si>
+    <t>{loose}</t>
+  </si>
+  <si>
+    <t>(any reason)</t>
+  </si>
+  <si>
+    <t>{ruptured}</t>
+  </si>
+  <si>
+    <t>[pole cap]</t>
+  </si>
+  <si>
+    <t>{missing}</t>
+  </si>
+  <si>
+    <t>(installation error)</t>
+  </si>
+  <si>
+    <t>{falls out}</t>
+  </si>
+  <si>
+    <t>[step]</t>
+  </si>
+  <si>
+    <t>[attachments]</t>
+  </si>
+  <si>
+    <t>{too low}</t>
+  </si>
+  <si>
+    <t>[label]</t>
+  </si>
+  <si>
+    <t>{not observable}</t>
+  </si>
+  <si>
+    <t>(age)</t>
+  </si>
+  <si>
+    <t>(out of specification)</t>
+  </si>
+  <si>
+    <t>[tag]</t>
+  </si>
+  <si>
+    <t>[top attachment point]</t>
+  </si>
+  <si>
+    <t>[thimble]</t>
+  </si>
+  <si>
+    <t>(misalignment)</t>
+  </si>
+  <si>
+    <t>[dead end]</t>
+  </si>
+  <si>
+    <t>(corrosion)</t>
+  </si>
+  <si>
+    <t>(fatigue)</t>
+  </si>
+  <si>
+    <t>[wire]</t>
+  </si>
+  <si>
+    <t>(overloaded)</t>
+  </si>
+  <si>
+    <t>[insulator]</t>
+  </si>
+  <si>
+    <t>[sight guard]</t>
+  </si>
+  <si>
+    <t>[anchor rod]</t>
+  </si>
+  <si>
+    <t>[footing]</t>
+  </si>
+  <si>
+    <t>[nail]</t>
+  </si>
+  <si>
+    <t>[bands]</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Probability of Failure</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Pole Sre</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Level of Impact</t>
+  </si>
+  <si>
+    <t>Questions for Occa</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Condition v Symptom</t>
+  </si>
+  <si>
+    <t>as-bad-as-old</t>
+  </si>
+  <si>
+    <t>FailureMode</t>
+  </si>
+  <si>
+    <t>Modifier v Acceleration Factor</t>
+  </si>
+  <si>
+    <t>Fungal Decay species</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>better_than_old_worse_than_new</t>
+  </si>
+  <si>
+    <t>Simple -&gt; Modifier -&gt; Af -&gt; Physics of Failure</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>How to include failure mode initiation?</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>An asset that has made it 100 years?</t>
+  </si>
+  <si>
+    <t>Degrade condition</t>
+  </si>
+  <si>
+    <t>failure mode</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>initiated</t>
+  </si>
+  <si>
+    <t>detected</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>indicators</t>
+  </si>
+  <si>
+    <t>Asset Data</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Asset Model</t>
+  </si>
+  <si>
+    <t>Greg -&gt; Life extension</t>
+  </si>
+  <si>
+    <t>life extension</t>
+  </si>
+  <si>
+    <t>Multiple tasks are triggered</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>termite powder</t>
+  </si>
+  <si>
+    <t>change an indicator</t>
+  </si>
+  <si>
+    <t>Calibration scenario</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Story to explain</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>PLP SF</t>
+  </si>
+  <si>
+    <t>inspection interval for new poles</t>
+  </si>
+  <si>
+    <t>Pole Strength</t>
+  </si>
+  <si>
+    <t>WASP</t>
+  </si>
+  <si>
+    <t>inspection interval for each poles</t>
+  </si>
+  <si>
+    <t>Pole Load</t>
+  </si>
+  <si>
+    <t>pole_strength/4</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>AGD</t>
+  </si>
+  <si>
+    <t>CZD</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>For each type</t>
+  </si>
+  <si>
+    <t>Starting Condition</t>
+  </si>
+  <si>
+    <t>pole_strength / pole load</t>
+  </si>
+  <si>
+    <t>pole_load = pole_ strength / 4</t>
+  </si>
+  <si>
+    <t>pole_strength / actual load</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>overhead_network</t>
+  </si>
+  <si>
+    <t>Pole Top Equipment</t>
+  </si>
+  <si>
+    <t>Insulator</t>
+  </si>
+  <si>
+    <t>Crossarm</t>
+  </si>
+  <si>
+    <t>Conductor Tie</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>OHSyste</t>
+  </si>
+  <si>
+    <t>OH  System</t>
+  </si>
+  <si>
+    <t>Condutor Tie</t>
+  </si>
+  <si>
+    <t>fm1</t>
+  </si>
+  <si>
+    <t>fm2</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Footing</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Pole cap</t>
-  </si>
-  <si>
-    <t>top_of_pole_stregnth</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>task_name</t>
-  </si>
-  <si>
-    <t>Level of Failure</t>
-  </si>
-  <si>
-    <t>condition_name</t>
-  </si>
-  <si>
-    <t>termite</t>
-  </si>
-  <si>
-    <t>level_3_inspection</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>replacement</t>
-  </si>
-  <si>
-    <t>fungal decay</t>
-  </si>
-  <si>
-    <t>schedule</t>
-  </si>
-  <si>
-    <t>early_replacement</t>
-  </si>
-  <si>
-    <t>emergency_replacement</t>
-  </si>
-  <si>
-    <t>Failure Mode</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>rul_min</t>
-  </si>
-  <si>
-    <t>rul_max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>weeks</t>
-  </si>
-  <si>
-    <t>[pole]</t>
-  </si>
-  <si>
-    <t>{broken}</t>
-  </si>
-  <si>
-    <t>(vandalism)</t>
-  </si>
-  <si>
-    <t>(lightning)</t>
-  </si>
-  <si>
-    <t>(impact)</t>
-  </si>
-  <si>
-    <t>(fire damage - bushfire)</t>
-  </si>
-  <si>
-    <t>(fire damage - asset related)</t>
-  </si>
-  <si>
-    <t>(extreme environment)</t>
-  </si>
-  <si>
-    <t>(fungal decay - brown rot)</t>
-  </si>
-  <si>
-    <t>(fungal decay - carroty rot)</t>
-  </si>
-  <si>
-    <t>(fungal decay - white rot)</t>
-  </si>
-  <si>
-    <t>(termites)</t>
-  </si>
-  <si>
-    <t>(fungal decay - external soft rot)</t>
-  </si>
-  <si>
-    <t>(weathering)</t>
-  </si>
-  <si>
-    <t>{cracked}</t>
-  </si>
-  <si>
-    <t>[pole sapwood]</t>
-  </si>
-  <si>
-    <t>{insecure}</t>
-  </si>
-  <si>
-    <t>{degraded appearance}</t>
-  </si>
-  <si>
-    <t>[pole foundation]</t>
-  </si>
-  <si>
-    <t>{eroded}</t>
-  </si>
-  <si>
-    <t>(wear)</t>
-  </si>
-  <si>
-    <t>(environment)</t>
-  </si>
-  <si>
-    <t>{loose}</t>
-  </si>
-  <si>
-    <t>(any reason)</t>
-  </si>
-  <si>
-    <t>{ruptured}</t>
-  </si>
-  <si>
-    <t>[pole cap]</t>
-  </si>
-  <si>
-    <t>{missing}</t>
-  </si>
-  <si>
-    <t>(installation error)</t>
-  </si>
-  <si>
-    <t>{falls out}</t>
-  </si>
-  <si>
-    <t>[step]</t>
-  </si>
-  <si>
-    <t>[attachments]</t>
-  </si>
-  <si>
-    <t>{too low}</t>
-  </si>
-  <si>
-    <t>[label]</t>
-  </si>
-  <si>
-    <t>{not observable}</t>
-  </si>
-  <si>
-    <t>(age)</t>
-  </si>
-  <si>
-    <t>(out of specification)</t>
-  </si>
-  <si>
-    <t>[tag]</t>
-  </si>
-  <si>
-    <t>[top attachment point]</t>
-  </si>
-  <si>
-    <t>[thimble]</t>
-  </si>
-  <si>
-    <t>(misalignment)</t>
-  </si>
-  <si>
-    <t>[dead end]</t>
-  </si>
-  <si>
-    <t>(corrosion)</t>
-  </si>
-  <si>
-    <t>(fatigue)</t>
-  </si>
-  <si>
-    <t>[wire]</t>
-  </si>
-  <si>
-    <t>(overloaded)</t>
-  </si>
-  <si>
-    <t>[insulator]</t>
-  </si>
-  <si>
-    <t>[sight guard]</t>
-  </si>
-  <si>
-    <t>[anchor rod]</t>
-  </si>
-  <si>
-    <t>[footing]</t>
-  </si>
-  <si>
-    <t>[nail]</t>
-  </si>
-  <si>
-    <t>[bands]</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Probability of Failure</t>
-  </si>
-  <si>
-    <t>Operational</t>
-  </si>
-  <si>
-    <t>Pole Sre</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Level of Impact</t>
-  </si>
-  <si>
-    <t>Questions for Occa</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Nil</t>
-  </si>
-  <si>
-    <t>Condition v Symptom</t>
-  </si>
-  <si>
-    <t>as-bad-as-old</t>
-  </si>
-  <si>
-    <t>FailureMode</t>
-  </si>
-  <si>
-    <t>Modifier v Acceleration Factor</t>
-  </si>
-  <si>
-    <t>Fungal Decay species</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>better_than_old_worse_than_new</t>
-  </si>
-  <si>
-    <t>Simple -&gt; Modifier -&gt; Af -&gt; Physics of Failure</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>How to include failure mode initiation?</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>An asset that has made it 100 years?</t>
-  </si>
-  <si>
-    <t>Degrade condition</t>
-  </si>
-  <si>
-    <t>failure mode</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>initiated</t>
-  </si>
-  <si>
-    <t>detected</t>
-  </si>
-  <si>
-    <t>Safety Factor</t>
-  </si>
-  <si>
-    <t>indicators</t>
-  </si>
-  <si>
-    <t>Asset Data</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Asset Model</t>
-  </si>
-  <si>
-    <t>Greg -&gt; Life extension</t>
-  </si>
-  <si>
-    <t>life extension</t>
-  </si>
-  <si>
-    <t>Multiple tasks are triggered</t>
-  </si>
-  <si>
-    <t>reinforce</t>
-  </si>
-  <si>
-    <t>termite powder</t>
-  </si>
-  <si>
-    <t>change an indicator</t>
-  </si>
-  <si>
-    <t>Calibration scenario</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>kN</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Story to explain</t>
-  </si>
-  <si>
-    <t>SSF</t>
-  </si>
-  <si>
-    <t>PLP SF</t>
-  </si>
-  <si>
-    <t>inspection interval for new poles</t>
-  </si>
-  <si>
-    <t>Pole Strength</t>
-  </si>
-  <si>
-    <t>WASP</t>
-  </si>
-  <si>
-    <t>inspection interval for each poles</t>
-  </si>
-  <si>
-    <t>Pole Load</t>
-  </si>
-  <si>
-    <t>pole_strength/4</t>
-  </si>
-  <si>
-    <t>PLP</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>AGD</t>
-  </si>
-  <si>
-    <t>CZD</t>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>For each type</t>
-  </si>
-  <si>
-    <t>Starting Condition</t>
-  </si>
-  <si>
-    <t>pole_strength / pole load</t>
-  </si>
-  <si>
-    <t>pole_load = pole_ strength / 4</t>
-  </si>
-  <si>
-    <t>pole_strength / actual load</t>
-  </si>
-  <si>
-    <t>consequence</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>overhead_network</t>
-  </si>
-  <si>
-    <t>underground_network</t>
-  </si>
-  <si>
-    <t>crack_length</t>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1390,12 +1520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1409,7 +1533,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,12 +1666,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +1955,6 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1884,6 +2001,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1892,560 +2010,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="211">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="132">
     <dxf>
       <fill>
         <patternFill>
@@ -3683,27 +3248,34 @@
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{78AC881B-3FA5-48DC-A556-63ECA2E0B537}">
-    <text>Make this a repair task</text>
-  </threadedComment>
   <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
   <threadedComment ref="E64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AE64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{FD04FCD9-AAAC-49EB-B08D-ABE83332B429}">
+  <threadedComment ref="H64" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
+    <text>125</text>
+  </threadedComment>
+  <threadedComment ref="AE64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="X66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EC002DEC-32D7-4256-BB05-F29E9BA96A84}">
-    <text>Make this a repair task</text>
+  <threadedComment ref="H65" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
+    <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="F72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D1AC0744-C0F4-4E4E-9C87-F440BB1CCF41}">
-    <text>fix method to allow multiple indicators for one component</text>
+  <threadedComment ref="H72" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6103E75D-7D67-447D-B13A-930BDA30E576}">
+    <text>125</text>
   </threadedComment>
   <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
     <text>Create error catch for this method</text>
+  </threadedComment>
+  <threadedComment ref="AE72" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
+    <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
+Add an additional task?</text>
+  </threadedComment>
+  <threadedComment ref="H73" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
+    <text>250 mm</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3755,134 +3327,134 @@
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O12" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="S13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F14" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Q14" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="O15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q16" t="s">
         <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O18" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -3894,7 +3466,7 @@
         <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>96</v>
@@ -3908,27 +3480,27 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="S32" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3936,13 +3508,13 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -3950,16 +3522,16 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R35" t="s">
         <v>97</v>
@@ -3970,13 +3542,13 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="R36" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3992,10 +3564,10 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -4003,10 +3575,10 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
         <v>107</v>
@@ -4029,29 +3601,29 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H52" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -4085,17 +3657,17 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -4103,12 +3675,12 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -4116,50 +3688,50 @@
         <v>107</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4186,48 +3758,48 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="R4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="S4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -4237,18 +3809,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="S5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -4260,51 +3832,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="S6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="S7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="R8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -4312,7 +3884,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -4320,12 +3892,12 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -4337,20 +3909,20 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M16" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O1048576" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4630,20 +4202,21 @@
   <dimension ref="A1:BA78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="X1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="77" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
@@ -4652,12 +4225,12 @@
     <col min="17" max="17" width="14.44140625" customWidth="1"/>
     <col min="18" max="18" width="6.88671875" customWidth="1"/>
     <col min="19" max="19" width="9.6640625" style="100" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="77" customWidth="1"/>
     <col min="24" max="24" width="23.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
     <col min="26" max="26" width="11.109375" customWidth="1"/>
     <col min="27" max="27" width="8.88671875" customWidth="1"/>
     <col min="28" max="28" width="14.88671875" customWidth="1"/>
@@ -4778,7 +4351,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="108" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P2" s="116"/>
       <c r="Q2" s="1" t="s">
@@ -4888,7 +4461,7 @@
         <v>59</v>
       </c>
       <c r="P3" s="115" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>10</v>
@@ -5058,8 +4631,8 @@
       <c r="BA4" s="61"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B5" s="121" t="s">
-        <v>338</v>
+      <c r="B5" s="145" t="s">
+        <v>331</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -5076,7 +4649,7 @@
       <c r="H5" s="42">
         <v>125</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="121">
         <v>20</v>
       </c>
       <c r="J5" t="s">
@@ -5181,7 +4754,7 @@
       <c r="H6" s="42">
         <v>250</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="121">
         <f>ROUND((I7/H7 * H6^3)^(1/3),0)</f>
         <v>157</v>
       </c>
@@ -5237,7 +4810,7 @@
       <c r="AN7" s="66"/>
       <c r="AO7" s="66"/>
       <c r="AP7" s="85"/>
-      <c r="AQ7" s="123"/>
+      <c r="AQ7" s="122"/>
       <c r="AR7" s="65"/>
       <c r="AS7" s="81"/>
       <c r="AT7" s="66"/>
@@ -5360,7 +4933,7 @@
       <c r="AN10" s="66"/>
       <c r="AO10" s="66"/>
       <c r="AP10" s="85"/>
-      <c r="AQ10" s="123"/>
+      <c r="AQ10" s="122"/>
       <c r="AR10" s="65"/>
       <c r="AS10" s="81"/>
       <c r="AT10" s="66"/>
@@ -5460,7 +5033,7 @@
       <c r="AN12" s="66"/>
       <c r="AO12" s="66"/>
       <c r="AP12" s="85"/>
-      <c r="AQ12" s="123"/>
+      <c r="AQ12" s="122"/>
       <c r="AR12" s="65"/>
       <c r="AS12" s="81"/>
       <c r="AT12" s="66"/>
@@ -5532,50 +5105,50 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="128"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="129"/>
-      <c r="AO14" s="129"/>
-      <c r="AP14" s="130"/>
-      <c r="AQ14" s="131"/>
-      <c r="AR14" s="132"/>
-      <c r="AS14" s="133"/>
-      <c r="AT14" s="129"/>
-      <c r="AU14" s="129"/>
-      <c r="AV14" s="130"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="132"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="129"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="128"/>
+      <c r="AM14" s="128"/>
+      <c r="AN14" s="128"/>
+      <c r="AO14" s="128"/>
+      <c r="AP14" s="129"/>
+      <c r="AQ14" s="130"/>
+      <c r="AR14" s="131"/>
+      <c r="AS14" s="132"/>
+      <c r="AT14" s="128"/>
+      <c r="AU14" s="128"/>
+      <c r="AV14" s="129"/>
+      <c r="AW14" s="123"/>
+      <c r="AX14" s="131"/>
+      <c r="AY14" s="123"/>
+      <c r="AZ14" s="123"/>
+      <c r="BA14" s="128"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
@@ -5682,7 +5255,7 @@
       <c r="AN16" s="66"/>
       <c r="AO16" s="66"/>
       <c r="AP16" s="85"/>
-      <c r="AQ16" s="123"/>
+      <c r="AQ16" s="122"/>
       <c r="AR16" s="65"/>
       <c r="AS16" s="81"/>
       <c r="AT16" s="66"/>
@@ -5809,7 +5382,7 @@
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
       <c r="AP20" s="85"/>
-      <c r="AQ20" s="123"/>
+      <c r="AQ20" s="122"/>
       <c r="AR20" s="65"/>
       <c r="AS20" s="81"/>
       <c r="AT20" s="66"/>
@@ -5878,50 +5451,50 @@
       </c>
     </row>
     <row r="22" spans="10:53" x14ac:dyDescent="0.3">
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="129"/>
-      <c r="AM22" s="129"/>
-      <c r="AN22" s="129"/>
-      <c r="AO22" s="129"/>
-      <c r="AP22" s="130"/>
-      <c r="AQ22" s="131"/>
-      <c r="AR22" s="132"/>
-      <c r="AS22" s="133"/>
-      <c r="AT22" s="129"/>
-      <c r="AU22" s="129"/>
-      <c r="AV22" s="130"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="132"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="124"/>
-      <c r="BA22" s="129"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="123"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="129"/>
+      <c r="AQ22" s="130"/>
+      <c r="AR22" s="131"/>
+      <c r="AS22" s="132"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="129"/>
+      <c r="AW22" s="123"/>
+      <c r="AX22" s="131"/>
+      <c r="AY22" s="123"/>
+      <c r="AZ22" s="123"/>
+      <c r="BA22" s="128"/>
     </row>
     <row r="23" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
@@ -6031,7 +5604,7 @@
       <c r="AN24" s="66"/>
       <c r="AO24" s="66"/>
       <c r="AP24" s="85"/>
-      <c r="AQ24" s="123"/>
+      <c r="AQ24" s="122"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="81"/>
       <c r="AT24" s="66"/>
@@ -6142,7 +5715,7 @@
       <c r="AN27" s="66"/>
       <c r="AO27" s="66"/>
       <c r="AP27" s="85"/>
-      <c r="AQ27" s="123"/>
+      <c r="AQ27" s="122"/>
       <c r="AR27" s="65"/>
       <c r="AS27" s="81"/>
       <c r="AT27" s="66"/>
@@ -6249,7 +5822,7 @@
       <c r="AN31" s="66"/>
       <c r="AO31" s="66"/>
       <c r="AP31" s="85"/>
-      <c r="AQ31" s="123"/>
+      <c r="AQ31" s="122"/>
       <c r="AR31" s="65"/>
       <c r="AS31" s="81"/>
       <c r="AT31" s="66"/>
@@ -6318,50 +5891,50 @@
       </c>
     </row>
     <row r="33" spans="10:53" x14ac:dyDescent="0.3">
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="124"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="124"/>
-      <c r="AK33" s="124"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="129"/>
-      <c r="AN33" s="129"/>
-      <c r="AO33" s="129"/>
-      <c r="AP33" s="130"/>
-      <c r="AQ33" s="131"/>
-      <c r="AR33" s="132"/>
-      <c r="AS33" s="133"/>
-      <c r="AT33" s="129"/>
-      <c r="AU33" s="129"/>
-      <c r="AV33" s="130"/>
-      <c r="AW33" s="124"/>
-      <c r="AX33" s="132"/>
-      <c r="AY33" s="124"/>
-      <c r="AZ33" s="124"/>
-      <c r="BA33" s="129"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="128"/>
+      <c r="AO33" s="128"/>
+      <c r="AP33" s="129"/>
+      <c r="AQ33" s="130"/>
+      <c r="AR33" s="131"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="128"/>
+      <c r="AU33" s="128"/>
+      <c r="AV33" s="129"/>
+      <c r="AW33" s="123"/>
+      <c r="AX33" s="131"/>
+      <c r="AY33" s="123"/>
+      <c r="AZ33" s="123"/>
+      <c r="BA33" s="128"/>
     </row>
     <row r="34" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
@@ -6392,7 +5965,7 @@
       <c r="S34" s="101">
         <v>0</v>
       </c>
-      <c r="T34" s="134"/>
+      <c r="T34" s="133"/>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="78"/>
@@ -6458,13 +6031,13 @@
       <c r="AN35" s="66"/>
       <c r="AO35" s="66"/>
       <c r="AP35" s="85"/>
-      <c r="AQ35" s="123"/>
-      <c r="AR35" s="135"/>
-      <c r="AS35" s="136"/>
+      <c r="AQ35" s="122"/>
+      <c r="AR35" s="134"/>
+      <c r="AS35" s="135"/>
       <c r="AT35" s="102"/>
       <c r="AU35" s="102"/>
       <c r="AV35" s="103"/>
-      <c r="AW35" s="135"/>
+      <c r="AW35" s="134"/>
       <c r="AX35" s="67"/>
       <c r="AY35" s="65"/>
       <c r="AZ35" s="65"/>
@@ -6541,7 +6114,7 @@
       <c r="AN37" s="66"/>
       <c r="AO37" s="66"/>
       <c r="AP37" s="85"/>
-      <c r="AQ37" s="123"/>
+      <c r="AQ37" s="122"/>
       <c r="AR37" s="65"/>
       <c r="AS37" s="81"/>
       <c r="AT37" s="66"/>
@@ -6610,50 +6183,50 @@
       </c>
     </row>
     <row r="39" spans="10:53" x14ac:dyDescent="0.3">
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
-      <c r="AD39" s="124"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="124"/>
-      <c r="AH39" s="128"/>
-      <c r="AI39" s="124"/>
-      <c r="AJ39" s="124"/>
-      <c r="AK39" s="124"/>
-      <c r="AL39" s="129"/>
-      <c r="AM39" s="129"/>
-      <c r="AN39" s="129"/>
-      <c r="AO39" s="129"/>
-      <c r="AP39" s="130"/>
-      <c r="AQ39" s="131"/>
-      <c r="AR39" s="132"/>
-      <c r="AS39" s="133"/>
-      <c r="AT39" s="129"/>
-      <c r="AU39" s="129"/>
-      <c r="AV39" s="130"/>
-      <c r="AW39" s="124"/>
-      <c r="AX39" s="132"/>
-      <c r="AY39" s="124"/>
-      <c r="AZ39" s="124"/>
-      <c r="BA39" s="129"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="126"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="123"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="123"/>
+      <c r="AA39" s="123"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="123"/>
+      <c r="AD39" s="123"/>
+      <c r="AE39" s="123"/>
+      <c r="AF39" s="123"/>
+      <c r="AG39" s="123"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="123"/>
+      <c r="AJ39" s="123"/>
+      <c r="AK39" s="123"/>
+      <c r="AL39" s="128"/>
+      <c r="AM39" s="128"/>
+      <c r="AN39" s="128"/>
+      <c r="AO39" s="128"/>
+      <c r="AP39" s="129"/>
+      <c r="AQ39" s="130"/>
+      <c r="AR39" s="131"/>
+      <c r="AS39" s="132"/>
+      <c r="AT39" s="128"/>
+      <c r="AU39" s="128"/>
+      <c r="AV39" s="129"/>
+      <c r="AW39" s="123"/>
+      <c r="AX39" s="131"/>
+      <c r="AY39" s="123"/>
+      <c r="AZ39" s="123"/>
+      <c r="BA39" s="128"/>
     </row>
     <row r="40" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J40" t="s">
@@ -6744,7 +6317,7 @@
       <c r="AN41" s="66"/>
       <c r="AO41" s="66"/>
       <c r="AP41" s="85"/>
-      <c r="AQ41" s="123"/>
+      <c r="AQ41" s="122"/>
       <c r="AR41" s="65"/>
       <c r="AS41" s="81"/>
       <c r="AT41" s="66"/>
@@ -6813,50 +6386,50 @@
       </c>
     </row>
     <row r="43" spans="10:53" x14ac:dyDescent="0.3">
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="124"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124"/>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="128"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="124"/>
-      <c r="AK43" s="124"/>
-      <c r="AL43" s="129"/>
-      <c r="AM43" s="129"/>
-      <c r="AN43" s="129"/>
-      <c r="AO43" s="129"/>
-      <c r="AP43" s="130"/>
-      <c r="AQ43" s="131"/>
-      <c r="AR43" s="132"/>
-      <c r="AS43" s="133"/>
-      <c r="AT43" s="129"/>
-      <c r="AU43" s="129"/>
-      <c r="AV43" s="130"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="132"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="124"/>
-      <c r="BA43" s="129"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="127"/>
+      <c r="X43" s="123"/>
+      <c r="Y43" s="123"/>
+      <c r="Z43" s="123"/>
+      <c r="AA43" s="123"/>
+      <c r="AB43" s="123"/>
+      <c r="AC43" s="123"/>
+      <c r="AD43" s="123"/>
+      <c r="AE43" s="123"/>
+      <c r="AF43" s="123"/>
+      <c r="AG43" s="123"/>
+      <c r="AH43" s="127"/>
+      <c r="AI43" s="123"/>
+      <c r="AJ43" s="123"/>
+      <c r="AK43" s="123"/>
+      <c r="AL43" s="128"/>
+      <c r="AM43" s="128"/>
+      <c r="AN43" s="128"/>
+      <c r="AO43" s="128"/>
+      <c r="AP43" s="129"/>
+      <c r="AQ43" s="130"/>
+      <c r="AR43" s="131"/>
+      <c r="AS43" s="132"/>
+      <c r="AT43" s="128"/>
+      <c r="AU43" s="128"/>
+      <c r="AV43" s="129"/>
+      <c r="AW43" s="123"/>
+      <c r="AX43" s="131"/>
+      <c r="AY43" s="123"/>
+      <c r="AZ43" s="123"/>
+      <c r="BA43" s="128"/>
     </row>
     <row r="44" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
@@ -6947,7 +6520,7 @@
       <c r="AN45" s="66"/>
       <c r="AO45" s="66"/>
       <c r="AP45" s="85"/>
-      <c r="AQ45" s="123"/>
+      <c r="AQ45" s="122"/>
       <c r="AR45" s="65"/>
       <c r="AS45" s="81"/>
       <c r="AT45" s="66"/>
@@ -7016,50 +6589,50 @@
       </c>
     </row>
     <row r="47" spans="10:53" x14ac:dyDescent="0.3">
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="124"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="124"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="128"/>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="124"/>
-      <c r="AG47" s="124"/>
-      <c r="AH47" s="128"/>
-      <c r="AI47" s="124"/>
-      <c r="AJ47" s="124"/>
-      <c r="AK47" s="124"/>
-      <c r="AL47" s="129"/>
-      <c r="AM47" s="129"/>
-      <c r="AN47" s="129"/>
-      <c r="AO47" s="129"/>
-      <c r="AP47" s="130"/>
-      <c r="AQ47" s="131"/>
-      <c r="AR47" s="132"/>
-      <c r="AS47" s="133"/>
-      <c r="AT47" s="129"/>
-      <c r="AU47" s="129"/>
-      <c r="AV47" s="130"/>
-      <c r="AW47" s="124"/>
-      <c r="AX47" s="132"/>
-      <c r="AY47" s="124"/>
-      <c r="AZ47" s="124"/>
-      <c r="BA47" s="129"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="123"/>
+      <c r="S47" s="126"/>
+      <c r="T47" s="123"/>
+      <c r="U47" s="123"/>
+      <c r="V47" s="123"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="123"/>
+      <c r="Y47" s="123"/>
+      <c r="Z47" s="123"/>
+      <c r="AA47" s="123"/>
+      <c r="AB47" s="123"/>
+      <c r="AC47" s="123"/>
+      <c r="AD47" s="123"/>
+      <c r="AE47" s="123"/>
+      <c r="AF47" s="123"/>
+      <c r="AG47" s="123"/>
+      <c r="AH47" s="127"/>
+      <c r="AI47" s="123"/>
+      <c r="AJ47" s="123"/>
+      <c r="AK47" s="123"/>
+      <c r="AL47" s="128"/>
+      <c r="AM47" s="128"/>
+      <c r="AN47" s="128"/>
+      <c r="AO47" s="128"/>
+      <c r="AP47" s="129"/>
+      <c r="AQ47" s="130"/>
+      <c r="AR47" s="131"/>
+      <c r="AS47" s="132"/>
+      <c r="AT47" s="128"/>
+      <c r="AU47" s="128"/>
+      <c r="AV47" s="129"/>
+      <c r="AW47" s="123"/>
+      <c r="AX47" s="131"/>
+      <c r="AY47" s="123"/>
+      <c r="AZ47" s="123"/>
+      <c r="BA47" s="128"/>
     </row>
     <row r="48" spans="10:53" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
@@ -7168,7 +6741,7 @@
       <c r="AN49" s="66"/>
       <c r="AO49" s="66"/>
       <c r="AP49" s="85"/>
-      <c r="AQ49" s="123"/>
+      <c r="AQ49" s="122"/>
       <c r="AR49" s="65"/>
       <c r="AS49" s="81"/>
       <c r="AT49" s="66"/>
@@ -7297,7 +6870,7 @@
       <c r="AN53" s="66"/>
       <c r="AO53" s="66"/>
       <c r="AP53" s="85"/>
-      <c r="AQ53" s="123"/>
+      <c r="AQ53" s="122"/>
       <c r="AR53" s="65"/>
       <c r="AS53" s="81"/>
       <c r="AT53" s="66"/>
@@ -7418,8 +6991,8 @@
       <c r="BA55" s="61"/>
     </row>
     <row r="56" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B56" s="121" t="s">
-        <v>339</v>
+      <c r="B56" s="145" t="s">
+        <v>343</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="107" t="s">
@@ -7434,8 +7007,11 @@
       <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56" s="42" t="s">
         <v>111</v>
@@ -7460,13 +7036,10 @@
         <v>50</v>
       </c>
       <c r="R56" s="41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="S56" s="101">
         <v>10</v>
-      </c>
-      <c r="T56" t="s">
-        <v>112</v>
       </c>
       <c r="X56" t="s">
         <v>80</v>
@@ -7541,7 +7114,7 @@
       <c r="AN57" s="66"/>
       <c r="AO57" s="66"/>
       <c r="AP57" s="85"/>
-      <c r="AQ57" s="123"/>
+      <c r="AQ57" s="122"/>
       <c r="AR57" s="65"/>
       <c r="AS57" s="81"/>
       <c r="AT57" s="66"/>
@@ -7554,15 +7127,17 @@
       <c r="BA57" s="66"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X58" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y58" s="45"/>
+      <c r="X58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
       <c r="Z58">
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="AB58" t="s">
         <v>2</v>
@@ -7620,8 +7195,6 @@
       </c>
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
       <c r="AL59"/>
       <c r="AM59"/>
       <c r="AN59"/>
@@ -7638,13 +7211,11 @@
       </c>
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
       <c r="AQ60" s="71" t="s">
         <v>37</v>
       </c>
       <c r="AR60" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS60" s="92">
         <v>3</v>
@@ -7670,7 +7241,7 @@
       <c r="AN61" s="66"/>
       <c r="AO61" s="66"/>
       <c r="AP61" s="85"/>
-      <c r="AQ61" s="123"/>
+      <c r="AQ61" s="122"/>
       <c r="AR61" s="65"/>
       <c r="AS61" s="81"/>
       <c r="AT61" s="66"/>
@@ -7684,16 +7255,16 @@
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.3">
       <c r="X62" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="Z62">
         <v>1</v>
       </c>
-      <c r="AA62">
-        <v>200</v>
+      <c r="AA62" s="45">
+        <v>7000</v>
       </c>
       <c r="AB62" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="AC62" t="s">
         <v>96</v>
@@ -7703,6 +7274,9 @@
       </c>
       <c r="AE62" t="s">
         <v>97</v>
+      </c>
+      <c r="AL62" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="AN62" s="17" t="b">
         <v>1</v>
@@ -7788,30 +7362,33 @@
       <c r="BA63" s="61"/>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B64" s="121" t="s">
-        <v>338</v>
+      <c r="B64" s="145" t="s">
+        <v>331</v>
       </c>
       <c r="C64" s="41"/>
       <c r="D64" s="107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="78">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="H64" s="42">
+        <v>125</v>
+      </c>
+      <c r="I64" s="121">
+        <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="41" t="s">
         <v>79</v>
@@ -7830,13 +7407,16 @@
         <v>50</v>
       </c>
       <c r="R64" s="41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="S64" s="101">
         <v>10</v>
       </c>
       <c r="T64" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="U64" t="s">
+        <v>79</v>
       </c>
       <c r="X64" t="s">
         <v>80</v>
@@ -7892,8 +7472,24 @@
       <c r="C65" s="41"/>
       <c r="D65" s="107"/>
       <c r="E65" s="78"/>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="42">
+        <v>250</v>
+      </c>
+      <c r="I65" s="121">
+        <f>ROUND((I66/H66 * H65^3)^(1/3),0)</f>
+        <v>157</v>
+      </c>
       <c r="T65" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="U65" t="s">
+        <v>79</v>
       </c>
       <c r="X65" s="65"/>
       <c r="Y65" s="65"/>
@@ -7914,7 +7510,7 @@
       <c r="AN65" s="66"/>
       <c r="AO65" s="66"/>
       <c r="AP65" s="85"/>
-      <c r="AQ65" s="123"/>
+      <c r="AQ65" s="122"/>
       <c r="AR65" s="65"/>
       <c r="AS65" s="81"/>
       <c r="AT65" s="66"/>
@@ -7927,15 +7523,29 @@
       <c r="BA65" s="66"/>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X66" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y66" s="45"/>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
       <c r="Z66">
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="AB66" t="s">
         <v>2</v>
@@ -7958,13 +7568,13 @@
       <c r="AN66" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AQ66" s="70" t="s">
+      <c r="AQ66" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AR66" s="68">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="91">
+      <c r="AR66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="92">
         <v>50</v>
       </c>
       <c r="AT66" s="17" t="b">
@@ -7993,33 +7603,29 @@
       </c>
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X67" s="45"/>
-      <c r="Y67" s="45"/>
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67"/>
       <c r="AO67"/>
       <c r="AP67" s="77"/>
-      <c r="AQ67" s="70" t="s">
+      <c r="AQ67" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AR67" s="68">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="91">
+      <c r="AR67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="92">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X68" s="45"/>
-      <c r="Y68" s="45"/>
-      <c r="AQ68" s="70" t="s">
+      <c r="AQ68" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AR68" s="68">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="91">
+      <c r="AR68" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AS68" s="92">
         <v>3</v>
       </c>
     </row>
@@ -8043,7 +7649,7 @@
       <c r="AN69" s="66"/>
       <c r="AO69" s="66"/>
       <c r="AP69" s="85"/>
-      <c r="AQ69" s="123"/>
+      <c r="AQ69" s="122"/>
       <c r="AR69" s="65"/>
       <c r="AS69" s="81"/>
       <c r="AT69" s="66"/>
@@ -8056,18 +7662,17 @@
       <c r="BA69" s="66"/>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="X70" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y70" s="45"/>
+      <c r="X70" t="s">
+        <v>98</v>
+      </c>
       <c r="Z70">
         <v>1</v>
       </c>
-      <c r="AA70">
-        <v>200</v>
+      <c r="AA70" s="45">
+        <v>7000</v>
       </c>
       <c r="AB70" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="AC70" t="s">
         <v>96</v>
@@ -8078,6 +7683,9 @@
       <c r="AE70" t="s">
         <v>97</v>
       </c>
+      <c r="AL70" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AN70" s="17" t="b">
         <v>1</v>
       </c>
@@ -8103,193 +7711,358 @@
         <v>2</v>
       </c>
       <c r="BA70" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A71" s="137"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
+      <c r="A71" s="136"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
       <c r="E71" s="120"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="137"/>
-      <c r="H71" s="137"/>
-      <c r="I71" s="137"/>
-      <c r="J71" s="137"/>
-      <c r="K71" s="137"/>
-      <c r="L71" s="137"/>
-      <c r="M71" s="137"/>
-      <c r="N71" s="137"/>
-      <c r="O71" s="138"/>
-      <c r="P71" s="139"/>
-      <c r="Q71" s="137"/>
-      <c r="R71" s="137"/>
-      <c r="S71" s="140"/>
-      <c r="T71" s="137"/>
-      <c r="U71" s="137"/>
-      <c r="V71" s="137"/>
+      <c r="F71" s="136"/>
+      <c r="G71" s="136"/>
+      <c r="H71" s="136"/>
+      <c r="I71" s="136"/>
+      <c r="J71" s="136"/>
+      <c r="K71" s="136"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="136"/>
+      <c r="N71" s="136"/>
+      <c r="O71" s="137"/>
+      <c r="P71" s="138"/>
+      <c r="Q71" s="136"/>
+      <c r="R71" s="136"/>
+      <c r="S71" s="139"/>
+      <c r="T71" s="136"/>
+      <c r="U71" s="136"/>
+      <c r="V71" s="136"/>
       <c r="W71" s="120"/>
-      <c r="X71" s="137"/>
-      <c r="Y71" s="137"/>
-      <c r="Z71" s="137"/>
-      <c r="AA71" s="137"/>
-      <c r="AB71" s="137"/>
-      <c r="AC71" s="137"/>
-      <c r="AD71" s="137"/>
-      <c r="AE71" s="137"/>
-      <c r="AF71" s="137"/>
-      <c r="AG71" s="137"/>
+      <c r="X71" s="136"/>
+      <c r="Y71" s="136"/>
+      <c r="Z71" s="136"/>
+      <c r="AA71" s="136"/>
+      <c r="AB71" s="136"/>
+      <c r="AC71" s="136"/>
+      <c r="AD71" s="136"/>
+      <c r="AE71" s="136"/>
+      <c r="AF71" s="136"/>
+      <c r="AG71" s="136"/>
       <c r="AH71" s="120"/>
-      <c r="AI71" s="137"/>
-      <c r="AJ71" s="137"/>
-      <c r="AK71" s="137"/>
-      <c r="AL71" s="141"/>
-      <c r="AM71" s="141"/>
-      <c r="AN71" s="141"/>
-      <c r="AO71" s="141"/>
-      <c r="AP71" s="142"/>
-      <c r="AQ71" s="143"/>
-      <c r="AR71" s="144"/>
-      <c r="AS71" s="145"/>
-      <c r="AT71" s="141"/>
-      <c r="AU71" s="141"/>
-      <c r="AV71" s="142"/>
-      <c r="AW71" s="137"/>
-      <c r="AX71" s="144"/>
-      <c r="AY71" s="137"/>
-      <c r="AZ71" s="137"/>
-      <c r="BA71" s="141"/>
+      <c r="AI71" s="136"/>
+      <c r="AJ71" s="136"/>
+      <c r="AK71" s="136"/>
+      <c r="AL71" s="140"/>
+      <c r="AM71" s="140"/>
+      <c r="AN71" s="140"/>
+      <c r="AO71" s="140"/>
+      <c r="AP71" s="141"/>
+      <c r="AQ71" s="142"/>
+      <c r="AR71" s="143"/>
+      <c r="AS71" s="144"/>
+      <c r="AT71" s="140"/>
+      <c r="AU71" s="140"/>
+      <c r="AV71" s="141"/>
+      <c r="AW71" s="136"/>
+      <c r="AX71" s="143"/>
+      <c r="AY71" s="136"/>
+      <c r="AZ71" s="136"/>
+      <c r="BA71" s="140"/>
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B72" s="121" t="s">
-        <v>338</v>
+      <c r="B72" s="145" t="s">
+        <v>331</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E72" s="77">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="42">
+        <v>125</v>
+      </c>
+      <c r="I72" s="121">
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="M72">
-        <v>10</v>
-      </c>
-      <c r="N72">
-        <v>10</v>
+      <c r="M72" s="41">
+        <v>20</v>
+      </c>
+      <c r="N72" s="107">
+        <v>1</v>
       </c>
       <c r="O72" s="112">
         <v>50000</v>
       </c>
       <c r="Q72">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S72" s="100">
         <v>10</v>
       </c>
       <c r="T72" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="U72" t="s">
+        <v>79</v>
       </c>
       <c r="X72" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="Z72">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
         <v>0</v>
       </c>
       <c r="AB72" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AC72" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AD72" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="AE72" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF72">
+        <v>20</v>
+      </c>
+      <c r="AG72">
+        <v>4.5</v>
       </c>
       <c r="AH72" s="77" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ72" t="s">
         <v>86</v>
       </c>
       <c r="AK72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL72" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AM72" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN72" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR72" s="20">
-        <v>50</v>
-      </c>
-      <c r="AS72" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX72" s="20">
-        <v>50</v>
-      </c>
-      <c r="AY72" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA72" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR72" s="17"/>
+      <c r="AS72" s="86"/>
+      <c r="AU72" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY72" s="17"/>
+      <c r="AZ72" s="17"/>
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ73" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AR73" s="20">
-        <v>170</v>
-      </c>
-      <c r="AS73" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW73" t="s">
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="42">
+        <v>250</v>
+      </c>
+      <c r="I73" s="121">
+        <f>ROUND((I74/H74 * H73^3)^(1/3),0)</f>
+        <v>157</v>
+      </c>
+      <c r="T73" t="s">
         <v>38</v>
       </c>
-      <c r="AX73" s="20">
+      <c r="U73" t="s">
+        <v>79</v>
+      </c>
+      <c r="X73" s="65"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="65"/>
+      <c r="AB73" s="65"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="81"/>
+      <c r="AI73" s="65"/>
+      <c r="AJ73" s="65"/>
+      <c r="AK73" s="65"/>
+      <c r="AL73" s="66"/>
+      <c r="AM73" s="66"/>
+      <c r="AN73" s="66"/>
+      <c r="AO73" s="66"/>
+      <c r="AP73" s="85"/>
+      <c r="AQ73" s="122"/>
+      <c r="AR73" s="65"/>
+      <c r="AS73" s="81"/>
+      <c r="AT73" s="66"/>
+      <c r="AU73" s="66"/>
+      <c r="AV73" s="85"/>
+      <c r="AW73" s="65"/>
+      <c r="AX73" s="67"/>
+      <c r="AY73" s="65"/>
+      <c r="AZ73" s="65"/>
+      <c r="BA73" s="66"/>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="X74" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>3500</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL74" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="92">
         <v>50</v>
       </c>
-      <c r="AY73" s="17" t="s">
-        <v>125</v>
-      </c>
+      <c r="AT74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV74" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX74" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA74" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75" s="77"/>
+      <c r="AQ75" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR75" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AQ76" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR76" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AS76" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="X77" s="65"/>
+      <c r="Y77" s="65"/>
+      <c r="Z77" s="65"/>
+      <c r="AA77" s="65"/>
+      <c r="AB77" s="65"/>
+      <c r="AC77" s="65"/>
+      <c r="AD77" s="65"/>
+      <c r="AE77" s="65"/>
+      <c r="AF77" s="65"/>
+      <c r="AG77" s="65"/>
+      <c r="AH77" s="81"/>
+      <c r="AI77" s="65"/>
+      <c r="AJ77" s="65"/>
+      <c r="AK77" s="65"/>
+      <c r="AL77" s="66"/>
+      <c r="AM77" s="66"/>
+      <c r="AN77" s="66"/>
+      <c r="AO77" s="66"/>
+      <c r="AP77" s="85"/>
+      <c r="AQ77" s="122"/>
+      <c r="AR77" s="65"/>
+      <c r="AS77" s="81"/>
+      <c r="AT77" s="66"/>
+      <c r="AU77" s="66"/>
+      <c r="AV77" s="85"/>
+      <c r="AW77" s="65"/>
+      <c r="AX77" s="67"/>
+      <c r="AY77" s="65"/>
+      <c r="AZ77" s="65"/>
+      <c r="BA77" s="66"/>
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
@@ -8300,535 +8073,676 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
+      <c r="X78" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="45">
+        <v>7000</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL78" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT78" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX78" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA78" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B65:B68 B14:B21 B33:C54 B5:C11 C21:C23 C65:C67 C57:C59 B61:C62 C14:C18 B56:C56 B64:C64 B69:C75 E69:E75 E14:E18 E61:E62 E56:E59 E64:E67 E33:E54 E5:E11 E21:E23">
-    <cfRule type="cellIs" dxfId="210" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="226" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B32 C24:C29 C32 E32 E24:E29">
-    <cfRule type="cellIs" dxfId="184" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="200" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="164" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13 E12:E13">
-    <cfRule type="cellIs" dxfId="157" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="173" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
-    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32 D24:D29">
-    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AQ66:BA67 AT65:BA65 AQ70:BA70 AT69:BA69 AQ58:BA59 AT57:BA57 AQ62:BA62 AT61:BA61 T35:W38 T46:W46 T69:W70 T59:W59 T32:W32 T27:W29 T74:Z75 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X69:AG69 X65:AG65 X35:AP35 X61:AG61 AB74:AG75 AD22:AZ22 T26:AG26 AH58:AK58 T24:AP24 T57:AG58 AH57:AP57 T71:AG73 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 Z66:AG66 AH65:AP66 Z70:AG70 AH69:AP70 AH71:BA75 AE36:AH36 Z62:AG62 AH61:AP62 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 BA17 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q64:BA64 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q65:W67 F64:O67 Q69:S75 F69:O75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AT57:BA57 T35:W38 T46:W46 T69:W70 T32:W32 T27:W29 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X35:AP35 AD22:AZ22 T26:AG26 T24:AP24 T57:AP57 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 T71:BA71 AE36:AH36 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 BA17 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q66:W67 F67:O67 Q69:S75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19 T58:W59 T74:W75 F69:O71 J64:O66 F75:O75 J72:O74 Q64:S65 V64:W65 V72:W73">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AA15">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AK15">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AD15">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:AB33">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:AA34">
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34:AK34">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34:AD34">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW34:BA34">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17:BA18 AQ19 X17:AA17">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z44:AA44">
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI44:AK44">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB44:AD44">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW44:BA44">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48:AA48">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI48:AK48">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB48:AD48">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW48:BA48">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z40:AA40">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI40:AK40">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40:AD40">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW40:BA40">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:AA23">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23:AK23">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:AD23">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ68">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE44">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE40">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X70:Y70">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC36 X36:Y36">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36:AA36 AL36:AP36">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AK36">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36:AD36">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ60 AL58:AP58">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X62:Y62">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X66:Y66">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH44">
+    <cfRule type="cellIs" dxfId="80" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H13">
+    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I11 H8">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H13">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AA21 AC21:BA21">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38:Z38 AC38:BA38">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X42:Z42 AC42:BA42">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X46:Z46 AC46:BA46">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:BA14">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K13">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:K5">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12:BA12 AQ13:BA13">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ11">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA11">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 BA28 AT28:AV29">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW28:BA29 X28:AA28">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32:AA32 AC32:BA32">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ50:AV51 AT49:BA49 X49:AG49 AC50:AG50 AH49:AP50 X53:AP53 AT53:BA53 BA50">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW50:BA51 AQ52 X50:AA50">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB50">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X54:AA54 AC54:BA54">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU23">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU40">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU48">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ29:AS29">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB62">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ58:AV59 AC58:AP58 X61:AP61 AT61:BA61 BA58">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW58:BA59 AQ60 X58:AA58">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB58">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X62:AA62 AC62:BA62">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT65:BA65 X65:AP65 X64:BA64">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB70">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ66:AV67 AC66:AP66 X69:AP69 AT69:BA69 BA66">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW66:BA67 AQ68 X66:AA66">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB66">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X70:AA70 AC70:BA70">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT73:BA73 X73:AP73 X72:BA72">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB78">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ74:AV75 AC74:AP74 X77:AP77 AT77:BA77 BA74">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW74:BA75 AQ76 X74:AA74">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB74">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X78:AA78 AC78:BA78">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:H66">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I66">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:H74">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I74">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T64:U65">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T72:U73">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8843,12 +8757,12 @@
   <dimension ref="A2:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -8856,47 +8770,47 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
       <c r="Q4" s="29" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>134</v>
+      <c r="C5" t="s">
+        <v>127</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8906,8 +8820,8 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>135</v>
+      <c r="C6" t="s">
+        <v>128</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8917,31 +8831,46 @@
       <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>136</v>
+      <c r="C7" t="s">
+        <v>129</v>
       </c>
       <c r="T7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
       <c r="T8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
       <c r="T9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
       <c r="T10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
       <c r="T11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -8958,119 +8887,149 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>341</v>
+      </c>
       <c r="T15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
       <c r="T16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
       <c r="T17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>336</v>
+      </c>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="T20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9079,34 +9038,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9115,28 +9074,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20" x14ac:dyDescent="0.3">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9177,7 +9136,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9203,12 +9162,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9248,7 +9207,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>103</v>
@@ -9260,12 +9219,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9280,12 +9239,12 @@
         <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>103</v>
@@ -9296,7 +9255,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9322,7 +9281,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -9333,7 +9292,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -9344,7 +9303,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9352,7 +9311,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9373,13 +9332,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9387,22 +9346,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9417,12 +9376,12 @@
         <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9437,7 +9396,7 @@
         <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9463,10 +9422,10 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9480,7 +9439,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9505,10 +9464,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9517,45 +9476,45 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -9563,7 +9522,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9626,7 +9585,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9651,7 +9610,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9692,7 +9651,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9707,7 +9666,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>58</v>
@@ -9731,7 +9690,7 @@
         <v>63</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -9762,7 +9721,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9782,7 +9741,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9800,7 +9759,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>81</v>
@@ -9827,10 +9786,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>85</v>
@@ -9845,10 +9804,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9890,7 +9849,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -9908,7 +9867,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9996,7 +9955,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10143,7 +10102,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>81</v>
@@ -10155,7 +10114,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>81</v>
@@ -10167,7 +10126,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>85</v>
@@ -10182,45 +10141,45 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
@@ -10273,16 +10232,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10317,7 +10276,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10429,7 +10388,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10444,33 +10403,33 @@
         <v>96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10497,7 +10456,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10509,13 +10468,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>86</v>
@@ -10551,13 +10510,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10567,7 +10526,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10589,13 +10548,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10605,7 +10564,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10694,37 +10653,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10750,19 +10709,19 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -10776,16 +10735,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -10796,10 +10755,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
@@ -10807,7 +10766,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10819,7 +10778,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10869,19 +10828,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
@@ -10889,16 +10848,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>87</v>
@@ -10907,15 +10866,15 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -10926,7 +10885,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10940,7 +10899,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -10994,226 +10953,226 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -11234,72 +11193,72 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -11312,86 +11271,86 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -11404,72 +11363,72 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -11490,16 +11449,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -11512,226 +11471,226 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11744,86 +11703,86 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11844,44 +11803,44 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12C3A974-F46A-4C2E-83C9-30A63C58D94D}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{192A1152-185F-4EFB-9237-B5B534F84DAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10452" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -2010,7 +2010,105 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="146">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3731,7 +3829,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4201,9 +4299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK1" sqref="X1:AK1048576"/>
+      <selection pane="bottomLeft" activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5010,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="BA11" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
@@ -5101,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="BA13" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
@@ -5155,7 +5253,7 @@
         <v>99</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>79</v>
@@ -5332,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="BA17" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:53" x14ac:dyDescent="0.3">
@@ -5447,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="BA21" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="10:53" x14ac:dyDescent="0.3">
@@ -5501,7 +5599,7 @@
         <v>100</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="45" t="s">
         <v>79</v>
@@ -5792,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="BA28" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:53" x14ac:dyDescent="0.3">
@@ -5887,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="BA32" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:53" x14ac:dyDescent="0.3">
@@ -6179,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="BA38" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:53" x14ac:dyDescent="0.3">
@@ -6382,7 +6480,7 @@
         <v>2</v>
       </c>
       <c r="BA42" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:53" x14ac:dyDescent="0.3">
@@ -6585,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="BA46" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:53" x14ac:dyDescent="0.3">
@@ -6820,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="BA50" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.3">
@@ -6932,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="BA54" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7191,7 +7289,7 @@
         <v>2</v>
       </c>
       <c r="BA58" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.3">
@@ -7303,7 +7401,7 @@
         <v>2</v>
       </c>
       <c r="BA62" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7599,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="BA66" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.3">
@@ -8002,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="BA74" s="17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.3">
@@ -8127,622 +8225,692 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B65:B68 B14:B21 B33:C54 B5:C11 C21:C23 C65:C67 C57:C59 B61:C62 C14:C18 B56:C56 B64:C64 B69:C75 E69:E75 E14:E18 E61:E62 E56:E59 E64:E67 E33:E54 E5:E11 E21:E23">
-    <cfRule type="cellIs" dxfId="131" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="240" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B32 C24:C29 C32 E32 E24:E29">
-    <cfRule type="cellIs" dxfId="130" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="214" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="129" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="194" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13 E12:E13">
-    <cfRule type="cellIs" dxfId="128" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="187" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
+    <cfRule type="cellIs" dxfId="141" priority="139" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32 D24:D29">
+    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AT57:BA57 T35:W38 T46:W46 T69:W70 T32:W32 T27:W29 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X35:AP35 AD22:AZ22 T26:AG26 T24:AP24 T57:AP57 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 T71:BA71 AE36:AH36 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q66:W67 F67:O67 Q69:S75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19 T58:W59 T74:W75 F69:O71 J64:O66 F75:O75 J72:O74 Q64:S65 V64:W65 V72:W73">
+    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:AA15">
+    <cfRule type="cellIs" dxfId="137" priority="135" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI15:AK15">
+    <cfRule type="cellIs" dxfId="135" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15:AD15">
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z33:AB33">
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z34:AA34">
+    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI34:AK34">
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34:AD34">
+    <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW34:BA34">
+    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW18:BA18 AQ19 X17:AA17 AW17:AZ17">
     <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 D24:D29">
+  <conditionalFormatting sqref="Z44:AA44">
     <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="AH44">
     <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AT57:BA57 T35:W38 T46:W46 T69:W70 T32:W32 T27:W29 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X35:AP35 AD22:AZ22 T26:AG26 T24:AP24 T57:AP57 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 T71:BA71 AE36:AH36 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 BA17 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q66:W67 F67:O67 Q69:S75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19 T58:W59 T74:W75 F69:O71 J64:O66 F75:O75 J72:O74 Q64:S65 V64:W65 V72:W73">
+  <conditionalFormatting sqref="AI44:AK44">
     <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:AA15">
+  <conditionalFormatting sqref="AB44:AD44">
     <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
+  <conditionalFormatting sqref="AW44:BA44">
     <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI15:AK15">
+  <conditionalFormatting sqref="Z48:AA48">
     <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AD15">
+  <conditionalFormatting sqref="AI48:AK48">
     <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z33:AB33">
+  <conditionalFormatting sqref="AB48:AD48">
     <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z34:AA34">
+  <conditionalFormatting sqref="AW48:BA48">
     <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
+  <conditionalFormatting sqref="Z40:AA40">
     <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI34:AK34">
+  <conditionalFormatting sqref="AH40">
     <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AD34">
+  <conditionalFormatting sqref="AI40:AK40">
     <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW34:BA34">
+  <conditionalFormatting sqref="AB40:AD40">
     <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW17:BA18 AQ19 X17:AA17">
+  <conditionalFormatting sqref="AW40:BA40">
     <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:AA44">
+  <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
     <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AA23">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI23:AK23">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB23:AD23">
+    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17">
+    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE44">
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="103" priority="100" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH48">
+    <cfRule type="cellIs" dxfId="101" priority="98" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH48">
+    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC36 X36:Y36">
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36:AA36 AL36:AP36">
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36:AK36">
+    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36:AD36">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI44:AK44">
-    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44:AD44">
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW44:BA44">
-    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48:AA48">
-    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI48:AK48">
-    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB48:AD48">
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW48:BA48">
-    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z40:AA40">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="85" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H13">
+    <cfRule type="cellIs" dxfId="93" priority="84" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I11 H8">
+    <cfRule type="cellIs" dxfId="92" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI40:AK40">
-    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB40:AD40">
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW40:BA40">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
-    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:AA23">
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="96" priority="94" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI23:AK23">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB23:AD23">
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB17">
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE44">
-    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE40">
-    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36 X36:Y36">
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36:AA36 AL36:AP36">
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36:AK36">
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AD36">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="80" priority="71" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H13">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I11 H8">
-    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21:AA21 AC21:BA21">
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21:AA21 AC21:AZ21">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:Z38 AC38:BA38">
+    <cfRule type="cellIs" dxfId="87" priority="80" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42:Z42 AC42:AZ42">
+    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB42">
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X46:Z46 AC46:AZ46">
+    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB46">
+    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14:BA14">
+    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:K13">
+    <cfRule type="cellIs" dxfId="79" priority="72" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT12:BA12 AQ13:AZ13">
+    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ11">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA10 AT11:AZ11">
+    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 AT28:AV29">
     <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38:Z38 AC38:BA38">
+  <conditionalFormatting sqref="AW29:BA29 X28:AA28 AW28:AZ28">
     <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB38">
+  <conditionalFormatting sqref="AB28">
     <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Z42 AC42:BA42">
+  <conditionalFormatting sqref="X32:AA32 AC32:AZ32">
     <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB42">
+  <conditionalFormatting sqref="AB32">
     <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X46:Z46 AC46:BA46">
+  <conditionalFormatting sqref="AQ50:AV51 AT49:BA49 X49:AG49 AC50:AG50 AH49:AP50 X53:AP53 AT53:BA53">
     <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB46">
+  <conditionalFormatting sqref="AW51:BA51 AQ52 X50:AA50 AW50:AZ50">
     <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD14:BA14">
+  <conditionalFormatting sqref="AB50">
     <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
+  <conditionalFormatting sqref="X54:AA54 AC54:AZ54">
     <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K13">
+  <conditionalFormatting sqref="AB54">
     <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
+  <conditionalFormatting sqref="AU15">
     <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT12:BA12 AQ13:BA13">
-    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ11">
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA11">
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 BA28 AT28:AV29">
+  <conditionalFormatting sqref="AU23">
+    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU40">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU44">
+    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU48">
     <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW28:BA29 X28:AA28">
+  <conditionalFormatting sqref="O15">
     <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB28">
+  <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X32:AA32 AC32:BA32">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ50:AV51 AT49:BA49 X49:AG49 AC50:AG50 AH49:AP50 X53:AP53 AT53:BA53 BA50">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW50:BA51 AQ52 X50:AA50">
-    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB50">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X54:AA54 AC54:BA54">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB54">
+  <conditionalFormatting sqref="O56">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44">
+    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O64">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O40">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
     <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
+  <conditionalFormatting sqref="AQ30">
     <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU23">
+  <conditionalFormatting sqref="AQ29:AS29">
     <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU40">
+  <conditionalFormatting sqref="AQ28">
     <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU44">
+  <conditionalFormatting sqref="AA38">
     <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU48">
+  <conditionalFormatting sqref="AA42">
     <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
+  <conditionalFormatting sqref="AA46">
     <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29:AS29">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA38">
+  <conditionalFormatting sqref="AB62">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ58:AV59 AC58:AP58 X61:AP61 AT61:BA61">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW59:BA59 AQ60 X58:AA58 AW58:AZ58">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB58">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X62:AA62 AC62:AZ62">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT65:BA65 X65:AP65 X64:BA64">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB70">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ66:AV67 AC66:AP66 X69:AP69 AT69:BA69">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW67:BA67 AQ68 X66:AA66 AW66:AZ66">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB66">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X70:AA70 AC70:BA70">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT73:BA73 X73:AP73 X72:BA72">
     <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA46">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB62">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ58:AV59 AC58:AP58 X61:AP61 AT61:BA61 BA58">
+  <conditionalFormatting sqref="AB78">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ74:AV75 AC74:AP74 X77:AP77 AT77:BA77">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW75:BA75 AQ76 X74:AA74 AW74:AZ74">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB74">
     <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW58:BA59 AQ60 X58:AA58">
+  <conditionalFormatting sqref="X78:AA78 AC78:BA78">
     <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB58">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X62:AA62 AC62:BA62">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT65:BA65 X65:AP65 X64:BA64">
+  <conditionalFormatting sqref="F64:H66">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I66">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:H74">
     <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB70">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ66:AV67 AC66:AP66 X69:AP69 AT69:BA69 BA66">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW66:BA67 AQ68 X66:AA66">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB66">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X70:AA70 AC70:BA70">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT73:BA73 X73:AP73 X72:BA72">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB78">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ74:AV75 AC74:AP74 X77:AP77 AT77:BA77 BA74">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW74:BA75 AQ76 X74:AA74">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB74">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X78:AA78 AC78:BA78">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64:H66">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I66">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:H74">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I72:I74">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T64:U65">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T72:U73">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA42">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA74">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA66">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA62">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA58">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA54">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA50">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA46">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA28">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA21">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10653,37 +10821,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{192A1152-185F-4EFB-9237-B5B534F84DAF}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A10FE96E-0F64-4A2F-B835-441A8477A789}"/>
   <bookViews>
-    <workbookView xWindow="10452" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3386,7 +3386,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3400,7 +3400,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3414,16 +3414,16 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -3447,17 +3447,17 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>187</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>270</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>273</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>276</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>280</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>282</v>
       </c>
@@ -3535,22 +3535,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>288</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>187</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>271</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>278</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>291</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>285</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>271</v>
       </c>
@@ -3682,27 +3682,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>296</v>
       </c>
@@ -3747,23 +3747,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>299</v>
       </c>
@@ -3771,17 +3771,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -3789,12 +3789,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>306</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>308</v>
       </c>
@@ -3829,7 +3829,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3846,20 +3846,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3869,7 +3869,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>313</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>316</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>320</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>322</v>
@@ -3951,7 +3951,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>321</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>324</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>323</v>
       </c>
@@ -3988,12 +3988,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>295</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>326</v>
       </c>
@@ -4013,12 +4013,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
         <v>315</v>
       </c>
@@ -4037,34 +4037,34 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -4299,62 +4299,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:BA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU16" sqref="AU16"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="77" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="112" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="112" customWidth="1"/>
     <col min="16" max="16" width="6" style="114" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="100" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="77" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" customWidth="1"/>
-    <col min="34" max="34" width="23.5546875" style="77" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="100" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" style="77" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" style="77" customWidth="1"/>
     <col min="35" max="35" width="12" customWidth="1"/>
-    <col min="36" max="37" width="11.5546875" customWidth="1"/>
-    <col min="38" max="41" width="8.88671875" style="17" customWidth="1"/>
-    <col min="42" max="42" width="8.88671875" style="86" customWidth="1"/>
-    <col min="43" max="43" width="17.88671875" style="71" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" style="20" customWidth="1"/>
-    <col min="45" max="45" width="14.44140625" style="92" customWidth="1"/>
-    <col min="46" max="47" width="8.88671875" style="17" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="86" customWidth="1"/>
-    <col min="49" max="49" width="17.88671875" customWidth="1"/>
-    <col min="50" max="50" width="8.88671875" style="20" customWidth="1"/>
-    <col min="51" max="51" width="16.33203125" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.5703125" customWidth="1"/>
+    <col min="38" max="41" width="8.85546875" style="17" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" style="86" customWidth="1"/>
+    <col min="43" max="43" width="17.85546875" style="71" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" style="20" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="92" customWidth="1"/>
+    <col min="46" max="47" width="8.85546875" style="17" customWidth="1"/>
+    <col min="48" max="48" width="8.85546875" style="86" customWidth="1"/>
+    <col min="49" max="49" width="17.85546875" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" style="20" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" customWidth="1"/>
+    <col min="52" max="52" width="8.85546875" customWidth="1"/>
+    <col min="53" max="53" width="16.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -4423,7 +4423,7 @@
       <c r="AZ1" s="64"/>
       <c r="BA1" s="21"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -4512,7 +4512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4728,7 +4728,7 @@
       <c r="AZ4" s="59"/>
       <c r="BA4" s="61"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B5" s="145" t="s">
         <v>331</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="AY5" s="17"/>
       <c r="AZ5" s="17"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>38</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="AY6" s="17"/>
       <c r="AZ6" s="17"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>37</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="AZ7" s="65"/>
       <c r="BA7" s="66"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X8" t="s">
         <v>89</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AQ9" s="70" t="s">
         <v>38</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X10" s="65"/>
       <c r="Y10" s="65"/>
       <c r="Z10" s="65"/>
@@ -5043,7 +5043,7 @@
       <c r="AZ10" s="65"/>
       <c r="BA10" s="66"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X11" t="s">
         <v>95</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X12" s="65"/>
       <c r="Y12" s="65"/>
       <c r="Z12" s="65"/>
@@ -5143,7 +5143,7 @@
       <c r="AZ12" s="65"/>
       <c r="BA12" s="66"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X13" t="s">
         <v>98</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="J14" s="123"/>
       <c r="K14" s="123"/>
       <c r="L14" s="123"/>
@@ -5248,12 +5248,12 @@
       <c r="AZ14" s="123"/>
       <c r="BA14" s="128"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>99</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>79</v>
@@ -5293,7 +5293,7 @@
         <v>0.96</v>
       </c>
       <c r="AA15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="s">
         <v>51</v>
@@ -5333,7 +5333,7 @@
       <c r="AY15" s="17"/>
       <c r="AZ15" s="17"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X16" s="65"/>
       <c r="Y16" s="65"/>
       <c r="Z16" s="65"/>
@@ -5365,7 +5365,7 @@
       <c r="AZ16" s="65"/>
       <c r="BA16" s="66"/>
     </row>
-    <row r="17" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X17" t="s">
         <v>95</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:53" x14ac:dyDescent="0.25">
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
@@ -5449,7 +5449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:53" x14ac:dyDescent="0.25">
       <c r="AQ19" s="71" t="s">
         <v>37</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
@@ -5492,7 +5492,7 @@
       <c r="AZ20" s="65"/>
       <c r="BA20" s="66"/>
     </row>
-    <row r="21" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X21" t="s">
         <v>98</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J22" s="123"/>
       <c r="K22" s="123"/>
       <c r="L22" s="123"/>
@@ -5594,12 +5594,12 @@
       <c r="AZ22" s="123"/>
       <c r="BA22" s="128"/>
     </row>
-    <row r="23" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="45" t="s">
         <v>79</v>
@@ -5682,7 +5682,7 @@
       <c r="AY23" s="17"/>
       <c r="AZ23" s="17"/>
     </row>
-    <row r="24" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
@@ -5714,7 +5714,7 @@
       <c r="AZ24" s="65"/>
       <c r="BA24" s="66"/>
     </row>
-    <row r="25" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X25" t="s">
         <v>101</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:53" x14ac:dyDescent="0.25">
       <c r="AQ26" s="70" t="s">
         <v>38</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X27" s="65"/>
       <c r="Y27" s="65"/>
       <c r="Z27" s="65"/>
@@ -5825,7 +5825,7 @@
       <c r="AZ27" s="65"/>
       <c r="BA27" s="66"/>
     </row>
-    <row r="28" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X28" t="s">
         <v>95</v>
       </c>
@@ -5893,14 +5893,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:53" x14ac:dyDescent="0.25">
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29" s="77"/>
     </row>
-    <row r="31" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X31" s="65"/>
       <c r="Y31" s="65"/>
       <c r="Z31" s="65"/>
@@ -5932,7 +5932,7 @@
       <c r="AZ31" s="65"/>
       <c r="BA31" s="66"/>
     </row>
-    <row r="32" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X32" t="s">
         <v>98</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J33" s="123"/>
       <c r="K33" s="123"/>
       <c r="L33" s="123"/>
@@ -6034,7 +6034,7 @@
       <c r="AZ33" s="123"/>
       <c r="BA33" s="128"/>
     </row>
-    <row r="34" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>102</v>
       </c>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="AV34" s="105"/>
     </row>
-    <row r="35" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X35" s="65"/>
       <c r="Y35" s="65"/>
       <c r="Z35" s="65"/>
@@ -6141,7 +6141,7 @@
       <c r="AZ35" s="65"/>
       <c r="BA35" s="66"/>
     </row>
-    <row r="36" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X36" t="s">
         <v>104</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="AY36" s="17"/>
       <c r="AZ36" s="17"/>
     </row>
-    <row r="37" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X37" s="65"/>
       <c r="Y37" s="65"/>
       <c r="Z37" s="65"/>
@@ -6224,7 +6224,7 @@
       <c r="AZ37" s="65"/>
       <c r="BA37" s="66"/>
     </row>
-    <row r="38" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X38" t="s">
         <v>98</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J39" s="123"/>
       <c r="K39" s="123"/>
       <c r="L39" s="123"/>
@@ -6326,7 +6326,7 @@
       <c r="AZ39" s="123"/>
       <c r="BA39" s="128"/>
     </row>
-    <row r="40" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
         <v>106</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X41" s="65"/>
       <c r="Y41" s="65"/>
       <c r="Z41" s="65"/>
@@ -6427,7 +6427,7 @@
       <c r="AZ41" s="65"/>
       <c r="BA41" s="66"/>
     </row>
-    <row r="42" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X42" t="s">
         <v>98</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J43" s="123"/>
       <c r="K43" s="123"/>
       <c r="L43" s="123"/>
@@ -6529,7 +6529,7 @@
       <c r="AZ43" s="123"/>
       <c r="BA43" s="128"/>
     </row>
-    <row r="44" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>107</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X45" s="65"/>
       <c r="Y45" s="65"/>
       <c r="Z45" s="65"/>
@@ -6630,7 +6630,7 @@
       <c r="AZ45" s="65"/>
       <c r="BA45" s="66"/>
     </row>
-    <row r="46" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:53" x14ac:dyDescent="0.25">
       <c r="X46" t="s">
         <v>98</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J47" s="123"/>
       <c r="K47" s="123"/>
       <c r="L47" s="123"/>
@@ -6732,7 +6732,7 @@
       <c r="AZ47" s="123"/>
       <c r="BA47" s="128"/>
     </row>
-    <row r="48" spans="10:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>108</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="T49" t="s">
         <v>38</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="AZ49" s="65"/>
       <c r="BA49" s="66"/>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D50" s="107"/>
       <c r="E50" s="78"/>
       <c r="X50" t="s">
@@ -6921,7 +6921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AL51"/>
       <c r="AM51"/>
       <c r="AN51"/>
@@ -6937,7 +6937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AQ52" s="71" t="s">
         <v>37</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X53" s="65"/>
       <c r="Y53" s="65"/>
       <c r="Z53" s="65"/>
@@ -6980,7 +6980,7 @@
       <c r="AZ53" s="65"/>
       <c r="BA53" s="66"/>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X54" t="s">
         <v>98</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -7088,7 +7088,7 @@
       <c r="AZ55" s="59"/>
       <c r="BA55" s="61"/>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B56" s="145" t="s">
         <v>343</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="AY56" s="17"/>
       <c r="AZ56" s="17"/>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C57" s="41"/>
       <c r="D57" s="107"/>
       <c r="E57" s="78"/>
@@ -7224,7 +7224,7 @@
       <c r="AZ57" s="65"/>
       <c r="BA57" s="66"/>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X58" t="s">
         <v>95</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AL59"/>
       <c r="AM59"/>
       <c r="AN59"/>
@@ -7308,7 +7308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AQ60" s="71" t="s">
         <v>37</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X61" s="65"/>
       <c r="Y61" s="65"/>
       <c r="Z61" s="65"/>
@@ -7351,7 +7351,7 @@
       <c r="AZ61" s="65"/>
       <c r="BA61" s="66"/>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X62" t="s">
         <v>98</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -7459,7 +7459,7 @@
       <c r="AZ63" s="59"/>
       <c r="BA63" s="61"/>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B64" s="145" t="s">
         <v>331</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="AY64" s="17"/>
       <c r="AZ64" s="17"/>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C65" s="41"/>
       <c r="D65" s="107"/>
       <c r="E65" s="78"/>
@@ -7620,7 +7620,7 @@
       <c r="AZ65" s="65"/>
       <c r="BA65" s="66"/>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67"/>
@@ -7716,7 +7716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AQ68" s="71" t="s">
         <v>37</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X69" s="65"/>
       <c r="Y69" s="65"/>
       <c r="Z69" s="65"/>
@@ -7759,7 +7759,7 @@
       <c r="AZ69" s="65"/>
       <c r="BA69" s="66"/>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X70" t="s">
         <v>98</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" s="136"/>
       <c r="B71" s="136"/>
       <c r="C71" s="136"/>
@@ -7867,7 +7867,7 @@
       <c r="AZ71" s="136"/>
       <c r="BA71" s="140"/>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B72" s="145" t="s">
         <v>331</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="AY72" s="17"/>
       <c r="AZ72" s="17"/>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>38</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="AZ73" s="65"/>
       <c r="BA73" s="66"/>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>37</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AL75"/>
       <c r="AM75"/>
       <c r="AN75"/>
@@ -8119,7 +8119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AQ76" s="71" t="s">
         <v>37</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X77" s="65"/>
       <c r="Y77" s="65"/>
       <c r="Z77" s="65"/>
@@ -8162,7 +8162,7 @@
       <c r="AZ77" s="65"/>
       <c r="BA77" s="66"/>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -8850,67 +8850,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA74">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA66">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA62">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA58">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA54">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA50">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA46">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA32">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA28">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8928,14 +8928,14 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>119</v>
@@ -8950,7 +8950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>127</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>128</v>
       </c>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>129</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>332</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>334</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>335</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>336</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -9049,12 +9049,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>338</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>341</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>334</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>333</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>339</v>
       </c>
@@ -9112,7 +9112,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>336</v>
       </c>
@@ -9123,78 +9123,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>150</v>
@@ -9202,7 +9202,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -9210,13 +9210,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -9224,13 +9224,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>154</v>
@@ -9238,7 +9238,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -9246,13 +9246,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>157</v>
@@ -9280,20 +9280,20 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>79</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -9477,7 +9477,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -9512,22 +9512,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -9581,14 +9581,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>177</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>180</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>185</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>186</v>
       </c>
@@ -9713,33 +9713,33 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="9.109375" style="17"/>
-    <col min="22" max="22" width="2.88671875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.44140625" style="54" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="17"/>
-    <col min="30" max="30" width="2.44140625" style="51" customWidth="1"/>
-    <col min="31" max="31" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.44140625" style="48" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="17"/>
+    <col min="22" max="22" width="2.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.42578125" style="54" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="17"/>
+    <col min="30" max="30" width="2.42578125" style="51" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9776,7 +9776,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>188</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -10015,7 +10015,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>195</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -10104,7 +10104,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -10121,7 +10121,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>197</v>
       </c>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -10207,7 +10207,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -10234,7 +10234,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -10250,7 +10250,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -10265,7 +10265,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>101</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10442,7 +10442,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>200</v>
       </c>
@@ -10492,7 +10492,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10510,7 +10510,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10552,7 +10552,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -10606,7 +10606,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10622,7 +10622,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>116</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10752,7 +10752,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10768,7 +10768,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10784,7 +10784,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10800,7 +10800,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10816,42 +10816,42 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10868,14 +10868,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>195</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>197</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>195</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>113</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>112</v>
       </c>
@@ -11092,14 +11092,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11107,7 +11107,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>209</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>209</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>209</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>209</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>209</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>209</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>209</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>209</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>209</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>209</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>209</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>209</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>209</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>224</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>224</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>209</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>227</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>227</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>227</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>227</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>227</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>234</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>234</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>234</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>238</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>238</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>239</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>241</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>241</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>241</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>245</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>245</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>246</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>247</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>247</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>249</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>249</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>249</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>252</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>252</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>252</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>252</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>252</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>254</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>254</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>254</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>254</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>255</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>255</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>256</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>256</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>257</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>257</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>257</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>257</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>258</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>259</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>259</v>
       </c>

--- a/data/inputs/Asset Model.xlsx
+++ b/data/inputs/Asset Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A10FE96E-0F64-4A2F-B835-441A8477A789}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE438440-FFDD-430D-963D-C246218CB72D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     Removed to solve timeline error when method wasn't actuall called anywhere</t>
       </text>
     </comment>
-    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
+    <comment ref="D42" authorId="5" shapeId="0" xr:uid="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +159,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="E50" authorId="6" shapeId="0" xr:uid="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
+    <comment ref="E42" authorId="6" shapeId="0" xr:uid="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
+    <comment ref="D48" authorId="7" shapeId="0" xr:uid="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="E56" authorId="8" shapeId="0" xr:uid="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
+    <comment ref="E48" authorId="8" shapeId="0" xr:uid="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="J56" authorId="9" shapeId="0" xr:uid="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
+    <comment ref="J48" authorId="9" shapeId="0" xr:uid="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +191,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AE56" authorId="10" shapeId="0" xr:uid="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
+    <comment ref="AE48" authorId="10" shapeId="0" xr:uid="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="D64" authorId="11" shapeId="0" xr:uid="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
+    <comment ref="D56" authorId="11" shapeId="0" xr:uid="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +208,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="E64" authorId="12" shapeId="0" xr:uid="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
+    <comment ref="E56" authorId="12" shapeId="0" xr:uid="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +216,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="H64" authorId="13" shapeId="0" xr:uid="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
+    <comment ref="H56" authorId="13" shapeId="0" xr:uid="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,7 +224,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{7B0B83F0-61FA-4F0B-9CDD-261CF0545E69}">
+    <comment ref="I56" authorId="1" shapeId="0" xr:uid="{7B0B83F0-61FA-4F0B-9CDD-261CF0545E69}">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE64" authorId="14" shapeId="0" xr:uid="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
+    <comment ref="AE56" authorId="14" shapeId="0" xr:uid="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -259,7 +259,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="H65" authorId="15" shapeId="0" xr:uid="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
+    <comment ref="H57" authorId="15" shapeId="0" xr:uid="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -267,7 +267,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{A07687BF-C932-432E-896F-0B27273ABB7C}">
+    <comment ref="I57" authorId="1" shapeId="0" xr:uid="{A07687BF-C932-432E-896F-0B27273ABB7C}">
       <text>
         <r>
           <rPr>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H72" authorId="16" shapeId="0" xr:uid="{6103E75D-7D67-447D-B13A-930BDA30E576}">
+    <comment ref="H64" authorId="16" shapeId="0" xr:uid="{6103E75D-7D67-447D-B13A-930BDA30E576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -300,7 +300,7 @@
     125</t>
       </text>
     </comment>
-    <comment ref="I72" authorId="1" shapeId="0" xr:uid="{BE06AF88-4741-44CE-BAE4-7CA601E92673}">
+    <comment ref="I64" authorId="1" shapeId="0" xr:uid="{BE06AF88-4741-44CE-BAE4-7CA601E92673}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J72" authorId="17" shapeId="0" xr:uid="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
+    <comment ref="J64" authorId="17" shapeId="0" xr:uid="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -334,7 +334,7 @@
     Create error catch for this method</t>
       </text>
     </comment>
-    <comment ref="AE72" authorId="18" shapeId="0" xr:uid="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
+    <comment ref="AE64" authorId="18" shapeId="0" xr:uid="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -343,7 +343,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="H73" authorId="19" shapeId="0" xr:uid="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
+    <comment ref="H65" authorId="19" shapeId="0" xr:uid="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -351,7 +351,7 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="I73" authorId="1" shapeId="0" xr:uid="{A214C7C3-39E0-43D0-8B43-3117F2ABD2C5}">
+    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{A214C7C3-39E0-43D0-8B43-3117F2ABD2C5}">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="342">
   <si>
     <t>Cause</t>
   </si>
@@ -693,12 +693,6 @@
   </si>
   <si>
     <t>step</t>
-  </si>
-  <si>
-    <t>inspection_protection</t>
-  </si>
-  <si>
-    <t>protection</t>
   </si>
   <si>
     <t>fire_damage</t>
@@ -1422,7 +1416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1513,13 +1507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1533,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1659,12 +1646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1733,7 +1714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1928,18 +1909,6 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1955,7 +1924,7 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1980,8 +1949,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2010,196 +1977,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="146">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <fill>
         <patternFill>
@@ -3327,52 +3105,52 @@
   <threadedComment ref="F8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{02C85130-C6E5-4982-87FC-04B79F2E2693}">
     <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
   </threadedComment>
-  <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
+  <threadedComment ref="D42" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F772331A-CC2B-4B36-928E-ADF8B1B87D78}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="E50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
+  <threadedComment ref="E42" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6F9C7558-2488-4B35-9A88-BB19AC96E38D}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
+  <threadedComment ref="D48" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2D585846-AAEB-47E7-B476-A4251DE27C2D}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="E56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
+  <threadedComment ref="E48" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F78876A4-21B8-4D9C-B889-EECA67BBC883}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="J56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
+  <threadedComment ref="J48" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D236BACF-88CC-4D73-8C4C-40634727E7E3}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AE56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
+  <threadedComment ref="AE48" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B0CCB245-20EF-4216-B8C2-C52E3AE2A4D3}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
+  <threadedComment ref="D56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{896933EB-2D07-46B7-874F-3B074D4F0E8B}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="E64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
+  <threadedComment ref="E56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DDEEA5E8-2AA9-4995-8434-3EF3B3569035}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="H64" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
+  <threadedComment ref="H56" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{089C303A-B9D4-423D-A9AC-D6A325AD4252}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AE64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
+  <threadedComment ref="AE56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A4EEE42-9693-4528-930C-B5064BD92B16}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="H65" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
+  <threadedComment ref="H57" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6A844278-701B-41D9-A11C-6F3454BAFBAE}">
     <text>250 mm</text>
   </threadedComment>
-  <threadedComment ref="H72" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6103E75D-7D67-447D-B13A-930BDA30E576}">
+  <threadedComment ref="H64" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{6103E75D-7D67-447D-B13A-930BDA30E576}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="J72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
+  <threadedComment ref="J64" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B500928C-BCD7-432B-8C46-EA7CF6B62AB4}">
     <text>Create error catch for this method</text>
   </threadedComment>
-  <threadedComment ref="AE72" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
+  <threadedComment ref="AE64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{8FA7CA72-7B6E-425E-9941-BF5BB2F187A6}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="H73" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
+  <threadedComment ref="H65" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{79BCC1CA-4B92-40C1-9937-EBC4E3DF212C}">
     <text>250 mm</text>
   </threadedComment>
 </ThreadedComments>
@@ -3425,134 +3203,134 @@
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>160</v>
+      </c>
+      <c r="S13" t="s">
         <v>270</v>
-      </c>
-      <c r="O13" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>162</v>
-      </c>
-      <c r="S13" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>272</v>
+      </c>
+      <c r="S14" t="s">
         <v>273</v>
-      </c>
-      <c r="O14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>274</v>
-      </c>
-      <c r="S14" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+      <c r="O15" t="s">
         <v>276</v>
       </c>
-      <c r="J15" t="s">
+      <c r="Q15" t="s">
         <v>277</v>
       </c>
-      <c r="O15" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>279</v>
-      </c>
       <c r="S15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q16" t="s">
         <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
+        <v>280</v>
+      </c>
+      <c r="O17" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" t="s">
         <v>282</v>
-      </c>
-      <c r="O17" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -3564,13 +3342,13 @@
         <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>94</v>
@@ -3578,27 +3356,27 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3606,13 +3384,13 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -3620,16 +3398,16 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R35" t="s">
         <v>97</v>
@@ -3640,13 +3418,13 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3662,10 +3440,10 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3673,13 +3451,13 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -3699,29 +3477,29 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3755,17 +3533,17 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -3773,58 +3551,58 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3856,48 +3634,48 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>310</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" t="s">
         <v>313</v>
       </c>
-      <c r="I4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" t="s">
-        <v>312</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="R4" t="s">
-        <v>315</v>
-      </c>
       <c r="S4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3907,18 +3685,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="S5" t="s">
         <v>317</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="S5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3930,51 +3708,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3982,7 +3760,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3990,12 +3768,12 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -4007,20 +3785,20 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4297,11 +4075,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:BA78"/>
+  <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4318,8 +4096,8 @@
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="112" customWidth="1"/>
-    <col min="16" max="16" width="6" style="114" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="108" customWidth="1"/>
+    <col min="16" max="16" width="6" style="110" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
     <col min="18" max="18" width="6.85546875" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" style="100" customWidth="1"/>
@@ -4375,8 +4153,8 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="116"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="112"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="96"/>
@@ -4448,10 +4226,10 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="108" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" s="116"/>
+      <c r="O2" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="P2" s="112"/>
       <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
@@ -4555,11 +4333,11 @@
       <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="109" t="s">
+      <c r="O3" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="115" t="s">
-        <v>330</v>
+      <c r="P3" s="111" t="s">
+        <v>328</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>10</v>
@@ -4688,8 +4466,8 @@
       <c r="L4" s="59"/>
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="117"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="113"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="59"/>
       <c r="S4" s="98"/>
@@ -4729,8 +4507,8 @@
       <c r="BA4" s="61"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
-        <v>331</v>
+      <c r="B5" s="139" t="s">
+        <v>329</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -4747,7 +4525,7 @@
       <c r="H5" s="42">
         <v>125</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="117">
         <v>20</v>
       </c>
       <c r="J5" t="s">
@@ -4762,13 +4540,13 @@
       <c r="M5" s="45">
         <v>8</v>
       </c>
-      <c r="N5" s="106">
-        <v>1</v>
-      </c>
-      <c r="O5" s="111">
+      <c r="N5" s="102">
+        <v>1</v>
+      </c>
+      <c r="O5" s="107">
         <v>50000</v>
       </c>
-      <c r="P5" s="118"/>
+      <c r="P5" s="114"/>
       <c r="Q5" s="45">
         <v>140</v>
       </c>
@@ -4852,7 +4630,7 @@
       <c r="H6" s="42">
         <v>250</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="117">
         <f>ROUND((I7/H7 * H6^3)^(1/3),0)</f>
         <v>157</v>
       </c>
@@ -4908,7 +4686,7 @@
       <c r="AN7" s="66"/>
       <c r="AO7" s="66"/>
       <c r="AP7" s="85"/>
-      <c r="AQ7" s="122"/>
+      <c r="AQ7" s="118"/>
       <c r="AR7" s="65"/>
       <c r="AS7" s="81"/>
       <c r="AT7" s="66"/>
@@ -5031,7 +4809,7 @@
       <c r="AN10" s="66"/>
       <c r="AO10" s="66"/>
       <c r="AP10" s="85"/>
-      <c r="AQ10" s="122"/>
+      <c r="AQ10" s="118"/>
       <c r="AR10" s="65"/>
       <c r="AS10" s="81"/>
       <c r="AT10" s="66"/>
@@ -5131,7 +4909,7 @@
       <c r="AN12" s="66"/>
       <c r="AO12" s="66"/>
       <c r="AP12" s="85"/>
-      <c r="AQ12" s="122"/>
+      <c r="AQ12" s="118"/>
       <c r="AR12" s="65"/>
       <c r="AS12" s="81"/>
       <c r="AT12" s="66"/>
@@ -5203,50 +4981,50 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="128"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="128"/>
-      <c r="AP14" s="129"/>
-      <c r="AQ14" s="130"/>
-      <c r="AR14" s="131"/>
-      <c r="AS14" s="132"/>
-      <c r="AT14" s="128"/>
-      <c r="AU14" s="128"/>
-      <c r="AV14" s="129"/>
-      <c r="AW14" s="123"/>
-      <c r="AX14" s="131"/>
-      <c r="AY14" s="123"/>
-      <c r="AZ14" s="123"/>
-      <c r="BA14" s="128"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="125"/>
+      <c r="AQ14" s="126"/>
+      <c r="AR14" s="127"/>
+      <c r="AS14" s="128"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="127"/>
+      <c r="AY14" s="119"/>
+      <c r="AZ14" s="119"/>
+      <c r="BA14" s="124"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
@@ -5261,13 +5039,13 @@
       <c r="M15" s="45">
         <v>10</v>
       </c>
-      <c r="N15" s="106">
-        <v>1</v>
-      </c>
-      <c r="O15" s="111">
+      <c r="N15" s="102">
+        <v>1</v>
+      </c>
+      <c r="O15" s="107">
         <v>50000</v>
       </c>
-      <c r="P15" s="118"/>
+      <c r="P15" s="114"/>
       <c r="Q15" s="45">
         <v>125</v>
       </c>
@@ -5353,7 +5131,7 @@
       <c r="AN16" s="66"/>
       <c r="AO16" s="66"/>
       <c r="AP16" s="85"/>
-      <c r="AQ16" s="122"/>
+      <c r="AQ16" s="118"/>
       <c r="AR16" s="65"/>
       <c r="AS16" s="81"/>
       <c r="AT16" s="66"/>
@@ -5480,7 +5258,7 @@
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
       <c r="AP20" s="85"/>
-      <c r="AQ20" s="122"/>
+      <c r="AQ20" s="118"/>
       <c r="AR20" s="65"/>
       <c r="AS20" s="81"/>
       <c r="AT20" s="66"/>
@@ -5549,50 +5327,50 @@
       </c>
     </row>
     <row r="22" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="123"/>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="123"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="129"/>
-      <c r="AQ22" s="130"/>
-      <c r="AR22" s="131"/>
-      <c r="AS22" s="132"/>
-      <c r="AT22" s="128"/>
-      <c r="AU22" s="128"/>
-      <c r="AV22" s="129"/>
-      <c r="AW22" s="123"/>
-      <c r="AX22" s="131"/>
-      <c r="AY22" s="123"/>
-      <c r="AZ22" s="123"/>
-      <c r="BA22" s="128"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124"/>
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="125"/>
+      <c r="AQ22" s="126"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="124"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="119"/>
+      <c r="AX22" s="127"/>
+      <c r="AY22" s="119"/>
+      <c r="AZ22" s="119"/>
+      <c r="BA22" s="124"/>
     </row>
     <row r="23" spans="10:53" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
@@ -5607,13 +5385,13 @@
       <c r="M23" s="45">
         <v>16</v>
       </c>
-      <c r="N23" s="106">
-        <v>1</v>
-      </c>
-      <c r="O23" s="111">
+      <c r="N23" s="102">
+        <v>1</v>
+      </c>
+      <c r="O23" s="107">
         <v>50000</v>
       </c>
-      <c r="P23" s="118"/>
+      <c r="P23" s="114"/>
       <c r="Q23" s="45">
         <v>122</v>
       </c>
@@ -5702,7 +5480,7 @@
       <c r="AN24" s="66"/>
       <c r="AO24" s="66"/>
       <c r="AP24" s="85"/>
-      <c r="AQ24" s="122"/>
+      <c r="AQ24" s="118"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="81"/>
       <c r="AT24" s="66"/>
@@ -5813,7 +5591,7 @@
       <c r="AN27" s="66"/>
       <c r="AO27" s="66"/>
       <c r="AP27" s="85"/>
-      <c r="AQ27" s="122"/>
+      <c r="AQ27" s="118"/>
       <c r="AR27" s="65"/>
       <c r="AS27" s="81"/>
       <c r="AT27" s="66"/>
@@ -5920,7 +5698,7 @@
       <c r="AN31" s="66"/>
       <c r="AO31" s="66"/>
       <c r="AP31" s="85"/>
-      <c r="AQ31" s="122"/>
+      <c r="AQ31" s="118"/>
       <c r="AR31" s="65"/>
       <c r="AS31" s="81"/>
       <c r="AT31" s="66"/>
@@ -5988,53 +5766,53 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="129"/>
-      <c r="AQ33" s="130"/>
-      <c r="AR33" s="131"/>
-      <c r="AS33" s="132"/>
-      <c r="AT33" s="128"/>
-      <c r="AU33" s="128"/>
-      <c r="AV33" s="129"/>
-      <c r="AW33" s="123"/>
-      <c r="AX33" s="131"/>
-      <c r="AY33" s="123"/>
-      <c r="AZ33" s="123"/>
-      <c r="BA33" s="128"/>
-    </row>
-    <row r="34" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="119"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="119"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="119"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="124"/>
+      <c r="AN33" s="124"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="125"/>
+      <c r="AQ33" s="126"/>
+      <c r="AR33" s="127"/>
+      <c r="AS33" s="128"/>
+      <c r="AT33" s="124"/>
+      <c r="AU33" s="124"/>
+      <c r="AV33" s="125"/>
+      <c r="AW33" s="119"/>
+      <c r="AX33" s="127"/>
+      <c r="AY33" s="119"/>
+      <c r="AZ33" s="119"/>
+      <c r="BA33" s="124"/>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>102</v>
       </c>
@@ -6047,13 +5825,13 @@
       <c r="M34" s="41">
         <v>0</v>
       </c>
-      <c r="N34" s="107">
-        <v>0</v>
-      </c>
-      <c r="O34" s="113">
+      <c r="N34" s="103">
+        <v>0</v>
+      </c>
+      <c r="O34" s="109">
         <v>50000</v>
       </c>
-      <c r="P34" s="119"/>
+      <c r="P34" s="115"/>
       <c r="Q34" s="41">
         <v>4000</v>
       </c>
@@ -6063,12 +5841,12 @@
       <c r="S34" s="101">
         <v>0</v>
       </c>
-      <c r="T34" s="133"/>
+      <c r="T34" s="129"/>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="78"/>
       <c r="X34" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -6076,74 +5854,129 @@
       <c r="Z34">
         <v>1</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
+      <c r="AA34" s="45">
+        <v>7000</v>
       </c>
       <c r="AB34" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AC34" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AD34" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AE34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF34">
-        <v>20</v>
-      </c>
-      <c r="AG34">
-        <v>4.5</v>
-      </c>
-      <c r="AH34" s="77" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AL34" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV34" s="105"/>
-    </row>
-    <row r="35" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="134"/>
-      <c r="AS35" s="135"/>
-      <c r="AT35" s="102"/>
-      <c r="AU35" s="102"/>
-      <c r="AV35" s="103"/>
-      <c r="AW35" s="134"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="65"/>
-      <c r="BA35" s="66"/>
-    </row>
-    <row r="36" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="AN34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX34" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA34" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="119"/>
+      <c r="AA35" s="119"/>
+      <c r="AB35" s="119"/>
+      <c r="AC35" s="119"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="119"/>
+      <c r="AF35" s="119"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="123"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="124"/>
+      <c r="AM35" s="124"/>
+      <c r="AN35" s="124"/>
+      <c r="AO35" s="124"/>
+      <c r="AP35" s="125"/>
+      <c r="AQ35" s="126"/>
+      <c r="AR35" s="127"/>
+      <c r="AS35" s="128"/>
+      <c r="AT35" s="124"/>
+      <c r="AU35" s="124"/>
+      <c r="AV35" s="125"/>
+      <c r="AW35" s="119"/>
+      <c r="AX35" s="127"/>
+      <c r="AY35" s="119"/>
+      <c r="AZ35" s="119"/>
+      <c r="BA35" s="124"/>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="41">
+        <v>0</v>
+      </c>
+      <c r="N36" s="103">
+        <v>0</v>
+      </c>
+      <c r="O36" s="109">
+        <v>50000</v>
+      </c>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="41">
+        <v>2400</v>
+      </c>
+      <c r="R36" s="41">
+        <v>1</v>
+      </c>
+      <c r="S36" s="101">
+        <v>0</v>
+      </c>
       <c r="X36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -6151,80 +5984,127 @@
       <c r="Z36">
         <v>1</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
+      <c r="AA36" s="45">
+        <v>7000</v>
       </c>
       <c r="AB36" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AC36" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AD36" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX36" s="20">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA36" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="119"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="119"/>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="119"/>
+      <c r="AH37" s="123"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="119"/>
+      <c r="AK37" s="119"/>
+      <c r="AL37" s="124"/>
+      <c r="AM37" s="124"/>
+      <c r="AN37" s="124"/>
+      <c r="AO37" s="124"/>
+      <c r="AP37" s="125"/>
+      <c r="AQ37" s="126"/>
+      <c r="AR37" s="127"/>
+      <c r="AS37" s="128"/>
+      <c r="AT37" s="124"/>
+      <c r="AU37" s="124"/>
+      <c r="AV37" s="125"/>
+      <c r="AW37" s="119"/>
+      <c r="AX37" s="127"/>
+      <c r="AY37" s="119"/>
+      <c r="AZ37" s="119"/>
+      <c r="BA37" s="124"/>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
         <v>105</v>
       </c>
-      <c r="AI36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL36" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="104"/>
-      <c r="AU36" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV36" s="105"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-    </row>
-    <row r="37" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="85"/>
-      <c r="AQ37" s="122"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="81"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="85"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="65"/>
-      <c r="BA37" s="66"/>
-    </row>
-    <row r="38" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="M38" s="41">
+        <v>0</v>
+      </c>
+      <c r="N38" s="103">
+        <v>0</v>
+      </c>
+      <c r="O38" s="109">
+        <v>50000</v>
+      </c>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="41">
+        <v>4400</v>
+      </c>
+      <c r="R38" s="41">
+        <v>1</v>
+      </c>
+      <c r="S38" s="101">
+        <v>0</v>
+      </c>
       <c r="X38" t="s">
         <v>98</v>
       </c>
@@ -6280,53 +6160,53 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="123"/>
-      <c r="U39" s="123"/>
-      <c r="V39" s="123"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="123"/>
-      <c r="Y39" s="123"/>
-      <c r="Z39" s="123"/>
-      <c r="AA39" s="123"/>
-      <c r="AB39" s="123"/>
-      <c r="AC39" s="123"/>
-      <c r="AD39" s="123"/>
-      <c r="AE39" s="123"/>
-      <c r="AF39" s="123"/>
-      <c r="AG39" s="123"/>
-      <c r="AH39" s="127"/>
-      <c r="AI39" s="123"/>
-      <c r="AJ39" s="123"/>
-      <c r="AK39" s="123"/>
-      <c r="AL39" s="128"/>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="129"/>
-      <c r="AQ39" s="130"/>
-      <c r="AR39" s="131"/>
-      <c r="AS39" s="132"/>
-      <c r="AT39" s="128"/>
-      <c r="AU39" s="128"/>
-      <c r="AV39" s="129"/>
-      <c r="AW39" s="123"/>
-      <c r="AX39" s="131"/>
-      <c r="AY39" s="123"/>
-      <c r="AZ39" s="123"/>
-      <c r="BA39" s="128"/>
-    </row>
-    <row r="40" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="119"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="123"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="119"/>
+      <c r="AL39" s="124"/>
+      <c r="AM39" s="124"/>
+      <c r="AN39" s="124"/>
+      <c r="AO39" s="124"/>
+      <c r="AP39" s="125"/>
+      <c r="AQ39" s="126"/>
+      <c r="AR39" s="127"/>
+      <c r="AS39" s="128"/>
+      <c r="AT39" s="124"/>
+      <c r="AU39" s="124"/>
+      <c r="AV39" s="125"/>
+      <c r="AW39" s="119"/>
+      <c r="AX39" s="127"/>
+      <c r="AY39" s="119"/>
+      <c r="AZ39" s="119"/>
+      <c r="BA39" s="124"/>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
         <v>106</v>
       </c>
@@ -6334,29 +6214,35 @@
         <v>1</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M40" s="41">
-        <v>0</v>
-      </c>
-      <c r="N40" s="107">
-        <v>0</v>
-      </c>
-      <c r="O40" s="113">
+        <v>20</v>
+      </c>
+      <c r="N40" s="103">
+        <v>1</v>
+      </c>
+      <c r="O40" s="109">
         <v>50000</v>
       </c>
-      <c r="P40" s="119"/>
+      <c r="P40" s="115"/>
       <c r="Q40" s="41">
-        <v>2400</v>
+        <v>161</v>
       </c>
       <c r="R40" s="41">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="S40" s="101">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" t="s">
+        <v>79</v>
       </c>
       <c r="X40" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -6365,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB40" t="s">
         <v>51</v>
@@ -6376,26 +6262,38 @@
       <c r="AD40" t="s">
         <v>82</v>
       </c>
-      <c r="AE40" t="s">
-        <v>83</v>
-      </c>
       <c r="AF40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AH40" s="77" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AL40" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="AQ40" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR40" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="92">
+        <v>50</v>
+      </c>
       <c r="AU40" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s">
+        <v>79</v>
+      </c>
       <c r="X41" s="65"/>
       <c r="Y41" s="65"/>
       <c r="Z41" s="65"/>
@@ -6415,7 +6313,7 @@
       <c r="AN41" s="66"/>
       <c r="AO41" s="66"/>
       <c r="AP41" s="85"/>
-      <c r="AQ41" s="122"/>
+      <c r="AQ41" s="118"/>
       <c r="AR41" s="65"/>
       <c r="AS41" s="81"/>
       <c r="AT41" s="66"/>
@@ -6427,9 +6325,11 @@
       <c r="AZ41" s="65"/>
       <c r="BA41" s="66"/>
     </row>
-    <row r="42" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D42" s="103"/>
+      <c r="E42" s="78"/>
       <c r="X42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -6437,8 +6337,8 @@
       <c r="Z42">
         <v>1</v>
       </c>
-      <c r="AA42" s="45">
-        <v>7000</v>
+      <c r="AA42">
+        <v>3500</v>
       </c>
       <c r="AB42" t="s">
         <v>2</v>
@@ -6455,8 +6355,20 @@
       <c r="AL42" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="AM42" s="17" t="b">
+        <v>1</v>
+      </c>
       <c r="AN42" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR42" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="92">
+        <v>50</v>
       </c>
       <c r="AT42" s="17" t="b">
         <v>0</v>
@@ -6483,122 +6395,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="127"/>
-      <c r="X43" s="123"/>
-      <c r="Y43" s="123"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
-      <c r="AC43" s="123"/>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="127"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
-      <c r="AL43" s="128"/>
-      <c r="AM43" s="128"/>
-      <c r="AN43" s="128"/>
-      <c r="AO43" s="128"/>
-      <c r="AP43" s="129"/>
-      <c r="AQ43" s="130"/>
-      <c r="AR43" s="131"/>
-      <c r="AS43" s="132"/>
-      <c r="AT43" s="128"/>
-      <c r="AU43" s="128"/>
-      <c r="AV43" s="129"/>
-      <c r="AW43" s="123"/>
-      <c r="AX43" s="131"/>
-      <c r="AY43" s="123"/>
-      <c r="AZ43" s="123"/>
-      <c r="BA43" s="128"/>
-    </row>
-    <row r="44" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J44" t="s">
-        <v>107</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="41">
-        <v>0</v>
-      </c>
-      <c r="N44" s="107">
-        <v>0</v>
-      </c>
-      <c r="O44" s="113">
-        <v>50000</v>
-      </c>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="41">
-        <v>4400</v>
-      </c>
-      <c r="R44" s="41">
-        <v>1</v>
-      </c>
-      <c r="S44" s="101">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL44" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU44" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR43" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR44" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AS44" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X45" s="65"/>
       <c r="Y45" s="65"/>
       <c r="Z45" s="65"/>
@@ -6618,7 +6442,7 @@
       <c r="AN45" s="66"/>
       <c r="AO45" s="66"/>
       <c r="AP45" s="85"/>
-      <c r="AQ45" s="122"/>
+      <c r="AQ45" s="118"/>
       <c r="AR45" s="65"/>
       <c r="AS45" s="81"/>
       <c r="AT45" s="66"/>
@@ -6630,13 +6454,10 @@
       <c r="AZ45" s="65"/>
       <c r="BA45" s="66"/>
     </row>
-    <row r="46" spans="10:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="X46" t="s">
         <v>98</v>
       </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
       <c r="Z46">
         <v>1</v>
       </c>
@@ -6686,58 +6507,89 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J47" s="123"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="125"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="123"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="123"/>
-      <c r="U47" s="123"/>
-      <c r="V47" s="123"/>
-      <c r="W47" s="127"/>
-      <c r="X47" s="123"/>
-      <c r="Y47" s="123"/>
-      <c r="Z47" s="123"/>
-      <c r="AA47" s="123"/>
-      <c r="AB47" s="123"/>
-      <c r="AC47" s="123"/>
-      <c r="AD47" s="123"/>
-      <c r="AE47" s="123"/>
-      <c r="AF47" s="123"/>
-      <c r="AG47" s="123"/>
-      <c r="AH47" s="127"/>
-      <c r="AI47" s="123"/>
-      <c r="AJ47" s="123"/>
-      <c r="AK47" s="123"/>
-      <c r="AL47" s="128"/>
-      <c r="AM47" s="128"/>
-      <c r="AN47" s="128"/>
-      <c r="AO47" s="128"/>
-      <c r="AP47" s="129"/>
-      <c r="AQ47" s="130"/>
-      <c r="AR47" s="131"/>
-      <c r="AS47" s="132"/>
-      <c r="AT47" s="128"/>
-      <c r="AU47" s="128"/>
-      <c r="AV47" s="129"/>
-      <c r="AW47" s="123"/>
-      <c r="AX47" s="131"/>
-      <c r="AY47" s="123"/>
-      <c r="AZ47" s="123"/>
-      <c r="BA47" s="128"/>
-    </row>
-    <row r="48" spans="10:53" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
+    <row r="47" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
+      <c r="AA47" s="59"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="59"/>
+      <c r="AE47" s="59"/>
+      <c r="AF47" s="59"/>
+      <c r="AG47" s="59"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="59"/>
+      <c r="AJ47" s="59"/>
+      <c r="AK47" s="59"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="60"/>
+      <c r="AP47" s="84"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="88"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="95"/>
+      <c r="AW47" s="59"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="59"/>
+      <c r="AZ47" s="59"/>
+      <c r="BA47" s="61"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B48" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="78">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
       </c>
-      <c r="K48">
-        <v>1</v>
+      <c r="G48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="42">
+        <v>0</v>
       </c>
       <c r="L48" s="41" t="s">
         <v>79</v>
@@ -6745,39 +6597,30 @@
       <c r="M48" s="41">
         <v>20</v>
       </c>
-      <c r="N48" s="107">
-        <v>1</v>
-      </c>
-      <c r="O48" s="113">
+      <c r="N48" s="103">
+        <v>1</v>
+      </c>
+      <c r="O48" s="109">
         <v>50000</v>
       </c>
-      <c r="P48" s="119"/>
+      <c r="P48" s="115"/>
       <c r="Q48" s="41">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="R48" s="41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="S48" s="101">
-        <v>30</v>
-      </c>
-      <c r="T48" t="s">
-        <v>32</v>
-      </c>
-      <c r="U48" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="X48" t="s">
         <v>80</v>
       </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="s">
         <v>51</v>
@@ -6788,6 +6631,9 @@
       <c r="AD48" t="s">
         <v>82</v>
       </c>
+      <c r="AE48" s="41" t="s">
+        <v>83</v>
+      </c>
       <c r="AF48">
         <v>20</v>
       </c>
@@ -6797,29 +6643,30 @@
       <c r="AH48" s="77" t="s">
         <v>84</v>
       </c>
+      <c r="AI48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>85</v>
+      </c>
       <c r="AL48" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AQ48" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR48" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="92">
-        <v>50</v>
-      </c>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="86"/>
       <c r="AU48" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="17"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="T49" t="s">
-        <v>38</v>
-      </c>
-      <c r="U49" t="s">
-        <v>79</v>
-      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="78"/>
       <c r="X49" s="65"/>
       <c r="Y49" s="65"/>
       <c r="Z49" s="65"/>
@@ -6839,7 +6686,7 @@
       <c r="AN49" s="66"/>
       <c r="AO49" s="66"/>
       <c r="AP49" s="85"/>
-      <c r="AQ49" s="122"/>
+      <c r="AQ49" s="118"/>
       <c r="AR49" s="65"/>
       <c r="AS49" s="81"/>
       <c r="AT49" s="66"/>
@@ -6852,8 +6699,6 @@
       <c r="BA49" s="66"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D50" s="107"/>
-      <c r="E50" s="78"/>
       <c r="X50" t="s">
         <v>95</v>
       </c>
@@ -6968,7 +6813,7 @@
       <c r="AN53" s="66"/>
       <c r="AO53" s="66"/>
       <c r="AP53" s="85"/>
-      <c r="AQ53" s="122"/>
+      <c r="AQ53" s="118"/>
       <c r="AR53" s="65"/>
       <c r="AS53" s="81"/>
       <c r="AT53" s="66"/>
@@ -7048,8 +6893,8 @@
       <c r="L55" s="59"/>
       <c r="M55" s="59"/>
       <c r="N55" s="59"/>
-      <c r="O55" s="110"/>
-      <c r="P55" s="117"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="113"/>
       <c r="Q55" s="59"/>
       <c r="R55" s="59"/>
       <c r="S55" s="98"/>
@@ -7089,33 +6934,33 @@
       <c r="BA55" s="61"/>
     </row>
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B56" s="145" t="s">
-        <v>343</v>
+      <c r="B56" s="139" t="s">
+        <v>329</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="107" t="s">
-        <v>109</v>
+      <c r="D56" s="103" t="s">
+        <v>112</v>
       </c>
       <c r="E56" s="78">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K56" s="42">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="H56" s="42">
+        <v>125</v>
+      </c>
+      <c r="I56" s="117">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
       </c>
       <c r="L56" s="41" t="s">
         <v>79</v>
@@ -7123,13 +6968,13 @@
       <c r="M56" s="41">
         <v>20</v>
       </c>
-      <c r="N56" s="107">
-        <v>1</v>
-      </c>
-      <c r="O56" s="113">
+      <c r="N56" s="103">
+        <v>1</v>
+      </c>
+      <c r="O56" s="109">
         <v>50000</v>
       </c>
-      <c r="P56" s="119"/>
+      <c r="P56" s="115"/>
       <c r="Q56" s="41">
         <v>50</v>
       </c>
@@ -7138,6 +6983,12 @@
       </c>
       <c r="S56" s="101">
         <v>10</v>
+      </c>
+      <c r="T56" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" t="s">
+        <v>79</v>
       </c>
       <c r="X56" t="s">
         <v>80</v>
@@ -7191,8 +7042,27 @@
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C57" s="41"/>
-      <c r="D57" s="107"/>
+      <c r="D57" s="103"/>
       <c r="E57" s="78"/>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="42">
+        <v>250</v>
+      </c>
+      <c r="I57" s="117">
+        <f>ROUND((I58/H58 * H57^3)^(1/3),0)</f>
+        <v>157</v>
+      </c>
+      <c r="T57" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s">
+        <v>79</v>
+      </c>
       <c r="X57" s="65"/>
       <c r="Y57" s="65"/>
       <c r="Z57" s="65"/>
@@ -7212,7 +7082,7 @@
       <c r="AN57" s="66"/>
       <c r="AO57" s="66"/>
       <c r="AP57" s="85"/>
-      <c r="AQ57" s="122"/>
+      <c r="AQ57" s="118"/>
       <c r="AR57" s="65"/>
       <c r="AS57" s="81"/>
       <c r="AT57" s="66"/>
@@ -7225,6 +7095,18 @@
       <c r="BA57" s="66"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
       <c r="X58" t="s">
         <v>95</v>
       </c>
@@ -7339,7 +7221,7 @@
       <c r="AN61" s="66"/>
       <c r="AO61" s="66"/>
       <c r="AP61" s="85"/>
-      <c r="AQ61" s="122"/>
+      <c r="AQ61" s="118"/>
       <c r="AR61" s="65"/>
       <c r="AS61" s="81"/>
       <c r="AT61" s="66"/>
@@ -7404,70 +7286,69 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="110"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="98"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
-      <c r="AC63" s="59"/>
-      <c r="AD63" s="59"/>
-      <c r="AE63" s="59"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="76"/>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="61"/>
-      <c r="AM63" s="61"/>
-      <c r="AN63" s="61"/>
-      <c r="AO63" s="60"/>
-      <c r="AP63" s="84"/>
-      <c r="AQ63" s="69"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="88"/>
-      <c r="AT63" s="61"/>
-      <c r="AU63" s="61"/>
-      <c r="AV63" s="95"/>
-      <c r="AW63" s="59"/>
-      <c r="AX63" s="62"/>
-      <c r="AY63" s="59"/>
-      <c r="AZ63" s="59"/>
-      <c r="BA63" s="61"/>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="131"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="130"/>
+      <c r="R63" s="130"/>
+      <c r="S63" s="133"/>
+      <c r="T63" s="130"/>
+      <c r="U63" s="130"/>
+      <c r="V63" s="130"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="130"/>
+      <c r="Y63" s="130"/>
+      <c r="Z63" s="130"/>
+      <c r="AA63" s="130"/>
+      <c r="AB63" s="130"/>
+      <c r="AC63" s="130"/>
+      <c r="AD63" s="130"/>
+      <c r="AE63" s="130"/>
+      <c r="AF63" s="130"/>
+      <c r="AG63" s="130"/>
+      <c r="AH63" s="116"/>
+      <c r="AI63" s="130"/>
+      <c r="AJ63" s="130"/>
+      <c r="AK63" s="130"/>
+      <c r="AL63" s="134"/>
+      <c r="AM63" s="134"/>
+      <c r="AN63" s="134"/>
+      <c r="AO63" s="134"/>
+      <c r="AP63" s="135"/>
+      <c r="AQ63" s="136"/>
+      <c r="AR63" s="137"/>
+      <c r="AS63" s="138"/>
+      <c r="AT63" s="134"/>
+      <c r="AU63" s="134"/>
+      <c r="AV63" s="135"/>
+      <c r="AW63" s="130"/>
+      <c r="AX63" s="137"/>
+      <c r="AY63" s="130"/>
+      <c r="AZ63" s="130"/>
+      <c r="BA63" s="134"/>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B64" s="145" t="s">
-        <v>331</v>
-      </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="78">
+      <c r="B64" s="139" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="77">
         <v>0</v>
       </c>
       <c r="F64" t="s">
@@ -7479,11 +7360,11 @@
       <c r="H64" s="42">
         <v>125</v>
       </c>
-      <c r="I64" s="121">
+      <c r="I64" s="117">
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -7494,20 +7375,19 @@
       <c r="M64" s="41">
         <v>20</v>
       </c>
-      <c r="N64" s="107">
-        <v>1</v>
-      </c>
-      <c r="O64" s="113">
+      <c r="N64" s="103">
+        <v>1</v>
+      </c>
+      <c r="O64" s="108">
         <v>50000</v>
       </c>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="41">
+      <c r="Q64">
         <v>50</v>
       </c>
-      <c r="R64" s="41">
+      <c r="R64">
         <v>3</v>
       </c>
-      <c r="S64" s="101">
+      <c r="S64" s="100">
         <v>10</v>
       </c>
       <c r="T64" t="s">
@@ -7566,10 +7446,7 @@
       <c r="AY64" s="17"/>
       <c r="AZ64" s="17"/>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="C65" s="41"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="78"/>
+    <row r="65" spans="2:53" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>38</v>
       </c>
@@ -7579,7 +7456,7 @@
       <c r="H65" s="42">
         <v>250</v>
       </c>
-      <c r="I65" s="121">
+      <c r="I65" s="117">
         <f>ROUND((I66/H66 * H65^3)^(1/3),0)</f>
         <v>157</v>
       </c>
@@ -7608,7 +7485,7 @@
       <c r="AN65" s="66"/>
       <c r="AO65" s="66"/>
       <c r="AP65" s="85"/>
-      <c r="AQ65" s="122"/>
+      <c r="AQ65" s="118"/>
       <c r="AR65" s="65"/>
       <c r="AS65" s="81"/>
       <c r="AT65" s="66"/>
@@ -7620,7 +7497,7 @@
       <c r="AZ65" s="65"/>
       <c r="BA65" s="66"/>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:53" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +7577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:53" x14ac:dyDescent="0.25">
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67"/>
@@ -7716,7 +7593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:53" x14ac:dyDescent="0.25">
       <c r="AQ68" s="71" t="s">
         <v>37</v>
       </c>
@@ -7727,7 +7604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:53" x14ac:dyDescent="0.25">
       <c r="X69" s="65"/>
       <c r="Y69" s="65"/>
       <c r="Z69" s="65"/>
@@ -7747,7 +7624,7 @@
       <c r="AN69" s="66"/>
       <c r="AO69" s="66"/>
       <c r="AP69" s="85"/>
-      <c r="AQ69" s="122"/>
+      <c r="AQ69" s="118"/>
       <c r="AR69" s="65"/>
       <c r="AS69" s="81"/>
       <c r="AT69" s="66"/>
@@ -7759,7 +7636,15 @@
       <c r="AZ69" s="65"/>
       <c r="BA69" s="66"/>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="X70" t="s">
         <v>98</v>
       </c>
@@ -7812,844 +7697,298 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A71" s="136"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="136"/>
-      <c r="G71" s="136"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="136"/>
-      <c r="J71" s="136"/>
-      <c r="K71" s="136"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="137"/>
-      <c r="P71" s="138"/>
-      <c r="Q71" s="136"/>
-      <c r="R71" s="136"/>
-      <c r="S71" s="139"/>
-      <c r="T71" s="136"/>
-      <c r="U71" s="136"/>
-      <c r="V71" s="136"/>
-      <c r="W71" s="120"/>
-      <c r="X71" s="136"/>
-      <c r="Y71" s="136"/>
-      <c r="Z71" s="136"/>
-      <c r="AA71" s="136"/>
-      <c r="AB71" s="136"/>
-      <c r="AC71" s="136"/>
-      <c r="AD71" s="136"/>
-      <c r="AE71" s="136"/>
-      <c r="AF71" s="136"/>
-      <c r="AG71" s="136"/>
-      <c r="AH71" s="120"/>
-      <c r="AI71" s="136"/>
-      <c r="AJ71" s="136"/>
-      <c r="AK71" s="136"/>
-      <c r="AL71" s="140"/>
-      <c r="AM71" s="140"/>
-      <c r="AN71" s="140"/>
-      <c r="AO71" s="140"/>
-      <c r="AP71" s="141"/>
-      <c r="AQ71" s="142"/>
-      <c r="AR71" s="143"/>
-      <c r="AS71" s="144"/>
-      <c r="AT71" s="140"/>
-      <c r="AU71" s="140"/>
-      <c r="AV71" s="141"/>
-      <c r="AW71" s="136"/>
-      <c r="AX71" s="143"/>
-      <c r="AY71" s="136"/>
-      <c r="AZ71" s="136"/>
-      <c r="BA71" s="140"/>
-    </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B72" s="145" t="s">
-        <v>331</v>
-      </c>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="77">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
-      <c r="H72" s="42">
-        <v>125</v>
-      </c>
-      <c r="I72" s="121">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="M72" s="41">
-        <v>20</v>
-      </c>
-      <c r="N72" s="107">
-        <v>1</v>
-      </c>
-      <c r="O72" s="112">
-        <v>50000</v>
-      </c>
-      <c r="Q72">
-        <v>50</v>
-      </c>
-      <c r="R72">
-        <v>3</v>
-      </c>
-      <c r="S72" s="100">
-        <v>10</v>
-      </c>
-      <c r="T72" t="s">
-        <v>32</v>
-      </c>
-      <c r="U72" t="s">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z72">
-        <v>0.8</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE72" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF72">
-        <v>20</v>
-      </c>
-      <c r="AG72">
-        <v>4.5</v>
-      </c>
-      <c r="AH72" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL72" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR72" s="17"/>
-      <c r="AS72" s="86"/>
-      <c r="AU72" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY72" s="17"/>
-      <c r="AZ72" s="17"/>
-    </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
-      <c r="H73" s="42">
-        <v>250</v>
-      </c>
-      <c r="I73" s="121">
-        <f>ROUND((I74/H74 * H73^3)^(1/3),0)</f>
-        <v>157</v>
-      </c>
-      <c r="T73" t="s">
-        <v>38</v>
-      </c>
-      <c r="U73" t="s">
-        <v>79</v>
-      </c>
-      <c r="X73" s="65"/>
-      <c r="Y73" s="65"/>
-      <c r="Z73" s="65"/>
-      <c r="AA73" s="65"/>
-      <c r="AB73" s="65"/>
-      <c r="AC73" s="65"/>
-      <c r="AD73" s="65"/>
-      <c r="AE73" s="65"/>
-      <c r="AF73" s="65"/>
-      <c r="AG73" s="65"/>
-      <c r="AH73" s="81"/>
-      <c r="AI73" s="65"/>
-      <c r="AJ73" s="65"/>
-      <c r="AK73" s="65"/>
-      <c r="AL73" s="66"/>
-      <c r="AM73" s="66"/>
-      <c r="AN73" s="66"/>
-      <c r="AO73" s="66"/>
-      <c r="AP73" s="85"/>
-      <c r="AQ73" s="122"/>
-      <c r="AR73" s="65"/>
-      <c r="AS73" s="81"/>
-      <c r="AT73" s="66"/>
-      <c r="AU73" s="66"/>
-      <c r="AV73" s="85"/>
-      <c r="AW73" s="65"/>
-      <c r="AX73" s="67"/>
-      <c r="AY73" s="65"/>
-      <c r="AZ73" s="65"/>
-      <c r="BA73" s="66"/>
-    </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="X74" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
-        <v>3500</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL74" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM74" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN74" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR74" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS74" s="92">
-        <v>50</v>
-      </c>
-      <c r="AT74" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU74" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV74" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX74" s="20">
-        <v>1</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ74" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA74" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AL75"/>
-      <c r="AM75"/>
-      <c r="AN75"/>
-      <c r="AO75"/>
-      <c r="AP75" s="77"/>
-      <c r="AQ75" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR75" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="92">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AQ76" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR76" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="AS76" s="92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="65"/>
-      <c r="AA77" s="65"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="65"/>
-      <c r="AD77" s="65"/>
-      <c r="AE77" s="65"/>
-      <c r="AF77" s="65"/>
-      <c r="AG77" s="65"/>
-      <c r="AH77" s="81"/>
-      <c r="AI77" s="65"/>
-      <c r="AJ77" s="65"/>
-      <c r="AK77" s="65"/>
-      <c r="AL77" s="66"/>
-      <c r="AM77" s="66"/>
-      <c r="AN77" s="66"/>
-      <c r="AO77" s="66"/>
-      <c r="AP77" s="85"/>
-      <c r="AQ77" s="122"/>
-      <c r="AR77" s="65"/>
-      <c r="AS77" s="81"/>
-      <c r="AT77" s="66"/>
-      <c r="AU77" s="66"/>
-      <c r="AV77" s="85"/>
-      <c r="AW77" s="65"/>
-      <c r="AX77" s="67"/>
-      <c r="AY77" s="65"/>
-      <c r="AZ77" s="65"/>
-      <c r="BA77" s="66"/>
-    </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="X78" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z78">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="45">
-        <v>7000</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL78" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN78" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT78" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU78" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV78" s="86" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX78" s="20">
-        <v>1</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA78" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B65:B68 B14:B21 B33:C54 B5:C11 C21:C23 C65:C67 C57:C59 B61:C62 C14:C18 B56:C56 B64:C64 B69:C75 E69:E75 E14:E18 E61:E62 E56:E59 E64:E67 E33:E54 E5:E11 E21:E23">
-    <cfRule type="cellIs" dxfId="145" priority="240" operator="equal">
+  <conditionalFormatting sqref="B57:B60 B14:B21 B5:C11 C21:C23 C57:C59 C49:C51 B53:C54 C14:C18 B48:C48 B56:C56 B61:C67 E61:E67 E14:E18 E53:E54 E48:E51 E56:E59 E5:E11 E21:E23 B36:P46 T36:W36 J32:P33 J35:P35 B33:I35 Q34:S40 J34:W34">
+    <cfRule type="cellIs" dxfId="118" priority="240" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B32 C24:C29 C32 E32 E24:E29">
-    <cfRule type="cellIs" dxfId="144" priority="214" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="143" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="214" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B52">
+    <cfRule type="cellIs" dxfId="116" priority="194" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13 E12:E13">
-    <cfRule type="cellIs" dxfId="142" priority="187" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D75 D14:D18 D61:D62 D56:D59 D64:D67 D33:D54 D5:D11 D21:D23">
-    <cfRule type="cellIs" dxfId="141" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="187" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D67 D14:D18 D53:D54 D48:D51 D56:D59 D5:D11 D21:D23">
+    <cfRule type="cellIs" dxfId="114" priority="139" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32 D24:D29">
-    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="138" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="139" priority="137" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC15 AI48:AT48 AQ17:AV18 AT37:AV37 AT16:BA16 AT45:BA45 AT41:BA41 AT24:BA26 AT35:AV35 AW35:BA37 AT57:BA57 T35:W38 T46:W46 T69:W70 T32:W32 T27:W29 T25:AD25 F5:H7 AQ36:AV36 T40:W42 F33:I54 AE15:AH15 X16:AG16 X35:AP35 AD22:AZ22 T26:AG26 T24:AP24 T57:AP57 T33:AZ33 T43:AZ43 AH47:AZ47 T39:AZ39 AF34:AV34 AC17:AG17 AH16:AP17 X20:AP20 X37:AP37 T45:AP45 X41:AP41 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 T71:BA71 AE36:AH36 F9:H11 F8:G8 X40:AD40 T47:AG48 AF40:AT40 AF44:AT44 BA22:BA23 BA33:BA34 BA39:BA40 BA43:BA44 BA47:BA48 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 AV44 AV48 Q15:Y15 Q23:Y23 Q34:AD34 Q44:AD44 Q56:BA56 Q21:W21 J21:O29 Q16:W18 Q32:S33 J32:O54 Q22:AB22 Q66:W67 F67:O67 Q69:S75 Q57:S59 F56:O59 Q61:W62 F61:O62 Q24:S29 Q35:S43 Q45:S48 Q49:W54 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19 T58:W59 T74:W75 F69:O71 J64:O66 F75:O75 J72:O74 Q64:S65 V64:W65 V72:W73">
-    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="137" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15 AI40:AT40 AQ17:AV18 AT16:BA16 AT24:BA26 AT49:BA49 T38:W38 T61:W62 T32:W32 T27:W29 T25:AD25 F5:H7 AE15:AH15 X16:AG16 AD22:AZ22 T26:AG26 T24:AP24 T49:AP49 AH39:AZ39 AC17:AG17 AH16:AP17 X20:AP20 AF23:AH23 AF25:AG25 AH25:AS26 AT20:BA20 T63:BA63 F9:H11 F8:G8 T39:AG40 BA22:BA23 T33:BA33 T35:BA35 T37:BA37 BA39:BA40 F20:I23 AL15:AT15 AV15:BA15 AL23:AT23 AV23:AZ23 AV40 Q15:Y15 Q23:Y23 Q48:BA48 Q21:W21 J21:O29 Q16:W18 Q32:S33 Q22:AB22 Q58:W59 F59:O59 Q61:S67 Q49:S51 F48:O51 Q53:W54 F53:O54 Q24:S29 Q41:W46 Q14:AB14 F14:I17 J14:O18 Q12:AP13 L5:O13 Q7:AG11 Q5:AS6 F19 T50:W51 T66:W67 F61:O63 J56:O58 F67:O67 J64:O66 Q56:S57 V56:W57 V64:W65">
+    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AA15">
-    <cfRule type="cellIs" dxfId="137" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="135" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="134" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AK15">
-    <cfRule type="cellIs" dxfId="135" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="133" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB15:AD15">
-    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="132" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33:AB33">
-    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z34:AA34">
-    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI34:AK34">
-    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AD34">
-    <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW34:BA34">
-    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW18:BA18 AQ19 X17:AA17 AW17:AZ17">
-    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:AA44">
-    <cfRule type="cellIs" dxfId="126" priority="124" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI44:AK44">
-    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44:AD44">
-    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW44:BA44">
-    <cfRule type="cellIs" dxfId="122" priority="120" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48:AA48">
-    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI48:AK48">
-    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB48:AD48">
-    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW48:BA48">
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z40:AA40">
-    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="119" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI40:AK40">
+    <cfRule type="cellIs" dxfId="103" priority="118" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40:AD40">
+    <cfRule type="cellIs" dxfId="102" priority="117" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW40:BA40">
+    <cfRule type="cellIs" dxfId="101" priority="116" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AA23">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="98" priority="108" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI23:AK23">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB23:AD23">
+    <cfRule type="cellIs" dxfId="96" priority="106" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17">
+    <cfRule type="cellIs" dxfId="95" priority="104" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI40:AK40">
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB40:AD40">
-    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW40:BA40">
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC22:AC23 F24:I28 F31:I32">
-    <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:AA23">
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI23:AK23">
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB23:AD23">
-    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB17">
-    <cfRule type="cellIs" dxfId="107" priority="104" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE44">
-    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE40">
-    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="103" priority="100" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="101" priority="98" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH48">
-    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36 X36:Y36">
-    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36:AA36 AL36:AP36">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36:AK36">
-    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB36:AD36">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="94" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H13">
-    <cfRule type="cellIs" dxfId="93" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I11 H8">
-    <cfRule type="cellIs" dxfId="92" priority="87" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:AA21 AC21:AZ21">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21">
-    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X38:Z38 AC38:BA38">
-    <cfRule type="cellIs" dxfId="87" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="81" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Z34 AC34:BA34">
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34">
+    <cfRule type="cellIs" dxfId="84" priority="79" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36:Z36 AC36:AZ36">
+    <cfRule type="cellIs" dxfId="83" priority="78" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB36">
+    <cfRule type="cellIs" dxfId="82" priority="77" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:Z38 AC38:AZ38">
+    <cfRule type="cellIs" dxfId="81" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Z42 AC42:AZ42">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14:BA14">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:K13">
+    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT12:BA12 AQ13:AZ13">
+    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ11">
+    <cfRule type="cellIs" dxfId="74" priority="68" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA10 AT11:AZ11">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 AT28:AV29">
+    <cfRule type="cellIs" dxfId="72" priority="67" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW29:BA29 X28:AA28 AW28:AZ28">
+    <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB28">
+    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32:AA32 AC32:AZ32">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB32">
+    <cfRule type="cellIs" dxfId="68" priority="63" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ42:AV43 AT41:BA41 X41:AG41 AC42:AG42 AH41:AP42 X45:AP45 AT45:BA45">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW43:BA43 AQ44 X42:AA42 AW42:AZ42">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42">
-    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X46:Z46 AC46:AZ46">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="60" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X46:AA46 AC46:AZ46">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46">
-    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14:BA14">
-    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K13">
-    <cfRule type="cellIs" dxfId="79" priority="72" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT12:BA12 AQ13:AZ13">
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ11">
-    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AP11 AH8:AS9 AH7:AP7 AT5:BA10 AT11:AZ11">
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:BA27 X27:AG27 AC28:AG28 AH27:AP28 X31:AP31 AT31:BA31 AT28:AV29">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW29:BA29 X28:AA28 AW28:AZ28">
-    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB28">
-    <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32:AA32 AC32:AZ32">
-    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ50:AV51 AT49:BA49 X49:AG49 AC50:AG50 AH49:AP50 X53:AP53 AT53:BA53">
-    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW51:BA51 AQ52 X50:AA50 AW50:AZ50">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB50">
-    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X54:AA54 AC54:AZ54">
-    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB54">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU23">
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU40">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU44">
-    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU48">
     <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8664,12 +8003,12 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O56">
+  <conditionalFormatting sqref="O48">
     <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O38">
     <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8679,22 +8018,22 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
+  <conditionalFormatting sqref="O56">
     <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48">
+  <conditionalFormatting sqref="O40">
     <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O40">
+  <conditionalFormatting sqref="O36">
     <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64:P67 P69:P75 P56:P59 P61:P62 P21:P29 P32:P54 P5:P18">
+  <conditionalFormatting sqref="P56:P59 P61:P67 P48:P51 P53:P54 P21:P29 P5:P18">
     <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8714,172 +8053,172 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA34">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA36">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42">
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA46">
     <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB54">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ50:AV51 AC50:AP50 X53:AP53 AT53:BA53">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW51:BA51 AQ52 X50:AA50 AW50:AZ50">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB50">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X54:AA54 AC54:AZ54">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT57:BA57 X57:AP57 X56:BA56">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB62">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ58:AV59 AC58:AP58 X61:AP61 AT61:BA61">
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW59:BA59 AQ60 X58:AA58 AW58:AZ58">
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB58">
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X62:AA62 AC62:AZ62">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X62:AA62 AC62:BA62">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT65:BA65 X65:AP65 X64:BA64">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB70">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ66:AV67 AC66:AP66 X69:AP69 AT69:BA69">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW67:BA67 AQ68 X66:AA66 AW66:AZ66">
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB66">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X70:AA70 AC70:BA70">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT73:BA73 X73:AP73 X72:BA72">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB78">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ74:AV75 AC74:AP74 X77:AP77 AT77:BA77">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW75:BA75 AQ76 X74:AA74 AW74:AZ74">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB74">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X78:AA78 AC78:BA78">
     <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F56:H58">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:I58">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F64:H66">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64:I66">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:H74">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T56:U57">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T64:U65">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T72:U73">
     <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BA36">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA66">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA58">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA54">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA50">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA46">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BA42">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA74">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA66">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA62">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA58">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA54">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA50">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA46">
+  <conditionalFormatting sqref="BA38">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8938,39 +8277,39 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -8978,7 +8317,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8989,7 +8328,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9000,204 +8339,204 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="T9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="T10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="T11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
         <v>338</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>340</v>
       </c>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9206,34 +8545,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9242,28 +8581,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9304,7 +8643,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9330,12 +8669,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9375,7 +8714,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>103</v>
@@ -9387,12 +8726,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9407,12 +8746,12 @@
         <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>103</v>
@@ -9423,7 +8762,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9449,7 +8788,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -9460,7 +8799,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -9471,7 +8810,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9479,7 +8818,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9500,13 +8839,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9514,22 +8853,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9544,12 +8883,12 @@
         <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9564,7 +8903,7 @@
         <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -9590,10 +8929,10 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9607,7 +8946,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9632,10 +8971,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9644,45 +8983,45 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>180</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -9690,7 +9029,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9753,7 +9092,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9765,7 +9104,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9778,7 +9117,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9819,7 +9158,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9834,7 +9173,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>58</v>
@@ -9858,7 +9197,7 @@
         <v>63</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -9889,7 +9228,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9909,7 +9248,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9927,7 +9266,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>81</v>
@@ -9954,10 +9293,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>85</v>
@@ -9972,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10017,7 +9356,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -10035,7 +9374,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10123,7 +9462,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10270,7 +9609,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>81</v>
@@ -10282,7 +9621,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>81</v>
@@ -10294,7 +9633,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>85</v>
@@ -10309,45 +9648,45 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
@@ -10400,16 +9739,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10444,7 +9783,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10556,7 +9895,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10571,33 +9910,33 @@
         <v>96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10624,7 +9963,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10636,13 +9975,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>86</v>
@@ -10678,13 +10017,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10694,7 +10033,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10716,13 +10055,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10732,7 +10071,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10877,19 +10216,19 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -10903,16 +10242,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -10923,10 +10262,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
@@ -10934,7 +10273,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10946,7 +10285,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10996,19 +10335,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
@@ -11016,16 +10355,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
         <v>87</v>
@@ -11034,15 +10373,15 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -11053,7 +10392,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11067,7 +10406,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -11121,226 +10460,226 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11361,72 +10700,72 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -11439,86 +10778,86 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11531,72 +10870,72 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -11617,16 +10956,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -11639,226 +10978,226 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -11871,86 +11210,86 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -11971,44 +11310,44 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
